--- a/Trabajo práctico final/2023 ADMISIÓN_ANONIMIZADA.xlsx
+++ b/Trabajo práctico final/2023 ADMISIÓN_ANONIMIZADA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cargillonline-my.sharepoint.com/personal/alfonsina_badin_cargill_com/Documents/Documents/Alfon Facultad/bioestadistica2024/Trabajo práctico final/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_DF01BE1AFA881D0E36DE5F719AD8581D64E3C735" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C95BEBB-6B2F-4B11-9636-D0AB5164D5E3}"/>
   <bookViews>
-    <workbookView xWindow="393" yWindow="550" windowWidth="17987" windowHeight="7370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro admisiones" sheetId="1" r:id="rId1"/>
@@ -688,7 +694,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d/m"/>
     <numFmt numFmtId="165" formatCode="dd/mm"/>
@@ -1591,6 +1597,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1792,7 +1801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1800,32 +1809,32 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C313"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="6.25" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="5.875" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
-    <col min="13" max="13" width="13.375" customWidth="1"/>
-    <col min="15" max="16" width="14.125" customWidth="1"/>
-    <col min="17" max="20" width="12.125" customWidth="1"/>
-    <col min="21" max="21" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="15" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="20" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
     <col min="22" max="22" width="51" customWidth="1"/>
-    <col min="23" max="23" width="23.375" customWidth="1"/>
+    <col min="23" max="23" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="26.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +1903,7 @@
       </c>
       <c r="W1" s="13"/>
     </row>
-    <row r="2" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="209">
         <v>99000300</v>
@@ -1961,7 +1970,7 @@
       <c r="AF2" s="26"/>
       <c r="AG2" s="26"/>
     </row>
-    <row r="3" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="209">
         <v>99000301</v>
@@ -2020,7 +2029,7 @@
       <c r="V3" s="25"/>
       <c r="W3" s="25"/>
     </row>
-    <row r="4" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="209">
         <v>99000302</v>
@@ -2073,7 +2082,7 @@
       <c r="V4" s="25"/>
       <c r="W4" s="25"/>
     </row>
-    <row r="5" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="209">
         <v>99000303</v>
@@ -2132,7 +2141,7 @@
       </c>
       <c r="W5" s="25"/>
     </row>
-    <row r="6" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="209">
         <v>99000304</v>
@@ -2189,7 +2198,7 @@
       </c>
       <c r="W6" s="25"/>
     </row>
-    <row r="7" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="209">
         <v>99000305</v>
@@ -2258,7 +2267,7 @@
       <c r="AF7" s="35"/>
       <c r="AG7" s="35"/>
     </row>
-    <row r="8" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="209">
         <v>99000306</v>
@@ -2317,7 +2326,7 @@
       <c r="V8" s="25"/>
       <c r="W8" s="25"/>
     </row>
-    <row r="9" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="209">
         <v>99000307</v>
@@ -2372,7 +2381,7 @@
       </c>
       <c r="W9" s="24"/>
     </row>
-    <row r="10" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="209">
         <v>99000308</v>
@@ -2437,7 +2446,7 @@
       <c r="AF10" s="35"/>
       <c r="AG10" s="35"/>
     </row>
-    <row r="11" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="209">
         <v>99000309</v>
@@ -2500,7 +2509,7 @@
       <c r="AF11" s="35"/>
       <c r="AG11" s="35"/>
     </row>
-    <row r="12" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="209">
         <v>99000310</v>
@@ -2555,7 +2564,7 @@
       <c r="V12" s="25"/>
       <c r="W12" s="25"/>
     </row>
-    <row r="13" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="209">
         <v>99000311</v>
@@ -2612,7 +2621,7 @@
       </c>
       <c r="W13" s="25"/>
     </row>
-    <row r="14" spans="1:33" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="209">
         <v>99000312</v>
@@ -2669,7 +2678,7 @@
       </c>
       <c r="W14" s="39"/>
     </row>
-    <row r="15" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="209">
         <v>99000313</v>
@@ -2726,7 +2735,7 @@
       </c>
       <c r="W15" s="24"/>
     </row>
-    <row r="16" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="209">
         <v>99000314</v>
@@ -2781,7 +2790,7 @@
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
     </row>
-    <row r="17" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="209">
         <v>99000315</v>
@@ -2848,7 +2857,7 @@
       <c r="AF17" s="35"/>
       <c r="AG17" s="35"/>
     </row>
-    <row r="18" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="209">
         <v>99000316</v>
@@ -2905,7 +2914,7 @@
       <c r="V18" s="25"/>
       <c r="W18" s="25"/>
     </row>
-    <row r="19" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="209">
         <v>99000317</v>
@@ -2962,7 +2971,7 @@
       <c r="V19" s="25"/>
       <c r="W19" s="24"/>
     </row>
-    <row r="20" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="209">
         <v>99000318</v>
@@ -3019,7 +3028,7 @@
       <c r="V20" s="25"/>
       <c r="W20" s="24"/>
     </row>
-    <row r="21" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="209">
         <v>99000319</v>
@@ -3074,7 +3083,7 @@
       <c r="V21" s="25"/>
       <c r="W21" s="24"/>
     </row>
-    <row r="22" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="209">
         <v>99000320</v>
@@ -3131,7 +3140,7 @@
       <c r="V22" s="25"/>
       <c r="W22" s="24"/>
     </row>
-    <row r="23" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="209">
         <v>99000321</v>
@@ -3186,7 +3195,7 @@
       <c r="V23" s="25"/>
       <c r="W23" s="24"/>
     </row>
-    <row r="24" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="209">
         <v>99000322</v>
@@ -3245,7 +3254,7 @@
       </c>
       <c r="W24" s="25"/>
     </row>
-    <row r="25" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="209">
         <v>99000323</v>
@@ -3302,7 +3311,7 @@
       <c r="V25" s="25"/>
       <c r="W25" s="25"/>
     </row>
-    <row r="26" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="209">
         <v>99000324</v>
@@ -3357,7 +3366,7 @@
       </c>
       <c r="W26" s="24"/>
     </row>
-    <row r="27" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="209">
         <v>99000325</v>
@@ -3414,7 +3423,7 @@
       <c r="V27" s="25"/>
       <c r="W27" s="25"/>
     </row>
-    <row r="28" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="209">
         <v>99000326</v>
@@ -3471,7 +3480,7 @@
       </c>
       <c r="W28" s="25"/>
     </row>
-    <row r="29" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="209">
         <v>99000327</v>
@@ -3528,7 +3537,7 @@
       </c>
       <c r="W29" s="25"/>
     </row>
-    <row r="30" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="209">
         <v>99000328</v>
@@ -3583,7 +3592,7 @@
       <c r="V30" s="24"/>
       <c r="W30" s="24"/>
     </row>
-    <row r="31" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="209">
         <v>99000329</v>
@@ -3640,7 +3649,7 @@
       </c>
       <c r="W31" s="24"/>
     </row>
-    <row r="32" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="209">
         <v>99000330</v>
@@ -3693,7 +3702,7 @@
       <c r="V32" s="25"/>
       <c r="W32" s="24"/>
     </row>
-    <row r="33" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="209">
         <v>99000331</v>
@@ -3750,7 +3759,7 @@
       <c r="V33" s="52"/>
       <c r="W33" s="53"/>
     </row>
-    <row r="34" spans="1:33" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="209">
         <v>99000332</v>
@@ -3807,7 +3816,7 @@
       <c r="V34" s="25"/>
       <c r="W34" s="24"/>
     </row>
-    <row r="35" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="209">
         <v>99000333</v>
@@ -3866,7 +3875,7 @@
       </c>
       <c r="W35" s="25"/>
     </row>
-    <row r="36" spans="1:33" ht="76.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" ht="76.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="209">
         <v>99000334</v>
@@ -3923,7 +3932,7 @@
       <c r="V36" s="52"/>
       <c r="W36" s="25"/>
     </row>
-    <row r="37" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="209">
         <v>99000335</v>
@@ -3978,7 +3987,7 @@
       <c r="V37" s="25"/>
       <c r="W37" s="25"/>
     </row>
-    <row r="38" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="209">
         <v>99000336</v>
@@ -4043,7 +4052,7 @@
       <c r="AF38" s="35"/>
       <c r="AG38" s="35"/>
     </row>
-    <row r="39" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="209">
         <v>99000337</v>
@@ -4098,7 +4107,7 @@
       <c r="V39" s="25"/>
       <c r="W39" s="25"/>
     </row>
-    <row r="40" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="209">
         <v>99000338</v>
@@ -4153,7 +4162,7 @@
       </c>
       <c r="W40" s="25"/>
     </row>
-    <row r="41" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
       <c r="B41" s="209">
         <v>99000339</v>
@@ -4218,7 +4227,7 @@
       <c r="AF41" s="26"/>
       <c r="AG41" s="26"/>
     </row>
-    <row r="42" spans="1:33" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="209">
         <v>99000340</v>
@@ -4277,7 +4286,7 @@
       </c>
       <c r="W42" s="24"/>
     </row>
-    <row r="43" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="209">
         <v>99000341</v>
@@ -4336,7 +4345,7 @@
       </c>
       <c r="W43" s="24"/>
     </row>
-    <row r="44" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="209">
         <v>99000342</v>
@@ -4397,7 +4406,7 @@
       <c r="V44" s="52"/>
       <c r="W44" s="25"/>
     </row>
-    <row r="45" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="209">
         <v>99000343</v>
@@ -4452,7 +4461,7 @@
       <c r="V45" s="25"/>
       <c r="W45" s="25"/>
     </row>
-    <row r="46" spans="1:33" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="209">
         <v>99000344</v>
@@ -4509,7 +4518,7 @@
       </c>
       <c r="W46" s="24"/>
     </row>
-    <row r="47" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="209">
         <v>99000345</v>
@@ -4570,7 +4579,7 @@
       </c>
       <c r="W47" s="25"/>
     </row>
-    <row r="48" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="209">
         <v>99000346</v>
@@ -4625,7 +4634,7 @@
       <c r="V48" s="25"/>
       <c r="W48" s="24"/>
     </row>
-    <row r="49" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="209">
         <v>99000347</v>
@@ -4686,7 +4695,7 @@
       </c>
       <c r="W49" s="25"/>
     </row>
-    <row r="50" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="209">
         <v>99000348</v>
@@ -4741,7 +4750,7 @@
       <c r="V50" s="25"/>
       <c r="W50" s="24"/>
     </row>
-    <row r="51" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="209">
         <v>99000349</v>
@@ -4798,7 +4807,7 @@
       </c>
       <c r="W51" s="25"/>
     </row>
-    <row r="52" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="209">
         <v>99000350</v>
@@ -4853,7 +4862,7 @@
       <c r="V52" s="24"/>
       <c r="W52" s="24"/>
     </row>
-    <row r="53" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="209">
         <v>99000351</v>
@@ -4912,7 +4921,7 @@
       <c r="V53" s="53"/>
       <c r="W53" s="52"/>
     </row>
-    <row r="54" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="64"/>
       <c r="B54" s="209">
         <v>99000352</v>
@@ -4973,7 +4982,7 @@
       </c>
       <c r="W54" s="71"/>
     </row>
-    <row r="55" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="64"/>
       <c r="B55" s="209">
         <v>99000353</v>
@@ -5032,7 +5041,7 @@
       <c r="V55" s="71"/>
       <c r="W55" s="71"/>
     </row>
-    <row r="56" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="72"/>
       <c r="B56" s="209">
         <v>99000354</v>
@@ -5089,7 +5098,7 @@
       <c r="V56" s="52"/>
       <c r="W56" s="52"/>
     </row>
-    <row r="57" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="72"/>
       <c r="B57" s="209">
         <v>99000355</v>
@@ -5150,7 +5159,7 @@
       </c>
       <c r="W57" s="52"/>
     </row>
-    <row r="58" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="77"/>
       <c r="B58" s="209">
         <v>99000356</v>
@@ -5209,7 +5218,7 @@
       <c r="V58" s="86"/>
       <c r="W58" s="87"/>
     </row>
-    <row r="59" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="88"/>
       <c r="B59" s="209">
         <v>99000357</v>
@@ -5278,7 +5287,7 @@
       <c r="AF59" s="35"/>
       <c r="AG59" s="35"/>
     </row>
-    <row r="60" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="72"/>
       <c r="B60" s="209">
         <v>99000358</v>
@@ -5335,7 +5344,7 @@
       </c>
       <c r="W60" s="52"/>
     </row>
-    <row r="61" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="72"/>
       <c r="B61" s="209">
         <v>99000359</v>
@@ -5392,7 +5401,7 @@
       <c r="V61" s="53"/>
       <c r="W61" s="53"/>
     </row>
-    <row r="62" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="77"/>
       <c r="B62" s="209">
         <v>99000360</v>
@@ -5451,7 +5460,7 @@
       <c r="V62" s="86"/>
       <c r="W62" s="87"/>
     </row>
-    <row r="63" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="72"/>
       <c r="B63" s="209">
         <v>99000361</v>
@@ -5506,7 +5515,7 @@
       <c r="V63" s="53"/>
       <c r="W63" s="52"/>
     </row>
-    <row r="64" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="72"/>
       <c r="B64" s="209">
         <v>99000362</v>
@@ -5561,7 +5570,7 @@
       <c r="V64" s="53"/>
       <c r="W64" s="53"/>
     </row>
-    <row r="65" spans="1:25" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="72"/>
       <c r="B65" s="209">
         <v>99000363</v>
@@ -5614,7 +5623,7 @@
       <c r="V65" s="53"/>
       <c r="W65" s="53"/>
     </row>
-    <row r="66" spans="1:25" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="72"/>
       <c r="B66" s="209">
         <v>99000364</v>
@@ -5675,7 +5684,7 @@
       </c>
       <c r="W66" s="52"/>
     </row>
-    <row r="67" spans="1:25" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="72"/>
       <c r="B67" s="209">
         <v>99000365</v>
@@ -5732,7 +5741,7 @@
       <c r="V67" s="53"/>
       <c r="W67" s="53"/>
     </row>
-    <row r="68" spans="1:25" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="72"/>
       <c r="B68" s="209">
         <v>99000366</v>
@@ -5793,7 +5802,7 @@
       </c>
       <c r="W68" s="52"/>
     </row>
-    <row r="69" spans="1:25" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="72"/>
       <c r="B69" s="209">
         <v>99000367</v>
@@ -5848,7 +5857,7 @@
       <c r="V69" s="52"/>
       <c r="W69" s="53"/>
     </row>
-    <row r="70" spans="1:25" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="209">
         <v>99000368</v>
@@ -5907,7 +5916,7 @@
       <c r="V70" s="53"/>
       <c r="W70" s="52"/>
     </row>
-    <row r="71" spans="1:25" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="209">
         <v>99000369</v>
@@ -5944,7 +5953,7 @@
       </c>
       <c r="W71" s="53"/>
     </row>
-    <row r="72" spans="1:25" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="209">
         <v>99000370</v>
@@ -5999,7 +6008,7 @@
       <c r="V72" s="53"/>
       <c r="W72" s="52"/>
     </row>
-    <row r="73" spans="1:25" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="114"/>
       <c r="B73" s="209">
         <v>99000371</v>
@@ -6056,7 +6065,7 @@
       <c r="V73" s="53"/>
       <c r="W73" s="52"/>
     </row>
-    <row r="74" spans="1:25" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="116"/>
       <c r="B74" s="209">
         <v>99000372</v>
@@ -6119,7 +6128,7 @@
       <c r="X74" s="118"/>
       <c r="Y74" s="118"/>
     </row>
-    <row r="75" spans="1:25" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="114"/>
       <c r="B75" s="209">
         <v>99000373</v>
@@ -6176,7 +6185,7 @@
       <c r="V75" s="53"/>
       <c r="W75" s="52"/>
     </row>
-    <row r="76" spans="1:25" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="209">
         <v>99000374</v>
@@ -6229,7 +6238,7 @@
       <c r="V76" s="53"/>
       <c r="W76" s="53"/>
     </row>
-    <row r="77" spans="1:25" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="120"/>
       <c r="B77" s="209">
         <v>99000375</v>
@@ -6286,7 +6295,7 @@
       <c r="V77" s="131"/>
       <c r="W77" s="131"/>
     </row>
-    <row r="78" spans="1:25" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="120"/>
       <c r="B78" s="209">
         <v>99000376</v>
@@ -6345,7 +6354,7 @@
       <c r="V78" s="131"/>
       <c r="W78" s="133"/>
     </row>
-    <row r="79" spans="1:25" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="209">
         <v>99000377</v>
@@ -6402,7 +6411,7 @@
       <c r="V79" s="53"/>
       <c r="W79" s="52"/>
     </row>
-    <row r="80" spans="1:25" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="209">
         <v>99000378</v>
@@ -6457,7 +6466,7 @@
       <c r="V80" s="53"/>
       <c r="W80" s="53"/>
     </row>
-    <row r="81" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="209">
         <v>99000379</v>
@@ -6514,7 +6523,7 @@
       </c>
       <c r="W81" s="53"/>
     </row>
-    <row r="82" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="85"/>
       <c r="B82" s="209">
         <v>99000380</v>
@@ -6571,7 +6580,7 @@
       <c r="V82" s="86"/>
       <c r="W82" s="86"/>
     </row>
-    <row r="83" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="209">
         <v>99000381</v>
@@ -6626,7 +6635,7 @@
       <c r="V83" s="53"/>
       <c r="W83" s="53"/>
     </row>
-    <row r="84" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="209">
         <v>99000382</v>
@@ -6681,7 +6690,7 @@
       <c r="V84" s="53"/>
       <c r="W84" s="53"/>
     </row>
-    <row r="85" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="120"/>
       <c r="B85" s="209">
         <v>99000383</v>
@@ -6736,7 +6745,7 @@
       <c r="V85" s="131"/>
       <c r="W85" s="131"/>
     </row>
-    <row r="86" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="120"/>
       <c r="B86" s="209" t="s">
         <v>221</v>
@@ -6793,7 +6802,7 @@
       <c r="V86" s="131"/>
       <c r="W86" s="131"/>
     </row>
-    <row r="87" spans="1:23" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="120"/>
       <c r="B87" s="209">
         <v>99000384</v>
@@ -6850,7 +6859,7 @@
       <c r="V87" s="131"/>
       <c r="W87" s="131"/>
     </row>
-    <row r="88" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="209">
         <v>99000385</v>
@@ -6905,7 +6914,7 @@
       <c r="V88" s="53"/>
       <c r="W88" s="53"/>
     </row>
-    <row r="89" spans="1:23" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="209">
         <v>99000386</v>
@@ -6940,7 +6949,7 @@
       <c r="V89" s="53"/>
       <c r="W89" s="53"/>
     </row>
-    <row r="90" spans="1:23" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="209">
         <v>99000387</v>
@@ -6995,7 +7004,7 @@
       <c r="V90" s="53"/>
       <c r="W90" s="53"/>
     </row>
-    <row r="91" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="120"/>
       <c r="B91" s="209">
         <v>99000388</v>
@@ -7050,7 +7059,7 @@
       <c r="V91" s="53"/>
       <c r="W91" s="53"/>
     </row>
-    <row r="92" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="209">
         <v>99000389</v>
@@ -7103,7 +7112,7 @@
       <c r="V92" s="53"/>
       <c r="W92" s="53"/>
     </row>
-    <row r="93" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="209">
         <v>99000390</v>
@@ -7164,7 +7173,7 @@
       <c r="V93" s="53"/>
       <c r="W93" s="53"/>
     </row>
-    <row r="94" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="120"/>
       <c r="B94" s="209">
         <v>99000391</v>
@@ -7221,7 +7230,7 @@
       <c r="V94" s="53"/>
       <c r="W94" s="53"/>
     </row>
-    <row r="95" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="209">
         <v>99000392</v>
@@ -7276,7 +7285,7 @@
       <c r="V95" s="53"/>
       <c r="W95" s="53"/>
     </row>
-    <row r="96" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="209">
         <v>99000393</v>
@@ -7333,7 +7342,7 @@
       <c r="V96" s="53"/>
       <c r="W96" s="53"/>
     </row>
-    <row r="97" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="209">
         <v>99000394</v>
@@ -7390,7 +7399,7 @@
       </c>
       <c r="W97" s="53"/>
     </row>
-    <row r="98" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="120"/>
       <c r="B98" s="209">
         <v>99000395</v>
@@ -7447,7 +7456,7 @@
       <c r="V98" s="53"/>
       <c r="W98" s="53"/>
     </row>
-    <row r="99" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
       <c r="B99" s="209">
         <v>99000396</v>
@@ -7502,7 +7511,7 @@
       <c r="V99" s="53"/>
       <c r="W99" s="53"/>
     </row>
-    <row r="100" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="120"/>
       <c r="B100" s="209">
         <v>99000397</v>
@@ -7563,7 +7572,7 @@
       <c r="V100" s="53"/>
       <c r="W100" s="53"/>
     </row>
-    <row r="101" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="209">
         <v>99000398</v>
@@ -7618,7 +7627,7 @@
       <c r="V101" s="53"/>
       <c r="W101" s="53"/>
     </row>
-    <row r="102" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="209">
         <v>99000399</v>
@@ -7673,7 +7682,7 @@
       <c r="V102" s="53"/>
       <c r="W102" s="53"/>
     </row>
-    <row r="103" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
       <c r="B103" s="209">
         <v>99000400</v>
@@ -7730,7 +7739,7 @@
       <c r="V103" s="53"/>
       <c r="W103" s="53"/>
     </row>
-    <row r="104" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="120"/>
       <c r="B104" s="209">
         <v>99000401</v>
@@ -7787,7 +7796,7 @@
       <c r="V104" s="148"/>
       <c r="W104" s="148"/>
     </row>
-    <row r="105" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="120"/>
       <c r="B105" s="209">
         <v>99000402</v>
@@ -7844,7 +7853,7 @@
       <c r="V105" s="148"/>
       <c r="W105" s="148"/>
     </row>
-    <row r="106" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="209">
         <v>99000403</v>
@@ -7899,7 +7908,7 @@
       <c r="V106" s="148"/>
       <c r="W106" s="148"/>
     </row>
-    <row r="107" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" s="209">
         <v>99000404</v>
@@ -7956,7 +7965,7 @@
       <c r="V107" s="148"/>
       <c r="W107" s="148"/>
     </row>
-    <row r="108" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="209">
         <v>99000405</v>
@@ -8011,7 +8020,7 @@
       <c r="V108" s="148"/>
       <c r="W108" s="148"/>
     </row>
-    <row r="109" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="209">
         <v>99000406</v>
@@ -8066,7 +8075,7 @@
       <c r="V109" s="148"/>
       <c r="W109" s="148"/>
     </row>
-    <row r="110" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="120"/>
       <c r="B110" s="209" t="s">
         <v>221</v>
@@ -8127,7 +8136,7 @@
       </c>
       <c r="W110" s="148"/>
     </row>
-    <row r="111" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="209">
         <v>99000407</v>
@@ -8182,7 +8191,7 @@
       <c r="V111" s="148"/>
       <c r="W111" s="148"/>
     </row>
-    <row r="112" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="209">
         <v>99000408</v>
@@ -8239,7 +8248,7 @@
       </c>
       <c r="W112" s="148"/>
     </row>
-    <row r="113" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" s="209">
         <v>99000409</v>
@@ -8292,7 +8301,7 @@
       <c r="V113" s="148"/>
       <c r="W113" s="148"/>
     </row>
-    <row r="114" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" s="209">
         <v>99000410</v>
@@ -8347,7 +8356,7 @@
       <c r="V114" s="148"/>
       <c r="W114" s="148"/>
     </row>
-    <row r="115" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="209">
         <v>99000411</v>
@@ -8402,7 +8411,7 @@
       <c r="V115" s="148"/>
       <c r="W115" s="148"/>
     </row>
-    <row r="116" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="209">
         <v>99000412</v>
@@ -8457,7 +8466,7 @@
       <c r="V116" s="148"/>
       <c r="W116" s="148"/>
     </row>
-    <row r="117" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="209">
         <v>99000413</v>
@@ -8512,7 +8521,7 @@
       <c r="V117" s="148"/>
       <c r="W117" s="148"/>
     </row>
-    <row r="118" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="209">
         <v>99000414</v>
@@ -8567,7 +8576,7 @@
       <c r="V118" s="148"/>
       <c r="W118" s="148"/>
     </row>
-    <row r="119" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="209">
         <v>99000415</v>
@@ -8622,7 +8631,7 @@
       <c r="V119" s="148"/>
       <c r="W119" s="148"/>
     </row>
-    <row r="120" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="209">
         <v>99000416</v>
@@ -8677,7 +8686,7 @@
       <c r="V120" s="148"/>
       <c r="W120" s="148"/>
     </row>
-    <row r="121" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="120"/>
       <c r="B121" s="209">
         <v>99000417</v>
@@ -8734,7 +8743,7 @@
       <c r="V121" s="148"/>
       <c r="W121" s="148"/>
     </row>
-    <row r="122" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" s="209">
         <v>99000418</v>
@@ -8791,7 +8800,7 @@
       <c r="V122" s="148"/>
       <c r="W122" s="148"/>
     </row>
-    <row r="123" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="209">
         <v>99000419</v>
@@ -8846,7 +8855,7 @@
       <c r="V123" s="148"/>
       <c r="W123" s="148"/>
     </row>
-    <row r="124" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="209">
         <v>99000420</v>
@@ -8903,7 +8912,7 @@
       <c r="V124" s="148"/>
       <c r="W124" s="148"/>
     </row>
-    <row r="125" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="209">
         <v>99000421</v>
@@ -8960,7 +8969,7 @@
       <c r="V125" s="148"/>
       <c r="W125" s="148"/>
     </row>
-    <row r="126" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" s="209">
         <v>99000422</v>
@@ -9023,7 +9032,7 @@
       </c>
       <c r="W126" s="148"/>
     </row>
-    <row r="127" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
       <c r="B127" s="209">
         <v>99000423</v>
@@ -9078,7 +9087,7 @@
       <c r="V127" s="148"/>
       <c r="W127" s="148"/>
     </row>
-    <row r="128" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="209">
         <v>99000424</v>
@@ -9133,7 +9142,7 @@
       <c r="V128" s="148"/>
       <c r="W128" s="148"/>
     </row>
-    <row r="129" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="209">
         <v>99000425</v>
@@ -9194,7 +9203,7 @@
       <c r="V129" s="148"/>
       <c r="W129" s="153"/>
     </row>
-    <row r="130" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="209">
         <v>99000426</v>
@@ -9249,7 +9258,7 @@
       <c r="V130" s="148"/>
       <c r="W130" s="148"/>
     </row>
-    <row r="131" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="209">
         <v>99000427</v>
@@ -9306,7 +9315,7 @@
       <c r="V131" s="148"/>
       <c r="W131" s="153"/>
     </row>
-    <row r="132" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="209">
         <v>99000428</v>
@@ -9361,7 +9370,7 @@
       <c r="V132" s="148"/>
       <c r="W132" s="148"/>
     </row>
-    <row r="133" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="209">
         <v>99000429</v>
@@ -9422,7 +9431,7 @@
       <c r="V133" s="148"/>
       <c r="W133" s="148"/>
     </row>
-    <row r="134" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="120"/>
       <c r="B134" s="209">
         <v>99000430</v>
@@ -9485,7 +9494,7 @@
       </c>
       <c r="W134" s="148"/>
     </row>
-    <row r="135" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="209">
         <v>99000431</v>
@@ -9546,7 +9555,7 @@
       <c r="V135" s="148"/>
       <c r="W135" s="153"/>
     </row>
-    <row r="136" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="209">
         <v>99000432</v>
@@ -9601,7 +9610,7 @@
       <c r="V136" s="148"/>
       <c r="W136" s="148"/>
     </row>
-    <row r="137" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="209">
         <v>99000433</v>
@@ -9656,7 +9665,7 @@
       <c r="V137" s="148"/>
       <c r="W137" s="148"/>
     </row>
-    <row r="138" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="209">
         <v>99000434</v>
@@ -9717,7 +9726,7 @@
       <c r="V138" s="148"/>
       <c r="W138" s="148"/>
     </row>
-    <row r="139" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="209">
         <v>99000435</v>
@@ -9772,7 +9781,7 @@
       <c r="V139" s="148"/>
       <c r="W139" s="148"/>
     </row>
-    <row r="140" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="120"/>
       <c r="B140" s="209">
         <v>99000436</v>
@@ -9835,7 +9844,7 @@
       </c>
       <c r="W140" s="148"/>
     </row>
-    <row r="141" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="120"/>
       <c r="B141" s="209">
         <v>99000437</v>
@@ -9892,7 +9901,7 @@
       <c r="V141" s="148"/>
       <c r="W141" s="148"/>
     </row>
-    <row r="142" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="120"/>
       <c r="B142" s="209">
         <v>99000438</v>
@@ -9949,7 +9958,7 @@
       <c r="V142" s="148"/>
       <c r="W142" s="148"/>
     </row>
-    <row r="143" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="209">
         <v>99000439</v>
@@ -10008,7 +10017,7 @@
       <c r="V143" s="148"/>
       <c r="W143" s="148"/>
     </row>
-    <row r="144" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="209">
         <v>99000440</v>
@@ -10063,7 +10072,7 @@
       <c r="V144" s="148"/>
       <c r="W144" s="148"/>
     </row>
-    <row r="145" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="209">
         <v>99000441</v>
@@ -10116,7 +10125,7 @@
       <c r="V145" s="148"/>
       <c r="W145" s="148"/>
     </row>
-    <row r="146" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
       <c r="B146" s="209">
         <v>99000442</v>
@@ -10173,7 +10182,7 @@
       <c r="V146" s="148"/>
       <c r="W146" s="148"/>
     </row>
-    <row r="147" spans="1:23" ht="38.65" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="209">
         <v>99000443</v>
@@ -10234,7 +10243,7 @@
       <c r="V147" s="148"/>
       <c r="W147" s="148"/>
     </row>
-    <row r="148" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="209">
         <v>99000444</v>
@@ -10289,7 +10298,7 @@
       <c r="V148" s="148"/>
       <c r="W148" s="148"/>
     </row>
-    <row r="149" spans="1:23" ht="38.65" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="156"/>
       <c r="B149" s="209">
         <v>99000445</v>
@@ -10348,7 +10357,7 @@
       </c>
       <c r="W149" s="148"/>
     </row>
-    <row r="150" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="209">
         <v>99000446</v>
@@ -10407,7 +10416,7 @@
       <c r="V150" s="148"/>
       <c r="W150" s="148"/>
     </row>
-    <row r="151" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="209">
         <v>99000447</v>
@@ -10464,7 +10473,7 @@
       </c>
       <c r="W151" s="148"/>
     </row>
-    <row r="152" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="209">
         <v>99000448</v>
@@ -10521,7 +10530,7 @@
       </c>
       <c r="W152" s="148"/>
     </row>
-    <row r="153" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="120"/>
       <c r="B153" s="209">
         <v>99000449</v>
@@ -10582,7 +10591,7 @@
       <c r="V153" s="148"/>
       <c r="W153" s="148"/>
     </row>
-    <row r="154" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
       <c r="B154" s="209">
         <v>99000450</v>
@@ -10637,7 +10646,7 @@
       <c r="V154" s="148"/>
       <c r="W154" s="148"/>
     </row>
-    <row r="155" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="120"/>
       <c r="B155" s="209">
         <v>99000451</v>
@@ -10698,7 +10707,7 @@
       <c r="V155" s="148"/>
       <c r="W155" s="148"/>
     </row>
-    <row r="156" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="209">
         <v>99000452</v>
@@ -10753,7 +10762,7 @@
       <c r="V156" s="148"/>
       <c r="W156" s="148"/>
     </row>
-    <row r="157" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
       <c r="B157" s="209">
         <v>99000453</v>
@@ -10812,7 +10821,7 @@
       <c r="V157" s="148"/>
       <c r="W157" s="148"/>
     </row>
-    <row r="158" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="120"/>
       <c r="B158" s="209">
         <v>99000454</v>
@@ -10875,7 +10884,7 @@
       </c>
       <c r="W158" s="148"/>
     </row>
-    <row r="159" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
       <c r="B159" s="209">
         <v>99000455</v>
@@ -10930,7 +10939,7 @@
       <c r="V159" s="148"/>
       <c r="W159" s="148"/>
     </row>
-    <row r="160" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
       <c r="B160" s="209">
         <v>99000456</v>
@@ -10987,7 +10996,7 @@
       <c r="V160" s="148"/>
       <c r="W160" s="148"/>
     </row>
-    <row r="161" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
       <c r="B161" s="209">
         <v>99000457</v>
@@ -11044,7 +11053,7 @@
       </c>
       <c r="W161" s="148"/>
     </row>
-    <row r="162" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="64"/>
       <c r="B162" s="209">
         <v>99000458</v>
@@ -11107,7 +11116,7 @@
       </c>
       <c r="W162" s="148"/>
     </row>
-    <row r="163" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="64"/>
       <c r="B163" s="209">
         <v>99000459</v>
@@ -11170,7 +11179,7 @@
       </c>
       <c r="W163" s="148"/>
     </row>
-    <row r="164" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
       <c r="B164" s="209">
         <v>99000460</v>
@@ -11229,7 +11238,7 @@
       </c>
       <c r="W164" s="148"/>
     </row>
-    <row r="165" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="64"/>
       <c r="B165" s="209">
         <v>99000461</v>
@@ -11286,7 +11295,7 @@
       <c r="V165" s="148"/>
       <c r="W165" s="148"/>
     </row>
-    <row r="166" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
       <c r="B166" s="209">
         <v>99000462</v>
@@ -11341,7 +11350,7 @@
       <c r="V166" s="148"/>
       <c r="W166" s="148"/>
     </row>
-    <row r="167" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="64"/>
       <c r="B167" s="209">
         <v>99000463</v>
@@ -11398,7 +11407,7 @@
       <c r="V167" s="148"/>
       <c r="W167" s="148"/>
     </row>
-    <row r="168" spans="1:23" ht="38.65" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
       <c r="B168" s="209">
         <v>99000464</v>
@@ -11459,7 +11468,7 @@
       <c r="V168" s="148"/>
       <c r="W168" s="148"/>
     </row>
-    <row r="169" spans="1:23" ht="38.65" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="209">
         <v>99000465</v>
@@ -11514,7 +11523,7 @@
       <c r="V169" s="148"/>
       <c r="W169" s="148"/>
     </row>
-    <row r="170" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="64"/>
       <c r="B170" s="209">
         <v>99000466</v>
@@ -11571,7 +11580,7 @@
       <c r="V170" s="148"/>
       <c r="W170" s="148"/>
     </row>
-    <row r="171" spans="1:23" ht="38.65" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
       <c r="B171" s="209">
         <v>99000467</v>
@@ -11628,7 +11637,7 @@
       <c r="V171" s="148"/>
       <c r="W171" s="148"/>
     </row>
-    <row r="172" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="160"/>
       <c r="B172" s="209">
         <v>99000468</v>
@@ -11689,7 +11698,7 @@
       <c r="V172" s="148"/>
       <c r="W172" s="148"/>
     </row>
-    <row r="173" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
       <c r="B173" s="209">
         <v>99000469</v>
@@ -11744,7 +11753,7 @@
       <c r="V173" s="148"/>
       <c r="W173" s="148"/>
     </row>
-    <row r="174" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
       <c r="B174" s="209">
         <v>99000470</v>
@@ -11803,7 +11812,7 @@
       <c r="V174" s="148"/>
       <c r="W174" s="148"/>
     </row>
-    <row r="175" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
       <c r="B175" s="209">
         <v>99000471</v>
@@ -11856,7 +11865,7 @@
       <c r="V175" s="148"/>
       <c r="W175" s="148"/>
     </row>
-    <row r="176" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="120"/>
       <c r="B176" s="209">
         <v>99000472</v>
@@ -11915,7 +11924,7 @@
       </c>
       <c r="W176" s="148"/>
     </row>
-    <row r="177" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="120"/>
       <c r="B177" s="209">
         <v>99000473</v>
@@ -11976,7 +11985,7 @@
       <c r="V177" s="148"/>
       <c r="W177" s="148"/>
     </row>
-    <row r="178" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="120"/>
       <c r="B178" s="209">
         <v>99000474</v>
@@ -12037,7 +12046,7 @@
       <c r="V178" s="148"/>
       <c r="W178" s="148"/>
     </row>
-    <row r="179" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="120"/>
       <c r="B179" s="209">
         <v>99000475</v>
@@ -12096,7 +12105,7 @@
       <c r="V179" s="148"/>
       <c r="W179" s="148"/>
     </row>
-    <row r="180" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="120"/>
       <c r="B180" s="209">
         <v>99000476</v>
@@ -12155,7 +12164,7 @@
       <c r="V180" s="148"/>
       <c r="W180" s="148"/>
     </row>
-    <row r="181" spans="1:23" ht="38.65" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="120"/>
       <c r="B181" s="209">
         <v>99000477</v>
@@ -12214,7 +12223,7 @@
       </c>
       <c r="W181" s="148"/>
     </row>
-    <row r="182" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="120"/>
       <c r="B182" s="209">
         <v>99000478</v>
@@ -12275,7 +12284,7 @@
       <c r="V182" s="148"/>
       <c r="W182" s="148"/>
     </row>
-    <row r="183" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
       <c r="B183" s="209">
         <v>99000479</v>
@@ -12330,7 +12339,7 @@
       <c r="V183" s="148"/>
       <c r="W183" s="148"/>
     </row>
-    <row r="184" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
       <c r="B184" s="209">
         <v>99000480</v>
@@ -12385,7 +12394,7 @@
       <c r="V184" s="148"/>
       <c r="W184" s="148"/>
     </row>
-    <row r="185" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
       <c r="B185" s="209">
         <v>99000481</v>
@@ -12438,7 +12447,7 @@
       <c r="V185" s="148"/>
       <c r="W185" s="148"/>
     </row>
-    <row r="186" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="120"/>
       <c r="B186" s="209">
         <v>99000482</v>
@@ -12499,7 +12508,7 @@
       <c r="V186" s="148"/>
       <c r="W186" s="148"/>
     </row>
-    <row r="187" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="120"/>
       <c r="B187" s="209">
         <v>99000483</v>
@@ -12554,7 +12563,7 @@
       <c r="V187" s="148"/>
       <c r="W187" s="148"/>
     </row>
-    <row r="188" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
       <c r="B188" s="209">
         <v>99000484</v>
@@ -12613,7 +12622,7 @@
       <c r="V188" s="148"/>
       <c r="W188" s="118"/>
     </row>
-    <row r="189" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="64"/>
       <c r="B189" s="209">
         <v>99000485</v>
@@ -12674,7 +12683,7 @@
       <c r="V189" s="148"/>
       <c r="W189" s="118"/>
     </row>
-    <row r="190" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
       <c r="B190" s="209">
         <v>99000486</v>
@@ -12729,7 +12738,7 @@
       </c>
       <c r="W190" s="118"/>
     </row>
-    <row r="191" spans="1:23" ht="38.65" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
       <c r="B191" s="209">
         <v>99000487</v>
@@ -12788,7 +12797,7 @@
       </c>
       <c r="W191" s="118"/>
     </row>
-    <row r="192" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
       <c r="B192" s="209">
         <v>99000488</v>
@@ -12843,7 +12852,7 @@
       <c r="V192" s="148"/>
       <c r="W192" s="118"/>
     </row>
-    <row r="193" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
       <c r="B193" s="209">
         <v>99000489</v>
@@ -12904,7 +12913,7 @@
       <c r="V193" s="148"/>
       <c r="W193" s="118"/>
     </row>
-    <row r="194" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="209">
         <v>99000490</v>
@@ -12957,7 +12966,7 @@
       <c r="V194" s="148"/>
       <c r="W194" s="118"/>
     </row>
-    <row r="195" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="15"/>
       <c r="B195" s="209">
         <v>99000491</v>
@@ -13016,7 +13025,7 @@
       <c r="V195" s="148"/>
       <c r="W195" s="118"/>
     </row>
-    <row r="196" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="15"/>
       <c r="B196" s="209">
         <v>99000492</v>
@@ -13079,7 +13088,7 @@
       </c>
       <c r="W196" s="118"/>
     </row>
-    <row r="197" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" s="209">
         <v>99000493</v>
@@ -13138,7 +13147,7 @@
       </c>
       <c r="W197" s="118"/>
     </row>
-    <row r="198" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="15"/>
       <c r="B198" s="209">
         <v>99000494</v>
@@ -13197,7 +13206,7 @@
       <c r="V198" s="148"/>
       <c r="W198" s="118"/>
     </row>
-    <row r="199" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
       <c r="B199" s="209">
         <v>99000495</v>
@@ -13238,7 +13247,7 @@
       <c r="V199" s="148"/>
       <c r="W199" s="118"/>
     </row>
-    <row r="200" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="15"/>
       <c r="B200" s="209">
         <v>99000496</v>
@@ -13297,7 +13306,7 @@
       <c r="V200" s="148"/>
       <c r="W200" s="118"/>
     </row>
-    <row r="201" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="15"/>
       <c r="B201" s="209">
         <v>99000497</v>
@@ -13358,7 +13367,7 @@
       <c r="V201" s="148"/>
       <c r="W201" s="118"/>
     </row>
-    <row r="202" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
       <c r="B202" s="209">
         <v>99000498</v>
@@ -13413,7 +13422,7 @@
       <c r="V202" s="148"/>
       <c r="W202" s="118"/>
     </row>
-    <row r="203" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="15"/>
       <c r="B203" s="209">
         <v>99000499</v>
@@ -13476,7 +13485,7 @@
       </c>
       <c r="W203" s="118"/>
     </row>
-    <row r="204" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="15"/>
       <c r="B204" s="209">
         <v>99000500</v>
@@ -13535,7 +13544,7 @@
       <c r="V204" s="148"/>
       <c r="W204" s="118"/>
     </row>
-    <row r="205" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="14"/>
       <c r="B205" s="209">
         <v>99000501</v>
@@ -13590,7 +13599,7 @@
       <c r="V205" s="148"/>
       <c r="W205" s="118"/>
     </row>
-    <row r="206" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
       <c r="B206" s="209">
         <v>99000502</v>
@@ -13651,7 +13660,7 @@
       <c r="V206" s="148"/>
       <c r="W206" s="118"/>
     </row>
-    <row r="207" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="15"/>
       <c r="B207" s="209">
         <v>99000503</v>
@@ -13712,7 +13721,7 @@
       <c r="V207" s="148"/>
       <c r="W207" s="118"/>
     </row>
-    <row r="208" spans="1:23" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
       <c r="B208" s="209">
         <v>99000504</v>
@@ -13771,7 +13780,7 @@
       <c r="V208" s="148"/>
       <c r="W208" s="118"/>
     </row>
-    <row r="209" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="14"/>
       <c r="B209" s="209">
         <v>99000505</v>
@@ -13824,7 +13833,7 @@
       <c r="V209" s="148"/>
       <c r="W209" s="118"/>
     </row>
-    <row r="210" spans="1:24" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="88"/>
       <c r="B210" s="209">
         <v>99000506</v>
@@ -13890,7 +13899,7 @@
       <c r="W210" s="179"/>
       <c r="X210" s="180"/>
     </row>
-    <row r="211" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="72"/>
       <c r="B211" s="209">
         <v>99000507</v>
@@ -13946,7 +13955,7 @@
       <c r="W211" s="179"/>
       <c r="X211" s="180"/>
     </row>
-    <row r="212" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="72"/>
       <c r="B212" s="209">
         <v>99000508</v>
@@ -13980,7 +13989,7 @@
       <c r="W212" s="179"/>
       <c r="X212" s="180"/>
     </row>
-    <row r="213" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="184"/>
       <c r="B213" s="209">
         <v>99000509</v>
@@ -14044,7 +14053,7 @@
       <c r="W213" s="179"/>
       <c r="X213" s="180"/>
     </row>
-    <row r="214" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="72"/>
       <c r="B214" s="209">
         <v>99000510</v>
@@ -14100,7 +14109,7 @@
       <c r="W214" s="179"/>
       <c r="X214" s="180"/>
     </row>
-    <row r="215" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="72"/>
       <c r="B215" s="209">
         <v>99000511</v>
@@ -14156,7 +14165,7 @@
       <c r="W215" s="179"/>
       <c r="X215" s="180"/>
     </row>
-    <row r="216" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="88"/>
       <c r="B216" s="209">
         <v>99000512</v>
@@ -14200,7 +14209,7 @@
       <c r="W216" s="179"/>
       <c r="X216" s="180"/>
     </row>
-    <row r="217" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="72"/>
       <c r="B217" s="209">
         <v>99000513</v>
@@ -14262,7 +14271,7 @@
       <c r="W217" s="179"/>
       <c r="X217" s="180"/>
     </row>
-    <row r="218" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="88"/>
       <c r="B218" s="209">
         <v>99000514</v>
@@ -14328,7 +14337,7 @@
       <c r="W218" s="179"/>
       <c r="X218" s="180"/>
     </row>
-    <row r="219" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="88"/>
       <c r="B219" s="209">
         <v>99000515</v>
@@ -14392,7 +14401,7 @@
       <c r="W219" s="179"/>
       <c r="X219" s="180"/>
     </row>
-    <row r="220" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="88"/>
       <c r="B220" s="209">
         <v>99000516</v>
@@ -14454,7 +14463,7 @@
       <c r="W220" s="179"/>
       <c r="X220" s="180"/>
     </row>
-    <row r="221" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="72"/>
       <c r="B221" s="209">
         <v>99000517</v>
@@ -14518,7 +14527,7 @@
       <c r="W221" s="179"/>
       <c r="X221" s="180"/>
     </row>
-    <row r="222" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="72"/>
       <c r="B222" s="209">
         <v>99000518</v>
@@ -14574,7 +14583,7 @@
       <c r="W222" s="179"/>
       <c r="X222" s="180"/>
     </row>
-    <row r="223" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="72"/>
       <c r="B223" s="209">
         <v>99000519</v>
@@ -14632,7 +14641,7 @@
       <c r="W223" s="179"/>
       <c r="X223" s="180"/>
     </row>
-    <row r="224" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="72"/>
       <c r="B224" s="209">
         <v>99000520</v>
@@ -14686,7 +14695,7 @@
       <c r="W224" s="179"/>
       <c r="X224" s="180"/>
     </row>
-    <row r="225" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="72"/>
       <c r="B225" s="209">
         <v>99000521</v>
@@ -14750,7 +14759,7 @@
       <c r="W225" s="179"/>
       <c r="X225" s="180"/>
     </row>
-    <row r="226" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="186"/>
       <c r="B226" s="209">
         <v>99000522</v>
@@ -14808,7 +14817,7 @@
       <c r="W226" s="179"/>
       <c r="X226" s="180"/>
     </row>
-    <row r="227" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="88"/>
       <c r="B227" s="209">
         <v>99000523</v>
@@ -14870,7 +14879,7 @@
       <c r="W227" s="179"/>
       <c r="X227" s="180"/>
     </row>
-    <row r="228" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="88"/>
       <c r="B228" s="209">
         <v>99000524</v>
@@ -14932,7 +14941,7 @@
       <c r="W228" s="179"/>
       <c r="X228" s="180"/>
     </row>
-    <row r="229" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="72"/>
       <c r="B229" s="209">
         <v>99000525</v>
@@ -14994,7 +15003,7 @@
       <c r="W229" s="179"/>
       <c r="X229" s="180"/>
     </row>
-    <row r="230" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="88"/>
       <c r="B230" s="209">
         <v>99000526</v>
@@ -15056,7 +15065,7 @@
       <c r="W230" s="179"/>
       <c r="X230" s="180"/>
     </row>
-    <row r="231" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="72"/>
       <c r="B231" s="209">
         <v>99000527</v>
@@ -15116,7 +15125,7 @@
       <c r="W231" s="179"/>
       <c r="X231" s="180"/>
     </row>
-    <row r="232" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="72"/>
       <c r="B232" s="209">
         <v>99000528</v>
@@ -15172,7 +15181,7 @@
       <c r="W232" s="179"/>
       <c r="X232" s="180"/>
     </row>
-    <row r="233" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="72"/>
       <c r="B233" s="209">
         <v>99000529</v>
@@ -15206,7 +15215,7 @@
       <c r="W233" s="179"/>
       <c r="X233" s="180"/>
     </row>
-    <row r="234" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="88"/>
       <c r="B234" s="209">
         <v>99000530</v>
@@ -15268,7 +15277,7 @@
       <c r="W234" s="179"/>
       <c r="X234" s="180"/>
     </row>
-    <row r="235" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="72"/>
       <c r="B235" s="209">
         <v>99000531</v>
@@ -15310,7 +15319,7 @@
       <c r="W235" s="179"/>
       <c r="X235" s="180"/>
     </row>
-    <row r="236" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="72"/>
       <c r="B236" s="209">
         <v>99000532</v>
@@ -15350,7 +15359,7 @@
       <c r="W236" s="179"/>
       <c r="X236" s="180"/>
     </row>
-    <row r="237" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="72"/>
       <c r="B237" s="209">
         <v>99000533</v>
@@ -15412,7 +15421,7 @@
       <c r="W237" s="179"/>
       <c r="X237" s="180"/>
     </row>
-    <row r="238" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="72"/>
       <c r="B238" s="209">
         <v>99000534</v>
@@ -15474,7 +15483,7 @@
       <c r="W238" s="179"/>
       <c r="X238" s="180"/>
     </row>
-    <row r="239" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="88"/>
       <c r="B239" s="209">
         <v>99000535</v>
@@ -15536,7 +15545,7 @@
       <c r="W239" s="179"/>
       <c r="X239" s="180"/>
     </row>
-    <row r="240" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="72"/>
       <c r="B240" s="209">
         <v>99000536</v>
@@ -15600,7 +15609,7 @@
       <c r="W240" s="179"/>
       <c r="X240" s="180"/>
     </row>
-    <row r="241" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="72"/>
       <c r="B241" s="209">
         <v>99000537</v>
@@ -15660,7 +15669,7 @@
       <c r="W241" s="179"/>
       <c r="X241" s="180"/>
     </row>
-    <row r="242" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="72"/>
       <c r="B242" s="209">
         <v>99000538</v>
@@ -15716,7 +15725,7 @@
       <c r="W242" s="179"/>
       <c r="X242" s="180"/>
     </row>
-    <row r="243" spans="1:24" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="72"/>
       <c r="B243" s="209">
         <v>99000539</v>
@@ -15782,7 +15791,7 @@
       <c r="W243" s="179"/>
       <c r="X243" s="180"/>
     </row>
-    <row r="244" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="72"/>
       <c r="B244" s="209">
         <v>99000540</v>
@@ -15846,7 +15855,7 @@
       <c r="W244" s="179"/>
       <c r="X244" s="180"/>
     </row>
-    <row r="245" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="72"/>
       <c r="B245" s="209">
         <v>99000541</v>
@@ -15902,7 +15911,7 @@
       <c r="W245" s="179"/>
       <c r="X245" s="180"/>
     </row>
-    <row r="246" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="72"/>
       <c r="B246" s="209">
         <v>99000542</v>
@@ -15962,7 +15971,7 @@
       <c r="W246" s="179"/>
       <c r="X246" s="180"/>
     </row>
-    <row r="247" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="72"/>
       <c r="B247" s="209">
         <v>99000543</v>
@@ -16018,7 +16027,7 @@
       <c r="W247" s="179"/>
       <c r="X247" s="180"/>
     </row>
-    <row r="248" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="72"/>
       <c r="B248" s="209">
         <v>99000544</v>
@@ -16080,7 +16089,7 @@
       <c r="W248" s="179"/>
       <c r="X248" s="180"/>
     </row>
-    <row r="249" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="72"/>
       <c r="B249" s="209">
         <v>99000545</v>
@@ -16138,7 +16147,7 @@
       <c r="W249" s="179"/>
       <c r="X249" s="180"/>
     </row>
-    <row r="250" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="72"/>
       <c r="B250" s="209">
         <v>99000546</v>
@@ -16176,7 +16185,7 @@
       <c r="W250" s="179"/>
       <c r="X250" s="180"/>
     </row>
-    <row r="251" spans="1:24" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="72"/>
       <c r="B251" s="209">
         <v>99000547</v>
@@ -16210,7 +16219,7 @@
       <c r="W251" s="179"/>
       <c r="X251" s="180"/>
     </row>
-    <row r="252" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="72"/>
       <c r="B252" s="209">
         <v>99000548</v>
@@ -16248,7 +16257,7 @@
       <c r="W252" s="179"/>
       <c r="X252" s="180"/>
     </row>
-    <row r="253" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="72"/>
       <c r="B253" s="209">
         <v>99000549</v>
@@ -16310,7 +16319,7 @@
       <c r="W253" s="179"/>
       <c r="X253" s="180"/>
     </row>
-    <row r="254" spans="1:24" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="72"/>
       <c r="B254" s="209">
         <v>99000550</v>
@@ -16366,7 +16375,7 @@
       <c r="W254" s="179"/>
       <c r="X254" s="180"/>
     </row>
-    <row r="255" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="72"/>
       <c r="B255" s="209">
         <v>99000551</v>
@@ -16420,7 +16429,7 @@
       <c r="W255" s="179"/>
       <c r="X255" s="180"/>
     </row>
-    <row r="256" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="72"/>
       <c r="B256" s="209">
         <v>99000552</v>
@@ -16476,7 +16485,7 @@
       <c r="W256" s="179"/>
       <c r="X256" s="180"/>
     </row>
-    <row r="257" spans="1:30" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="72"/>
       <c r="B257" s="209">
         <v>99000553</v>
@@ -16538,7 +16547,7 @@
       <c r="W257" s="179"/>
       <c r="X257" s="180"/>
     </row>
-    <row r="258" spans="1:30" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="72"/>
       <c r="B258" s="209">
         <v>99000554</v>
@@ -16590,7 +16599,7 @@
       <c r="W258" s="179"/>
       <c r="X258" s="180"/>
     </row>
-    <row r="259" spans="1:30" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="72"/>
       <c r="B259" s="209">
         <v>99000555</v>
@@ -16646,7 +16655,7 @@
       <c r="W259" s="179"/>
       <c r="X259" s="180"/>
     </row>
-    <row r="260" spans="1:30" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="186"/>
       <c r="B260" s="209">
         <v>99000556</v>
@@ -16712,7 +16721,7 @@
       <c r="W260" s="179"/>
       <c r="X260" s="180"/>
     </row>
-    <row r="261" spans="1:30" ht="53.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:30" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="72"/>
       <c r="B261" s="209">
         <v>99000557</v>
@@ -16774,7 +16783,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="72"/>
       <c r="B262" s="209">
         <v>99000558</v>
@@ -16838,7 +16847,7 @@
       <c r="W262" s="179"/>
       <c r="X262" s="180"/>
     </row>
-    <row r="263" spans="1:30" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="88"/>
       <c r="B263" s="209">
         <v>99000559</v>
@@ -16900,7 +16909,7 @@
       <c r="W263" s="179"/>
       <c r="X263" s="180"/>
     </row>
-    <row r="264" spans="1:30" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="72"/>
       <c r="B264" s="209">
         <v>99000560</v>
@@ -16964,7 +16973,7 @@
       <c r="W264" s="179"/>
       <c r="X264" s="180"/>
     </row>
-    <row r="265" spans="1:30" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="72"/>
       <c r="B265" s="209">
         <v>99000561</v>
@@ -17028,7 +17037,7 @@
       <c r="W265" s="179"/>
       <c r="X265" s="180"/>
     </row>
-    <row r="266" spans="1:30" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="72"/>
       <c r="B266" s="209">
         <v>99000562</v>
@@ -17090,7 +17099,7 @@
       <c r="W266" s="179"/>
       <c r="X266" s="180"/>
     </row>
-    <row r="267" spans="1:30" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="88"/>
       <c r="B267" s="209">
         <v>99000563</v>
@@ -17150,7 +17159,7 @@
       <c r="W267" s="179"/>
       <c r="X267" s="180"/>
     </row>
-    <row r="268" spans="1:30" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="72"/>
       <c r="B268" s="209">
         <v>99000564</v>
@@ -17204,7 +17213,7 @@
       <c r="W268" s="179"/>
       <c r="X268" s="180"/>
     </row>
-    <row r="269" spans="1:30" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="72"/>
       <c r="B269" s="209">
         <v>99000565</v>
@@ -17258,7 +17267,7 @@
       <c r="W269" s="179"/>
       <c r="X269" s="180"/>
     </row>
-    <row r="270" spans="1:30" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:30" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="72"/>
       <c r="B270" s="209">
         <v>99000566</v>
@@ -17322,7 +17331,7 @@
       <c r="W270" s="179"/>
       <c r="X270" s="180"/>
     </row>
-    <row r="271" spans="1:30" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="72"/>
       <c r="B271" s="209">
         <v>99000567</v>
@@ -17380,7 +17389,7 @@
       <c r="W271" s="179"/>
       <c r="X271" s="180"/>
     </row>
-    <row r="272" spans="1:30" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="72"/>
       <c r="B272" s="209">
         <v>99000568</v>
@@ -17432,7 +17441,7 @@
       <c r="W272" s="179"/>
       <c r="X272" s="180"/>
     </row>
-    <row r="273" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="72"/>
       <c r="B273" s="209">
         <v>99000569</v>
@@ -17486,7 +17495,7 @@
       <c r="W273" s="179"/>
       <c r="X273" s="180"/>
     </row>
-    <row r="274" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="72"/>
       <c r="B274" s="209">
         <v>99000570</v>
@@ -17530,7 +17539,7 @@
       <c r="W274" s="179"/>
       <c r="X274" s="180"/>
     </row>
-    <row r="275" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="72"/>
       <c r="B275" s="209">
         <v>99000571</v>
@@ -17592,7 +17601,7 @@
       <c r="W275" s="179"/>
       <c r="X275" s="180"/>
     </row>
-    <row r="276" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="72"/>
       <c r="B276" s="209">
         <v>99000572</v>
@@ -17654,7 +17663,7 @@
       <c r="W276" s="179"/>
       <c r="X276" s="180"/>
     </row>
-    <row r="277" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="72"/>
       <c r="B277" s="209">
         <v>99000573</v>
@@ -17706,7 +17715,7 @@
       <c r="W277" s="179"/>
       <c r="X277" s="180"/>
     </row>
-    <row r="278" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="72"/>
       <c r="B278" s="209">
         <v>99000574</v>
@@ -17768,7 +17777,7 @@
       <c r="W278" s="179"/>
       <c r="X278" s="180"/>
     </row>
-    <row r="279" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="72"/>
       <c r="B279" s="209">
         <v>99000575</v>
@@ -17824,7 +17833,7 @@
       <c r="W279" s="179"/>
       <c r="X279" s="180"/>
     </row>
-    <row r="280" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="72"/>
       <c r="B280" s="209">
         <v>99000576</v>
@@ -17882,7 +17891,7 @@
       <c r="W280" s="179"/>
       <c r="X280" s="180"/>
     </row>
-    <row r="281" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="72"/>
       <c r="B281" s="209">
         <v>99000577</v>
@@ -17942,7 +17951,7 @@
       <c r="W281" s="179"/>
       <c r="X281" s="180"/>
     </row>
-    <row r="282" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="72"/>
       <c r="B282" s="209">
         <v>99000578</v>
@@ -18000,7 +18009,7 @@
       <c r="W282" s="179"/>
       <c r="X282" s="180"/>
     </row>
-    <row r="283" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="72"/>
       <c r="B283" s="209">
         <v>99000579</v>
@@ -18064,7 +18073,7 @@
       <c r="W283" s="179"/>
       <c r="X283" s="180"/>
     </row>
-    <row r="284" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="72"/>
       <c r="B284" s="209">
         <v>99000580</v>
@@ -18128,7 +18137,7 @@
       <c r="W284" s="179"/>
       <c r="X284" s="180"/>
     </row>
-    <row r="285" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="72"/>
       <c r="B285" s="209">
         <v>99000581</v>
@@ -18182,7 +18191,7 @@
       <c r="W285" s="179"/>
       <c r="X285" s="180"/>
     </row>
-    <row r="286" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="72"/>
       <c r="B286" s="209">
         <v>99000582</v>
@@ -18253,7 +18262,7 @@
       <c r="AF286" s="172"/>
       <c r="AG286" s="172"/>
     </row>
-    <row r="287" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="72"/>
       <c r="B287" s="209">
         <v>99000583</v>
@@ -18315,7 +18324,7 @@
       <c r="W287" s="179"/>
       <c r="X287" s="180"/>
     </row>
-    <row r="288" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="72"/>
       <c r="B288" s="209">
         <v>99000584</v>
@@ -18379,7 +18388,7 @@
       <c r="W288" s="179"/>
       <c r="X288" s="180"/>
     </row>
-    <row r="289" spans="1:33" ht="66.150000000000006" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:33" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="72"/>
       <c r="B289" s="209" t="s">
         <v>221</v>
@@ -18419,7 +18428,7 @@
       <c r="W289" s="179"/>
       <c r="X289" s="180"/>
     </row>
-    <row r="290" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="72"/>
       <c r="B290" s="209">
         <v>99000586</v>
@@ -18477,7 +18486,7 @@
       <c r="W290" s="179"/>
       <c r="X290" s="180"/>
     </row>
-    <row r="291" spans="1:33" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:33" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="193"/>
       <c r="B291" s="209">
         <v>99000587</v>
@@ -18539,7 +18548,7 @@
       <c r="W291" s="179"/>
       <c r="X291" s="180"/>
     </row>
-    <row r="292" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" s="72"/>
       <c r="B292" s="209">
         <v>99000588</v>
@@ -18595,7 +18604,7 @@
       <c r="W292" s="179"/>
       <c r="X292" s="180"/>
     </row>
-    <row r="293" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="72"/>
       <c r="B293" s="209">
         <v>99000589</v>
@@ -18649,7 +18658,7 @@
       <c r="W293" s="179"/>
       <c r="X293" s="180"/>
     </row>
-    <row r="294" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="72"/>
       <c r="B294" s="209">
         <v>99000590</v>
@@ -18713,7 +18722,7 @@
       <c r="W294" s="179"/>
       <c r="X294" s="180"/>
     </row>
-    <row r="295" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="72"/>
       <c r="B295" s="209">
         <v>99000591</v>
@@ -18777,7 +18786,7 @@
       <c r="W295" s="179"/>
       <c r="X295" s="180"/>
     </row>
-    <row r="296" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="72"/>
       <c r="B296" s="209">
         <v>99000592</v>
@@ -18839,7 +18848,7 @@
       <c r="W296" s="179"/>
       <c r="X296" s="180"/>
     </row>
-    <row r="297" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="14"/>
       <c r="B297" s="209">
         <v>99000593</v>
@@ -18902,7 +18911,7 @@
       <c r="V297" s="52"/>
       <c r="W297" s="25"/>
     </row>
-    <row r="298" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" s="88"/>
       <c r="B298" s="209">
         <v>99000594</v>
@@ -18975,7 +18984,7 @@
       <c r="AF298" s="198"/>
       <c r="AG298" s="198"/>
     </row>
-    <row r="299" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="72"/>
       <c r="B299" s="209">
         <v>99000595</v>
@@ -19031,7 +19040,7 @@
       <c r="W299" s="179"/>
       <c r="X299" s="180"/>
     </row>
-    <row r="300" spans="1:33" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:33" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="72"/>
       <c r="B300" s="209" t="s">
         <v>221</v>
@@ -19071,7 +19080,7 @@
       <c r="W300" s="179"/>
       <c r="X300" s="180"/>
     </row>
-    <row r="301" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="72"/>
       <c r="B301" s="209">
         <v>99000596</v>
@@ -19127,7 +19136,7 @@
       <c r="W301" s="179"/>
       <c r="X301" s="180"/>
     </row>
-    <row r="302" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="72"/>
       <c r="B302" s="209">
         <v>99000597</v>
@@ -19189,7 +19198,7 @@
       <c r="W302" s="179"/>
       <c r="X302" s="180"/>
     </row>
-    <row r="303" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="72"/>
       <c r="B303" s="209">
         <v>99000598</v>
@@ -19255,7 +19264,7 @@
       <c r="W303" s="179"/>
       <c r="X303" s="180"/>
     </row>
-    <row r="304" spans="1:33" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:33" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" s="72"/>
       <c r="B304" s="209">
         <v>99000599</v>
@@ -19319,7 +19328,7 @@
       <c r="W304" s="179"/>
       <c r="X304" s="180"/>
     </row>
-    <row r="305" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A305" s="72"/>
       <c r="B305" s="209">
         <v>99000600</v>
@@ -19379,7 +19388,7 @@
       <c r="W305" s="179"/>
       <c r="X305" s="180"/>
     </row>
-    <row r="306" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" s="72"/>
       <c r="B306" s="209">
         <v>99000601</v>
@@ -19435,7 +19444,7 @@
       <c r="W306" s="179"/>
       <c r="X306" s="180"/>
     </row>
-    <row r="307" spans="1:24" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A307" s="72"/>
       <c r="B307" s="209">
         <v>99000602</v>
@@ -19499,7 +19508,7 @@
       <c r="W307" s="179"/>
       <c r="X307" s="180"/>
     </row>
-    <row r="308" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A308" s="72"/>
       <c r="B308" s="209">
         <v>99000603</v>
@@ -19559,7 +19568,7 @@
       <c r="W308" s="179"/>
       <c r="X308" s="180"/>
     </row>
-    <row r="309" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="72"/>
       <c r="B309" s="209">
         <v>99000604</v>
@@ -19617,7 +19626,7 @@
       <c r="W309" s="179"/>
       <c r="X309" s="180"/>
     </row>
-    <row r="310" spans="1:24" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" s="72"/>
       <c r="B310" s="209">
         <v>99000605</v>
@@ -19659,7 +19668,7 @@
       <c r="W310" s="179"/>
       <c r="X310" s="180"/>
     </row>
-    <row r="311" spans="1:24" ht="39.950000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="72"/>
       <c r="B311" s="209">
         <v>99000606</v>
@@ -19695,7 +19704,7 @@
       <c r="W311" s="179"/>
       <c r="X311" s="180"/>
     </row>
-    <row r="312" spans="1:24" ht="26.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" s="72"/>
       <c r="B312" s="209">
         <v>99000607</v>
@@ -19739,7 +19748,7 @@
       <c r="W312" s="179"/>
       <c r="X312" s="180"/>
     </row>
-    <row r="313" spans="1:24" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A313" s="72"/>
       <c r="B313" s="209">
         <v>99000608</v>
@@ -19773,7 +19782,7 @@
       <c r="W313" s="179"/>
       <c r="X313" s="180"/>
     </row>
-    <row r="314" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="192"/>
       <c r="B314" s="192"/>
       <c r="C314" s="192"/>
@@ -19799,7 +19808,7 @@
       <c r="W314" s="179"/>
       <c r="X314" s="180"/>
     </row>
-    <row r="315" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="192"/>
       <c r="B315" s="192"/>
       <c r="C315" s="192"/>
@@ -19825,7 +19834,7 @@
       <c r="W315" s="179"/>
       <c r="X315" s="180"/>
     </row>
-    <row r="316" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="192"/>
       <c r="B316" s="192"/>
       <c r="C316" s="192"/>
@@ -19851,7 +19860,7 @@
       <c r="W316" s="179"/>
       <c r="X316" s="180"/>
     </row>
-    <row r="317" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="192"/>
       <c r="B317" s="192"/>
       <c r="C317" s="192"/>
@@ -19877,7 +19886,7 @@
       <c r="W317" s="179"/>
       <c r="X317" s="180"/>
     </row>
-    <row r="318" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="192"/>
       <c r="B318" s="192"/>
       <c r="C318" s="192"/>
@@ -19903,7 +19912,7 @@
       <c r="W318" s="179"/>
       <c r="X318" s="180"/>
     </row>
-    <row r="319" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="192"/>
       <c r="B319" s="192"/>
       <c r="C319" s="192"/>
@@ -19929,7 +19938,7 @@
       <c r="W319" s="179"/>
       <c r="X319" s="180"/>
     </row>
-    <row r="320" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="192"/>
       <c r="B320" s="192"/>
       <c r="C320" s="192"/>
@@ -19955,7 +19964,7 @@
       <c r="W320" s="179"/>
       <c r="X320" s="180"/>
     </row>
-    <row r="321" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="192"/>
       <c r="B321" s="192"/>
       <c r="C321" s="192"/>
@@ -19981,7 +19990,7 @@
       <c r="W321" s="179"/>
       <c r="X321" s="180"/>
     </row>
-    <row r="322" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="192"/>
       <c r="B322" s="192"/>
       <c r="C322" s="192"/>
@@ -20007,7 +20016,7 @@
       <c r="W322" s="179"/>
       <c r="X322" s="180"/>
     </row>
-    <row r="323" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="192"/>
       <c r="B323" s="192"/>
       <c r="C323" s="192"/>
@@ -20033,7 +20042,7 @@
       <c r="W323" s="179"/>
       <c r="X323" s="180"/>
     </row>
-    <row r="324" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="192"/>
       <c r="B324" s="192"/>
       <c r="C324" s="192"/>
@@ -20059,7 +20068,7 @@
       <c r="W324" s="179"/>
       <c r="X324" s="180"/>
     </row>
-    <row r="325" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="192"/>
       <c r="B325" s="192"/>
       <c r="C325" s="192"/>
@@ -20085,7 +20094,7 @@
       <c r="W325" s="179"/>
       <c r="X325" s="180"/>
     </row>
-    <row r="326" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="192"/>
       <c r="B326" s="192"/>
       <c r="C326" s="192"/>
@@ -20111,7 +20120,7 @@
       <c r="W326" s="179"/>
       <c r="X326" s="180"/>
     </row>
-    <row r="327" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="192"/>
       <c r="B327" s="192"/>
       <c r="C327" s="192"/>
@@ -20137,7 +20146,7 @@
       <c r="W327" s="179"/>
       <c r="X327" s="180"/>
     </row>
-    <row r="328" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="192"/>
       <c r="B328" s="192"/>
       <c r="C328" s="192"/>
@@ -20163,7 +20172,7 @@
       <c r="W328" s="179"/>
       <c r="X328" s="180"/>
     </row>
-    <row r="329" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="192"/>
       <c r="B329" s="192"/>
       <c r="C329" s="192"/>
@@ -20189,7 +20198,7 @@
       <c r="W329" s="179"/>
       <c r="X329" s="180"/>
     </row>
-    <row r="330" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="192"/>
       <c r="B330" s="192"/>
       <c r="C330" s="192"/>
@@ -20215,7 +20224,7 @@
       <c r="W330" s="179"/>
       <c r="X330" s="180"/>
     </row>
-    <row r="331" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="192"/>
       <c r="B331" s="192"/>
       <c r="C331" s="192"/>
@@ -20241,7 +20250,7 @@
       <c r="W331" s="179"/>
       <c r="X331" s="180"/>
     </row>
-    <row r="332" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="192"/>
       <c r="B332" s="192"/>
       <c r="C332" s="192"/>
@@ -20267,7 +20276,7 @@
       <c r="W332" s="179"/>
       <c r="X332" s="180"/>
     </row>
-    <row r="333" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="192"/>
       <c r="B333" s="192"/>
       <c r="C333" s="192"/>
@@ -20293,7 +20302,7 @@
       <c r="W333" s="179"/>
       <c r="X333" s="180"/>
     </row>
-    <row r="334" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="192"/>
       <c r="B334" s="192"/>
       <c r="C334" s="192"/>
@@ -20319,7 +20328,7 @@
       <c r="W334" s="179"/>
       <c r="X334" s="180"/>
     </row>
-    <row r="335" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="192"/>
       <c r="B335" s="192"/>
       <c r="C335" s="192"/>
@@ -20345,7 +20354,7 @@
       <c r="W335" s="179"/>
       <c r="X335" s="180"/>
     </row>
-    <row r="336" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="192"/>
       <c r="B336" s="192"/>
       <c r="C336" s="192"/>
@@ -20371,7 +20380,7 @@
       <c r="W336" s="179"/>
       <c r="X336" s="180"/>
     </row>
-    <row r="337" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="192"/>
       <c r="B337" s="192"/>
       <c r="C337" s="192"/>
@@ -20397,7 +20406,7 @@
       <c r="W337" s="179"/>
       <c r="X337" s="180"/>
     </row>
-    <row r="338" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="192"/>
       <c r="B338" s="192"/>
       <c r="C338" s="192"/>
@@ -20423,7 +20432,7 @@
       <c r="W338" s="179"/>
       <c r="X338" s="180"/>
     </row>
-    <row r="339" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="192"/>
       <c r="B339" s="192"/>
       <c r="C339" s="192"/>
@@ -20449,7 +20458,7 @@
       <c r="W339" s="179"/>
       <c r="X339" s="180"/>
     </row>
-    <row r="340" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="192"/>
       <c r="B340" s="192"/>
       <c r="C340" s="192"/>
@@ -20475,7 +20484,7 @@
       <c r="W340" s="179"/>
       <c r="X340" s="180"/>
     </row>
-    <row r="341" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="192"/>
       <c r="B341" s="192"/>
       <c r="C341" s="192"/>
@@ -20501,7 +20510,7 @@
       <c r="W341" s="179"/>
       <c r="X341" s="180"/>
     </row>
-    <row r="342" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="192"/>
       <c r="B342" s="192"/>
       <c r="C342" s="192"/>
@@ -20527,7 +20536,7 @@
       <c r="W342" s="179"/>
       <c r="X342" s="180"/>
     </row>
-    <row r="343" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="192"/>
       <c r="B343" s="192"/>
       <c r="C343" s="192"/>
@@ -20553,7 +20562,7 @@
       <c r="W343" s="179"/>
       <c r="X343" s="180"/>
     </row>
-    <row r="344" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="192"/>
       <c r="B344" s="192"/>
       <c r="C344" s="192"/>
@@ -20579,7 +20588,7 @@
       <c r="W344" s="179"/>
       <c r="X344" s="180"/>
     </row>
-    <row r="345" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="192"/>
       <c r="B345" s="192"/>
       <c r="C345" s="192"/>
@@ -20605,7 +20614,7 @@
       <c r="W345" s="179"/>
       <c r="X345" s="180"/>
     </row>
-    <row r="346" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="192"/>
       <c r="B346" s="192"/>
       <c r="C346" s="192"/>
@@ -20631,7 +20640,7 @@
       <c r="W346" s="179"/>
       <c r="X346" s="180"/>
     </row>
-    <row r="347" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="192"/>
       <c r="B347" s="192"/>
       <c r="C347" s="192"/>
@@ -20657,7 +20666,7 @@
       <c r="W347" s="179"/>
       <c r="X347" s="180"/>
     </row>
-    <row r="348" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="192"/>
       <c r="B348" s="192"/>
       <c r="C348" s="192"/>
@@ -20683,7 +20692,7 @@
       <c r="W348" s="179"/>
       <c r="X348" s="180"/>
     </row>
-    <row r="349" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="192"/>
       <c r="B349" s="192"/>
       <c r="C349" s="192"/>
@@ -20709,7 +20718,7 @@
       <c r="W349" s="179"/>
       <c r="X349" s="180"/>
     </row>
-    <row r="350" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="192"/>
       <c r="B350" s="192"/>
       <c r="C350" s="192"/>
@@ -20735,7 +20744,7 @@
       <c r="W350" s="179"/>
       <c r="X350" s="180"/>
     </row>
-    <row r="351" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="192"/>
       <c r="B351" s="192"/>
       <c r="C351" s="192"/>
@@ -20761,7 +20770,7 @@
       <c r="W351" s="179"/>
       <c r="X351" s="180"/>
     </row>
-    <row r="352" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="192"/>
       <c r="B352" s="192"/>
       <c r="C352" s="192"/>
@@ -20787,7 +20796,7 @@
       <c r="W352" s="179"/>
       <c r="X352" s="180"/>
     </row>
-    <row r="353" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="192"/>
       <c r="B353" s="192"/>
       <c r="C353" s="192"/>
@@ -20813,7 +20822,7 @@
       <c r="W353" s="179"/>
       <c r="X353" s="180"/>
     </row>
-    <row r="354" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="192"/>
       <c r="B354" s="192"/>
       <c r="C354" s="192"/>
@@ -20839,7 +20848,7 @@
       <c r="W354" s="179"/>
       <c r="X354" s="180"/>
     </row>
-    <row r="355" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="192"/>
       <c r="B355" s="192"/>
       <c r="C355" s="192"/>
@@ -20865,7 +20874,7 @@
       <c r="W355" s="179"/>
       <c r="X355" s="180"/>
     </row>
-    <row r="356" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="192"/>
       <c r="B356" s="192"/>
       <c r="C356" s="192"/>
@@ -20891,7 +20900,7 @@
       <c r="W356" s="179"/>
       <c r="X356" s="180"/>
     </row>
-    <row r="357" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="192"/>
       <c r="B357" s="192"/>
       <c r="C357" s="192"/>
@@ -20917,7 +20926,7 @@
       <c r="W357" s="179"/>
       <c r="X357" s="180"/>
     </row>
-    <row r="358" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="192"/>
       <c r="B358" s="192"/>
       <c r="C358" s="192"/>
@@ -20943,7 +20952,7 @@
       <c r="W358" s="179"/>
       <c r="X358" s="180"/>
     </row>
-    <row r="359" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="192"/>
       <c r="B359" s="192"/>
       <c r="C359" s="192"/>
@@ -20969,7 +20978,7 @@
       <c r="W359" s="179"/>
       <c r="X359" s="180"/>
     </row>
-    <row r="360" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="192"/>
       <c r="B360" s="192"/>
       <c r="C360" s="192"/>
@@ -20995,7 +21004,7 @@
       <c r="W360" s="179"/>
       <c r="X360" s="180"/>
     </row>
-    <row r="361" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="192"/>
       <c r="B361" s="192"/>
       <c r="C361" s="192"/>
@@ -21021,7 +21030,7 @@
       <c r="W361" s="179"/>
       <c r="X361" s="180"/>
     </row>
-    <row r="362" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="192"/>
       <c r="B362" s="192"/>
       <c r="C362" s="192"/>
@@ -21047,7 +21056,7 @@
       <c r="W362" s="179"/>
       <c r="X362" s="180"/>
     </row>
-    <row r="363" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="192"/>
       <c r="B363" s="192"/>
       <c r="C363" s="192"/>
@@ -21073,7 +21082,7 @@
       <c r="W363" s="179"/>
       <c r="X363" s="180"/>
     </row>
-    <row r="364" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="192"/>
       <c r="B364" s="192"/>
       <c r="C364" s="192"/>
@@ -21099,7 +21108,7 @@
       <c r="W364" s="179"/>
       <c r="X364" s="180"/>
     </row>
-    <row r="365" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="192"/>
       <c r="B365" s="192"/>
       <c r="C365" s="192"/>
@@ -21125,7 +21134,7 @@
       <c r="W365" s="179"/>
       <c r="X365" s="180"/>
     </row>
-    <row r="366" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="192"/>
       <c r="B366" s="192"/>
       <c r="C366" s="192"/>
@@ -21151,7 +21160,7 @@
       <c r="W366" s="179"/>
       <c r="X366" s="180"/>
     </row>
-    <row r="367" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="192"/>
       <c r="B367" s="192"/>
       <c r="C367" s="192"/>
@@ -21177,7 +21186,7 @@
       <c r="W367" s="179"/>
       <c r="X367" s="180"/>
     </row>
-    <row r="368" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="192"/>
       <c r="B368" s="192"/>
       <c r="C368" s="192"/>
@@ -21203,7 +21212,7 @@
       <c r="W368" s="179"/>
       <c r="X368" s="180"/>
     </row>
-    <row r="369" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="192"/>
       <c r="B369" s="192"/>
       <c r="C369" s="192"/>
@@ -21229,7 +21238,7 @@
       <c r="W369" s="179"/>
       <c r="X369" s="180"/>
     </row>
-    <row r="370" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="192"/>
       <c r="B370" s="192"/>
       <c r="C370" s="192"/>
@@ -21255,7 +21264,7 @@
       <c r="W370" s="179"/>
       <c r="X370" s="180"/>
     </row>
-    <row r="371" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="192"/>
       <c r="B371" s="192"/>
       <c r="C371" s="192"/>
@@ -21281,7 +21290,7 @@
       <c r="W371" s="179"/>
       <c r="X371" s="180"/>
     </row>
-    <row r="372" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="192"/>
       <c r="B372" s="192"/>
       <c r="C372" s="192"/>
@@ -21307,7 +21316,7 @@
       <c r="W372" s="179"/>
       <c r="X372" s="180"/>
     </row>
-    <row r="373" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="192"/>
       <c r="B373" s="192"/>
       <c r="C373" s="192"/>
@@ -21333,7 +21342,7 @@
       <c r="W373" s="179"/>
       <c r="X373" s="180"/>
     </row>
-    <row r="374" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="192"/>
       <c r="B374" s="192"/>
       <c r="C374" s="192"/>
@@ -21359,7 +21368,7 @@
       <c r="W374" s="179"/>
       <c r="X374" s="180"/>
     </row>
-    <row r="375" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="192"/>
       <c r="B375" s="192"/>
       <c r="C375" s="192"/>
@@ -21385,7 +21394,7 @@
       <c r="W375" s="179"/>
       <c r="X375" s="180"/>
     </row>
-    <row r="376" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="192"/>
       <c r="B376" s="192"/>
       <c r="C376" s="192"/>
@@ -21411,7 +21420,7 @@
       <c r="W376" s="179"/>
       <c r="X376" s="180"/>
     </row>
-    <row r="377" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="192"/>
       <c r="B377" s="192"/>
       <c r="C377" s="192"/>
@@ -21437,7 +21446,7 @@
       <c r="W377" s="179"/>
       <c r="X377" s="180"/>
     </row>
-    <row r="378" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="192"/>
       <c r="B378" s="192"/>
       <c r="C378" s="192"/>
@@ -21463,7 +21472,7 @@
       <c r="W378" s="179"/>
       <c r="X378" s="180"/>
     </row>
-    <row r="379" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="192"/>
       <c r="B379" s="192"/>
       <c r="C379" s="192"/>
@@ -21489,7 +21498,7 @@
       <c r="W379" s="179"/>
       <c r="X379" s="180"/>
     </row>
-    <row r="380" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="192"/>
       <c r="B380" s="192"/>
       <c r="C380" s="192"/>
@@ -21515,7 +21524,7 @@
       <c r="W380" s="179"/>
       <c r="X380" s="180"/>
     </row>
-    <row r="381" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="192"/>
       <c r="B381" s="192"/>
       <c r="C381" s="192"/>
@@ -21541,7 +21550,7 @@
       <c r="W381" s="179"/>
       <c r="X381" s="180"/>
     </row>
-    <row r="382" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="192"/>
       <c r="B382" s="192"/>
       <c r="C382" s="192"/>
@@ -21567,7 +21576,7 @@
       <c r="W382" s="179"/>
       <c r="X382" s="180"/>
     </row>
-    <row r="383" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="192"/>
       <c r="B383" s="192"/>
       <c r="C383" s="192"/>
@@ -21593,7 +21602,7 @@
       <c r="W383" s="179"/>
       <c r="X383" s="180"/>
     </row>
-    <row r="384" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="192"/>
       <c r="B384" s="192"/>
       <c r="C384" s="192"/>
@@ -21619,7 +21628,7 @@
       <c r="W384" s="179"/>
       <c r="X384" s="180"/>
     </row>
-    <row r="385" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="192"/>
       <c r="B385" s="192"/>
       <c r="C385" s="192"/>
@@ -21645,7 +21654,7 @@
       <c r="W385" s="179"/>
       <c r="X385" s="180"/>
     </row>
-    <row r="386" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="192"/>
       <c r="B386" s="192"/>
       <c r="C386" s="192"/>
@@ -21671,7 +21680,7 @@
       <c r="W386" s="179"/>
       <c r="X386" s="180"/>
     </row>
-    <row r="387" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="192"/>
       <c r="B387" s="192"/>
       <c r="C387" s="192"/>
@@ -21697,7 +21706,7 @@
       <c r="W387" s="179"/>
       <c r="X387" s="180"/>
     </row>
-    <row r="388" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="192"/>
       <c r="B388" s="192"/>
       <c r="C388" s="192"/>
@@ -21723,7 +21732,7 @@
       <c r="W388" s="179"/>
       <c r="X388" s="180"/>
     </row>
-    <row r="389" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="192"/>
       <c r="B389" s="192"/>
       <c r="C389" s="192"/>
@@ -21749,7 +21758,7 @@
       <c r="W389" s="179"/>
       <c r="X389" s="180"/>
     </row>
-    <row r="390" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="192"/>
       <c r="B390" s="192"/>
       <c r="C390" s="192"/>
@@ -21775,7 +21784,7 @@
       <c r="W390" s="179"/>
       <c r="X390" s="180"/>
     </row>
-    <row r="391" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="192"/>
       <c r="B391" s="192"/>
       <c r="C391" s="192"/>
@@ -21800,7 +21809,7 @@
       <c r="V391" s="182"/>
       <c r="W391" s="118"/>
     </row>
-    <row r="392" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="192"/>
       <c r="B392" s="192"/>
       <c r="C392" s="192"/>
@@ -21825,7 +21834,7 @@
       <c r="V392" s="182"/>
       <c r="W392" s="118"/>
     </row>
-    <row r="393" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="192"/>
       <c r="B393" s="192"/>
       <c r="C393" s="192"/>
@@ -21850,7 +21859,7 @@
       <c r="V393" s="182"/>
       <c r="W393" s="118"/>
     </row>
-    <row r="394" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="192"/>
       <c r="B394" s="192"/>
       <c r="C394" s="192"/>
@@ -21875,7 +21884,7 @@
       <c r="V394" s="182"/>
       <c r="W394" s="118"/>
     </row>
-    <row r="395" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="192"/>
       <c r="B395" s="192"/>
       <c r="C395" s="192"/>
@@ -21900,7 +21909,7 @@
       <c r="V395" s="182"/>
       <c r="W395" s="118"/>
     </row>
-    <row r="396" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="192"/>
       <c r="B396" s="192"/>
       <c r="C396" s="192"/>
@@ -21925,7 +21934,7 @@
       <c r="V396" s="182"/>
       <c r="W396" s="118"/>
     </row>
-    <row r="397" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="192"/>
       <c r="B397" s="192"/>
       <c r="C397" s="192"/>
@@ -21950,7 +21959,7 @@
       <c r="V397" s="182"/>
       <c r="W397" s="118"/>
     </row>
-    <row r="398" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="192"/>
       <c r="B398" s="192"/>
       <c r="C398" s="192"/>
@@ -21975,7 +21984,7 @@
       <c r="V398" s="182"/>
       <c r="W398" s="118"/>
     </row>
-    <row r="399" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="192"/>
       <c r="B399" s="192"/>
       <c r="C399" s="192"/>
@@ -22000,7 +22009,7 @@
       <c r="V399" s="182"/>
       <c r="W399" s="118"/>
     </row>
-    <row r="400" spans="1:24" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="192"/>
       <c r="B400" s="192"/>
       <c r="C400" s="192"/>
@@ -22025,7 +22034,7 @@
       <c r="V400" s="182"/>
       <c r="W400" s="118"/>
     </row>
-    <row r="401" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="192"/>
       <c r="B401" s="192"/>
       <c r="C401" s="192"/>
@@ -22050,7 +22059,7 @@
       <c r="V401" s="182"/>
       <c r="W401" s="118"/>
     </row>
-    <row r="402" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="192"/>
       <c r="B402" s="192"/>
       <c r="C402" s="192"/>
@@ -22075,7 +22084,7 @@
       <c r="V402" s="182"/>
       <c r="W402" s="118"/>
     </row>
-    <row r="403" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="192"/>
       <c r="B403" s="192"/>
       <c r="C403" s="192"/>
@@ -22100,7 +22109,7 @@
       <c r="V403" s="182"/>
       <c r="W403" s="118"/>
     </row>
-    <row r="404" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="192"/>
       <c r="B404" s="192"/>
       <c r="C404" s="192"/>
@@ -22125,7 +22134,7 @@
       <c r="V404" s="182"/>
       <c r="W404" s="118"/>
     </row>
-    <row r="405" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="192"/>
       <c r="B405" s="192"/>
       <c r="C405" s="192"/>
@@ -22150,7 +22159,7 @@
       <c r="V405" s="182"/>
       <c r="W405" s="118"/>
     </row>
-    <row r="406" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="192"/>
       <c r="B406" s="192"/>
       <c r="C406" s="192"/>
@@ -22175,7 +22184,7 @@
       <c r="V406" s="182"/>
       <c r="W406" s="118"/>
     </row>
-    <row r="407" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="192"/>
       <c r="B407" s="192"/>
       <c r="C407" s="192"/>
@@ -22200,7 +22209,7 @@
       <c r="V407" s="182"/>
       <c r="W407" s="118"/>
     </row>
-    <row r="408" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="192"/>
       <c r="B408" s="192"/>
       <c r="C408" s="192"/>
@@ -22225,7 +22234,7 @@
       <c r="V408" s="182"/>
       <c r="W408" s="118"/>
     </row>
-    <row r="409" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="192"/>
       <c r="B409" s="192"/>
       <c r="C409" s="192"/>
@@ -22250,7 +22259,7 @@
       <c r="V409" s="182"/>
       <c r="W409" s="118"/>
     </row>
-    <row r="410" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="192"/>
       <c r="B410" s="192"/>
       <c r="C410" s="192"/>
@@ -22275,7 +22284,7 @@
       <c r="V410" s="182"/>
       <c r="W410" s="118"/>
     </row>
-    <row r="411" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="192"/>
       <c r="B411" s="192"/>
       <c r="C411" s="192"/>
@@ -22300,7 +22309,7 @@
       <c r="V411" s="182"/>
       <c r="W411" s="118"/>
     </row>
-    <row r="412" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="192"/>
       <c r="B412" s="192"/>
       <c r="C412" s="192"/>
@@ -22325,7 +22334,7 @@
       <c r="V412" s="182"/>
       <c r="W412" s="118"/>
     </row>
-    <row r="413" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="192"/>
       <c r="B413" s="192"/>
       <c r="C413" s="192"/>
@@ -22350,7 +22359,7 @@
       <c r="V413" s="182"/>
       <c r="W413" s="118"/>
     </row>
-    <row r="414" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="192"/>
       <c r="B414" s="192"/>
       <c r="C414" s="192"/>
@@ -22375,7 +22384,7 @@
       <c r="V414" s="182"/>
       <c r="W414" s="118"/>
     </row>
-    <row r="415" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="192"/>
       <c r="B415" s="192"/>
       <c r="C415" s="192"/>
@@ -22400,7 +22409,7 @@
       <c r="V415" s="182"/>
       <c r="W415" s="118"/>
     </row>
-    <row r="416" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="192"/>
       <c r="B416" s="192"/>
       <c r="C416" s="192"/>
@@ -22425,7 +22434,7 @@
       <c r="V416" s="182"/>
       <c r="W416" s="118"/>
     </row>
-    <row r="417" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="192"/>
       <c r="B417" s="192"/>
       <c r="C417" s="192"/>
@@ -22450,7 +22459,7 @@
       <c r="V417" s="182"/>
       <c r="W417" s="118"/>
     </row>
-    <row r="418" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="192"/>
       <c r="B418" s="192"/>
       <c r="C418" s="192"/>
@@ -22475,7 +22484,7 @@
       <c r="V418" s="182"/>
       <c r="W418" s="118"/>
     </row>
-    <row r="419" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="192"/>
       <c r="B419" s="192"/>
       <c r="C419" s="192"/>
@@ -22500,7 +22509,7 @@
       <c r="V419" s="182"/>
       <c r="W419" s="118"/>
     </row>
-    <row r="420" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="192"/>
       <c r="B420" s="192"/>
       <c r="C420" s="192"/>
@@ -22525,7 +22534,7 @@
       <c r="V420" s="182"/>
       <c r="W420" s="118"/>
     </row>
-    <row r="421" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="192"/>
       <c r="B421" s="192"/>
       <c r="C421" s="192"/>
@@ -22550,7 +22559,7 @@
       <c r="V421" s="182"/>
       <c r="W421" s="118"/>
     </row>
-    <row r="422" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="192"/>
       <c r="B422" s="192"/>
       <c r="C422" s="192"/>
@@ -22575,7 +22584,7 @@
       <c r="V422" s="182"/>
       <c r="W422" s="118"/>
     </row>
-    <row r="423" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="192"/>
       <c r="B423" s="192"/>
       <c r="C423" s="192"/>
@@ -22600,7 +22609,7 @@
       <c r="V423" s="182"/>
       <c r="W423" s="118"/>
     </row>
-    <row r="424" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="192"/>
       <c r="B424" s="192"/>
       <c r="C424" s="192"/>
@@ -22625,7 +22634,7 @@
       <c r="V424" s="182"/>
       <c r="W424" s="118"/>
     </row>
-    <row r="425" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="192"/>
       <c r="B425" s="192"/>
       <c r="C425" s="192"/>
@@ -22650,7 +22659,7 @@
       <c r="V425" s="182"/>
       <c r="W425" s="118"/>
     </row>
-    <row r="426" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="192"/>
       <c r="B426" s="192"/>
       <c r="C426" s="192"/>
@@ -22675,7 +22684,7 @@
       <c r="V426" s="182"/>
       <c r="W426" s="118"/>
     </row>
-    <row r="427" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="192"/>
       <c r="B427" s="192"/>
       <c r="C427" s="192"/>
@@ -22700,7 +22709,7 @@
       <c r="V427" s="182"/>
       <c r="W427" s="118"/>
     </row>
-    <row r="428" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="192"/>
       <c r="B428" s="192"/>
       <c r="C428" s="192"/>
@@ -22725,7 +22734,7 @@
       <c r="V428" s="182"/>
       <c r="W428" s="118"/>
     </row>
-    <row r="429" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="192"/>
       <c r="B429" s="192"/>
       <c r="C429" s="192"/>
@@ -22750,7 +22759,7 @@
       <c r="V429" s="182"/>
       <c r="W429" s="118"/>
     </row>
-    <row r="430" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="192"/>
       <c r="B430" s="192"/>
       <c r="C430" s="192"/>
@@ -22775,7 +22784,7 @@
       <c r="V430" s="182"/>
       <c r="W430" s="118"/>
     </row>
-    <row r="431" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="192"/>
       <c r="B431" s="192"/>
       <c r="C431" s="192"/>
@@ -22800,7 +22809,7 @@
       <c r="V431" s="182"/>
       <c r="W431" s="118"/>
     </row>
-    <row r="432" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="192"/>
       <c r="B432" s="192"/>
       <c r="C432" s="192"/>
@@ -22825,7 +22834,7 @@
       <c r="V432" s="182"/>
       <c r="W432" s="118"/>
     </row>
-    <row r="433" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="192"/>
       <c r="B433" s="192"/>
       <c r="C433" s="192"/>
@@ -22850,7 +22859,7 @@
       <c r="V433" s="182"/>
       <c r="W433" s="118"/>
     </row>
-    <row r="434" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="192"/>
       <c r="B434" s="192"/>
       <c r="C434" s="192"/>
@@ -22875,7 +22884,7 @@
       <c r="V434" s="182"/>
       <c r="W434" s="118"/>
     </row>
-    <row r="435" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="192"/>
       <c r="B435" s="192"/>
       <c r="C435" s="192"/>
@@ -22900,7 +22909,7 @@
       <c r="V435" s="182"/>
       <c r="W435" s="118"/>
     </row>
-    <row r="436" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="192"/>
       <c r="B436" s="192"/>
       <c r="C436" s="192"/>
@@ -22925,7 +22934,7 @@
       <c r="V436" s="182"/>
       <c r="W436" s="118"/>
     </row>
-    <row r="437" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="192"/>
       <c r="B437" s="192"/>
       <c r="C437" s="192"/>
@@ -22950,7 +22959,7 @@
       <c r="V437" s="182"/>
       <c r="W437" s="118"/>
     </row>
-    <row r="438" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="192"/>
       <c r="B438" s="192"/>
       <c r="C438" s="192"/>
@@ -22975,7 +22984,7 @@
       <c r="V438" s="182"/>
       <c r="W438" s="118"/>
     </row>
-    <row r="439" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="192"/>
       <c r="B439" s="192"/>
       <c r="C439" s="192"/>
@@ -23000,7 +23009,7 @@
       <c r="V439" s="182"/>
       <c r="W439" s="118"/>
     </row>
-    <row r="440" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="192"/>
       <c r="B440" s="192"/>
       <c r="C440" s="192"/>
@@ -23025,7 +23034,7 @@
       <c r="V440" s="182"/>
       <c r="W440" s="118"/>
     </row>
-    <row r="441" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="192"/>
       <c r="B441" s="192"/>
       <c r="C441" s="192"/>
@@ -23050,7 +23059,7 @@
       <c r="V441" s="182"/>
       <c r="W441" s="118"/>
     </row>
-    <row r="442" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="192"/>
       <c r="B442" s="192"/>
       <c r="C442" s="192"/>
@@ -23075,7 +23084,7 @@
       <c r="V442" s="182"/>
       <c r="W442" s="118"/>
     </row>
-    <row r="443" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="192"/>
       <c r="B443" s="192"/>
       <c r="C443" s="192"/>
@@ -23100,7 +23109,7 @@
       <c r="V443" s="182"/>
       <c r="W443" s="118"/>
     </row>
-    <row r="444" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="192"/>
       <c r="B444" s="192"/>
       <c r="C444" s="192"/>
@@ -23125,7 +23134,7 @@
       <c r="V444" s="182"/>
       <c r="W444" s="118"/>
     </row>
-    <row r="445" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="192"/>
       <c r="B445" s="192"/>
       <c r="C445" s="192"/>
@@ -23150,7 +23159,7 @@
       <c r="V445" s="182"/>
       <c r="W445" s="118"/>
     </row>
-    <row r="446" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="192"/>
       <c r="B446" s="192"/>
       <c r="C446" s="192"/>
@@ -23175,7 +23184,7 @@
       <c r="V446" s="182"/>
       <c r="W446" s="118"/>
     </row>
-    <row r="447" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="192"/>
       <c r="B447" s="192"/>
       <c r="C447" s="192"/>
@@ -23200,7 +23209,7 @@
       <c r="V447" s="182"/>
       <c r="W447" s="118"/>
     </row>
-    <row r="448" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="192"/>
       <c r="B448" s="192"/>
       <c r="C448" s="192"/>
@@ -23225,7 +23234,7 @@
       <c r="V448" s="182"/>
       <c r="W448" s="118"/>
     </row>
-    <row r="449" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="192"/>
       <c r="B449" s="192"/>
       <c r="C449" s="192"/>
@@ -23250,7 +23259,7 @@
       <c r="V449" s="182"/>
       <c r="W449" s="118"/>
     </row>
-    <row r="450" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="192"/>
       <c r="B450" s="192"/>
       <c r="C450" s="192"/>
@@ -23275,7 +23284,7 @@
       <c r="V450" s="182"/>
       <c r="W450" s="118"/>
     </row>
-    <row r="451" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="192"/>
       <c r="B451" s="192"/>
       <c r="C451" s="192"/>
@@ -23300,7 +23309,7 @@
       <c r="V451" s="182"/>
       <c r="W451" s="118"/>
     </row>
-    <row r="452" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="192"/>
       <c r="B452" s="192"/>
       <c r="C452" s="192"/>
@@ -23325,7 +23334,7 @@
       <c r="V452" s="182"/>
       <c r="W452" s="118"/>
     </row>
-    <row r="453" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="192"/>
       <c r="B453" s="192"/>
       <c r="C453" s="192"/>
@@ -23350,7 +23359,7 @@
       <c r="V453" s="182"/>
       <c r="W453" s="118"/>
     </row>
-    <row r="454" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="192"/>
       <c r="B454" s="192"/>
       <c r="C454" s="192"/>
@@ -23375,7 +23384,7 @@
       <c r="V454" s="182"/>
       <c r="W454" s="118"/>
     </row>
-    <row r="455" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="192"/>
       <c r="B455" s="192"/>
       <c r="C455" s="192"/>
@@ -23400,7 +23409,7 @@
       <c r="V455" s="182"/>
       <c r="W455" s="118"/>
     </row>
-    <row r="456" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="192"/>
       <c r="B456" s="192"/>
       <c r="C456" s="192"/>
@@ -23425,7 +23434,7 @@
       <c r="V456" s="182"/>
       <c r="W456" s="118"/>
     </row>
-    <row r="457" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="192"/>
       <c r="B457" s="192"/>
       <c r="C457" s="192"/>
@@ -23450,7 +23459,7 @@
       <c r="V457" s="182"/>
       <c r="W457" s="118"/>
     </row>
-    <row r="458" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="192"/>
       <c r="B458" s="192"/>
       <c r="C458" s="192"/>
@@ -23475,7 +23484,7 @@
       <c r="V458" s="182"/>
       <c r="W458" s="118"/>
     </row>
-    <row r="459" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="192"/>
       <c r="B459" s="192"/>
       <c r="C459" s="192"/>
@@ -23500,7 +23509,7 @@
       <c r="V459" s="182"/>
       <c r="W459" s="118"/>
     </row>
-    <row r="460" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="192"/>
       <c r="B460" s="192"/>
       <c r="C460" s="192"/>
@@ -23525,7 +23534,7 @@
       <c r="V460" s="182"/>
       <c r="W460" s="118"/>
     </row>
-    <row r="461" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="192"/>
       <c r="B461" s="192"/>
       <c r="C461" s="192"/>
@@ -23550,7 +23559,7 @@
       <c r="V461" s="182"/>
       <c r="W461" s="118"/>
     </row>
-    <row r="462" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="192"/>
       <c r="B462" s="192"/>
       <c r="C462" s="192"/>
@@ -23575,7 +23584,7 @@
       <c r="V462" s="182"/>
       <c r="W462" s="118"/>
     </row>
-    <row r="463" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="192"/>
       <c r="B463" s="192"/>
       <c r="C463" s="192"/>
@@ -23600,7 +23609,7 @@
       <c r="V463" s="182"/>
       <c r="W463" s="118"/>
     </row>
-    <row r="464" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="192"/>
       <c r="B464" s="192"/>
       <c r="C464" s="192"/>
@@ -23625,7 +23634,7 @@
       <c r="V464" s="182"/>
       <c r="W464" s="118"/>
     </row>
-    <row r="465" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="192"/>
       <c r="B465" s="192"/>
       <c r="C465" s="192"/>
@@ -23650,7 +23659,7 @@
       <c r="V465" s="182"/>
       <c r="W465" s="118"/>
     </row>
-    <row r="466" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="192"/>
       <c r="B466" s="192"/>
       <c r="C466" s="192"/>
@@ -23675,7 +23684,7 @@
       <c r="V466" s="182"/>
       <c r="W466" s="118"/>
     </row>
-    <row r="467" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="192"/>
       <c r="B467" s="192"/>
       <c r="C467" s="192"/>
@@ -23700,7 +23709,7 @@
       <c r="V467" s="182"/>
       <c r="W467" s="118"/>
     </row>
-    <row r="468" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="192"/>
       <c r="B468" s="192"/>
       <c r="C468" s="192"/>
@@ -23725,7 +23734,7 @@
       <c r="V468" s="182"/>
       <c r="W468" s="118"/>
     </row>
-    <row r="469" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="192"/>
       <c r="B469" s="192"/>
       <c r="C469" s="192"/>
@@ -23750,7 +23759,7 @@
       <c r="V469" s="182"/>
       <c r="W469" s="118"/>
     </row>
-    <row r="470" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="192"/>
       <c r="B470" s="192"/>
       <c r="C470" s="192"/>
@@ -23775,7 +23784,7 @@
       <c r="V470" s="182"/>
       <c r="W470" s="118"/>
     </row>
-    <row r="471" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="192"/>
       <c r="B471" s="192"/>
       <c r="C471" s="192"/>
@@ -23800,7 +23809,7 @@
       <c r="V471" s="182"/>
       <c r="W471" s="118"/>
     </row>
-    <row r="472" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="192"/>
       <c r="B472" s="192"/>
       <c r="C472" s="192"/>
@@ -23825,7 +23834,7 @@
       <c r="V472" s="182"/>
       <c r="W472" s="118"/>
     </row>
-    <row r="473" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="192"/>
       <c r="B473" s="192"/>
       <c r="C473" s="192"/>
@@ -23850,7 +23859,7 @@
       <c r="V473" s="182"/>
       <c r="W473" s="118"/>
     </row>
-    <row r="474" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="192"/>
       <c r="B474" s="192"/>
       <c r="C474" s="192"/>
@@ -23875,7 +23884,7 @@
       <c r="V474" s="182"/>
       <c r="W474" s="118"/>
     </row>
-    <row r="475" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="192"/>
       <c r="B475" s="192"/>
       <c r="C475" s="192"/>
@@ -23900,7 +23909,7 @@
       <c r="V475" s="182"/>
       <c r="W475" s="118"/>
     </row>
-    <row r="476" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="192"/>
       <c r="B476" s="192"/>
       <c r="C476" s="192"/>
@@ -23925,7 +23934,7 @@
       <c r="V476" s="182"/>
       <c r="W476" s="118"/>
     </row>
-    <row r="477" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="192"/>
       <c r="B477" s="192"/>
       <c r="C477" s="192"/>
@@ -23950,7 +23959,7 @@
       <c r="V477" s="182"/>
       <c r="W477" s="118"/>
     </row>
-    <row r="478" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="192"/>
       <c r="B478" s="192"/>
       <c r="C478" s="192"/>
@@ -23975,7 +23984,7 @@
       <c r="V478" s="182"/>
       <c r="W478" s="118"/>
     </row>
-    <row r="479" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="192"/>
       <c r="B479" s="192"/>
       <c r="C479" s="192"/>
@@ -24000,7 +24009,7 @@
       <c r="V479" s="182"/>
       <c r="W479" s="118"/>
     </row>
-    <row r="480" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="192"/>
       <c r="B480" s="192"/>
       <c r="C480" s="192"/>
@@ -24025,7 +24034,7 @@
       <c r="V480" s="182"/>
       <c r="W480" s="118"/>
     </row>
-    <row r="481" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="192"/>
       <c r="B481" s="192"/>
       <c r="C481" s="192"/>
@@ -24050,7 +24059,7 @@
       <c r="V481" s="182"/>
       <c r="W481" s="118"/>
     </row>
-    <row r="482" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="192"/>
       <c r="B482" s="192"/>
       <c r="C482" s="192"/>
@@ -24075,7 +24084,7 @@
       <c r="V482" s="182"/>
       <c r="W482" s="118"/>
     </row>
-    <row r="483" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="192"/>
       <c r="B483" s="192"/>
       <c r="C483" s="192"/>
@@ -24100,7 +24109,7 @@
       <c r="V483" s="182"/>
       <c r="W483" s="118"/>
     </row>
-    <row r="484" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="199"/>
       <c r="B484" s="199"/>
       <c r="C484" s="199"/>
@@ -24115,7 +24124,7 @@
       <c r="V484" s="148"/>
       <c r="W484" s="118"/>
     </row>
-    <row r="485" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="199"/>
       <c r="B485" s="199"/>
       <c r="C485" s="199"/>
@@ -24130,7 +24139,7 @@
       <c r="V485" s="148"/>
       <c r="W485" s="118"/>
     </row>
-    <row r="486" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="199"/>
       <c r="B486" s="199"/>
       <c r="C486" s="199"/>
@@ -24145,7 +24154,7 @@
       <c r="V486" s="148"/>
       <c r="W486" s="118"/>
     </row>
-    <row r="487" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="199"/>
       <c r="B487" s="199"/>
       <c r="C487" s="199"/>
@@ -24160,7 +24169,7 @@
       <c r="V487" s="148"/>
       <c r="W487" s="118"/>
     </row>
-    <row r="488" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="199"/>
       <c r="B488" s="199"/>
       <c r="C488" s="199"/>
@@ -24175,7 +24184,7 @@
       <c r="V488" s="148"/>
       <c r="W488" s="118"/>
     </row>
-    <row r="489" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="199"/>
       <c r="B489" s="199"/>
       <c r="C489" s="199"/>
@@ -24190,7 +24199,7 @@
       <c r="V489" s="148"/>
       <c r="W489" s="118"/>
     </row>
-    <row r="490" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="199"/>
       <c r="B490" s="199"/>
       <c r="C490" s="199"/>
@@ -24205,7 +24214,7 @@
       <c r="V490" s="148"/>
       <c r="W490" s="118"/>
     </row>
-    <row r="491" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="199"/>
       <c r="B491" s="199"/>
       <c r="C491" s="199"/>
@@ -24220,7 +24229,7 @@
       <c r="V491" s="148"/>
       <c r="W491" s="118"/>
     </row>
-    <row r="492" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="199"/>
       <c r="B492" s="199"/>
       <c r="C492" s="199"/>
@@ -24235,7 +24244,7 @@
       <c r="V492" s="148"/>
       <c r="W492" s="118"/>
     </row>
-    <row r="493" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="199"/>
       <c r="B493" s="199"/>
       <c r="C493" s="199"/>
@@ -24250,7 +24259,7 @@
       <c r="V493" s="148"/>
       <c r="W493" s="118"/>
     </row>
-    <row r="494" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="199"/>
       <c r="B494" s="199"/>
       <c r="C494" s="199"/>
@@ -24265,7 +24274,7 @@
       <c r="V494" s="148"/>
       <c r="W494" s="118"/>
     </row>
-    <row r="495" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="199"/>
       <c r="B495" s="199"/>
       <c r="C495" s="199"/>
@@ -24280,7 +24289,7 @@
       <c r="V495" s="148"/>
       <c r="W495" s="118"/>
     </row>
-    <row r="496" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="199"/>
       <c r="B496" s="199"/>
       <c r="C496" s="199"/>
@@ -24295,7 +24304,7 @@
       <c r="V496" s="148"/>
       <c r="W496" s="118"/>
     </row>
-    <row r="497" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="199"/>
       <c r="B497" s="199"/>
       <c r="C497" s="199"/>
@@ -24310,7 +24319,7 @@
       <c r="V497" s="148"/>
       <c r="W497" s="118"/>
     </row>
-    <row r="498" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="199"/>
       <c r="B498" s="199"/>
       <c r="C498" s="199"/>
@@ -24325,7 +24334,7 @@
       <c r="V498" s="148"/>
       <c r="W498" s="118"/>
     </row>
-    <row r="499" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="199"/>
       <c r="B499" s="199"/>
       <c r="C499" s="199"/>
@@ -24340,7 +24349,7 @@
       <c r="V499" s="148"/>
       <c r="W499" s="118"/>
     </row>
-    <row r="500" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="199"/>
       <c r="B500" s="199"/>
       <c r="C500" s="199"/>
@@ -24355,7 +24364,7 @@
       <c r="V500" s="148"/>
       <c r="W500" s="118"/>
     </row>
-    <row r="501" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="199"/>
       <c r="B501" s="199"/>
       <c r="C501" s="199"/>
@@ -24370,7 +24379,7 @@
       <c r="V501" s="148"/>
       <c r="W501" s="118"/>
     </row>
-    <row r="502" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="199"/>
       <c r="B502" s="199"/>
       <c r="C502" s="199"/>
@@ -24385,7 +24394,7 @@
       <c r="V502" s="148"/>
       <c r="W502" s="118"/>
     </row>
-    <row r="503" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="199"/>
       <c r="B503" s="199"/>
       <c r="C503" s="199"/>
@@ -24400,7 +24409,7 @@
       <c r="V503" s="148"/>
       <c r="W503" s="118"/>
     </row>
-    <row r="504" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="199"/>
       <c r="B504" s="199"/>
       <c r="C504" s="199"/>
@@ -24415,7 +24424,7 @@
       <c r="V504" s="148"/>
       <c r="W504" s="118"/>
     </row>
-    <row r="505" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="199"/>
       <c r="B505" s="199"/>
       <c r="C505" s="199"/>
@@ -24430,7 +24439,7 @@
       <c r="V505" s="148"/>
       <c r="W505" s="118"/>
     </row>
-    <row r="506" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="199"/>
       <c r="B506" s="199"/>
       <c r="C506" s="199"/>
@@ -24445,7 +24454,7 @@
       <c r="V506" s="148"/>
       <c r="W506" s="118"/>
     </row>
-    <row r="507" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="199"/>
       <c r="B507" s="199"/>
       <c r="C507" s="199"/>
@@ -24460,7 +24469,7 @@
       <c r="V507" s="148"/>
       <c r="W507" s="118"/>
     </row>
-    <row r="508" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="199"/>
       <c r="B508" s="199"/>
       <c r="C508" s="199"/>
@@ -24475,7 +24484,7 @@
       <c r="V508" s="148"/>
       <c r="W508" s="118"/>
     </row>
-    <row r="509" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="199"/>
       <c r="B509" s="199"/>
       <c r="C509" s="199"/>
@@ -24490,7 +24499,7 @@
       <c r="V509" s="148"/>
       <c r="W509" s="118"/>
     </row>
-    <row r="510" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="199"/>
       <c r="B510" s="199"/>
       <c r="C510" s="199"/>
@@ -24505,7 +24514,7 @@
       <c r="V510" s="148"/>
       <c r="W510" s="118"/>
     </row>
-    <row r="511" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="199"/>
       <c r="B511" s="199"/>
       <c r="C511" s="199"/>
@@ -24520,7 +24529,7 @@
       <c r="V511" s="148"/>
       <c r="W511" s="118"/>
     </row>
-    <row r="512" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="199"/>
       <c r="B512" s="199"/>
       <c r="C512" s="199"/>
@@ -24535,7 +24544,7 @@
       <c r="V512" s="148"/>
       <c r="W512" s="118"/>
     </row>
-    <row r="513" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="199"/>
       <c r="B513" s="199"/>
       <c r="C513" s="199"/>
@@ -24550,7 +24559,7 @@
       <c r="V513" s="148"/>
       <c r="W513" s="118"/>
     </row>
-    <row r="514" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="199"/>
       <c r="B514" s="199"/>
       <c r="C514" s="199"/>
@@ -24565,7 +24574,7 @@
       <c r="V514" s="148"/>
       <c r="W514" s="118"/>
     </row>
-    <row r="515" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="199"/>
       <c r="B515" s="199"/>
       <c r="C515" s="199"/>
@@ -24580,7 +24589,7 @@
       <c r="V515" s="148"/>
       <c r="W515" s="118"/>
     </row>
-    <row r="516" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="199"/>
       <c r="B516" s="199"/>
       <c r="C516" s="199"/>
@@ -24595,7 +24604,7 @@
       <c r="V516" s="148"/>
       <c r="W516" s="118"/>
     </row>
-    <row r="517" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="199"/>
       <c r="B517" s="199"/>
       <c r="C517" s="199"/>
@@ -24610,7 +24619,7 @@
       <c r="V517" s="148"/>
       <c r="W517" s="118"/>
     </row>
-    <row r="518" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="199"/>
       <c r="B518" s="199"/>
       <c r="C518" s="199"/>
@@ -24625,7 +24634,7 @@
       <c r="V518" s="148"/>
       <c r="W518" s="118"/>
     </row>
-    <row r="519" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="199"/>
       <c r="B519" s="199"/>
       <c r="C519" s="199"/>
@@ -24640,7 +24649,7 @@
       <c r="V519" s="148"/>
       <c r="W519" s="118"/>
     </row>
-    <row r="520" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="199"/>
       <c r="B520" s="199"/>
       <c r="C520" s="199"/>
@@ -24655,7 +24664,7 @@
       <c r="V520" s="148"/>
       <c r="W520" s="118"/>
     </row>
-    <row r="521" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="199"/>
       <c r="B521" s="199"/>
       <c r="C521" s="199"/>
@@ -24670,7 +24679,7 @@
       <c r="V521" s="148"/>
       <c r="W521" s="118"/>
     </row>
-    <row r="522" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="199"/>
       <c r="B522" s="199"/>
       <c r="C522" s="199"/>
@@ -24685,7 +24694,7 @@
       <c r="V522" s="148"/>
       <c r="W522" s="118"/>
     </row>
-    <row r="523" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="199"/>
       <c r="B523" s="199"/>
       <c r="C523" s="199"/>
@@ -24700,7 +24709,7 @@
       <c r="V523" s="148"/>
       <c r="W523" s="118"/>
     </row>
-    <row r="524" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="199"/>
       <c r="B524" s="199"/>
       <c r="C524" s="199"/>
@@ -24715,7 +24724,7 @@
       <c r="V524" s="148"/>
       <c r="W524" s="118"/>
     </row>
-    <row r="525" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="199"/>
       <c r="B525" s="199"/>
       <c r="C525" s="199"/>
@@ -24730,7 +24739,7 @@
       <c r="V525" s="148"/>
       <c r="W525" s="118"/>
     </row>
-    <row r="526" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="199"/>
       <c r="B526" s="199"/>
       <c r="C526" s="199"/>
@@ -24745,7 +24754,7 @@
       <c r="V526" s="148"/>
       <c r="W526" s="118"/>
     </row>
-    <row r="527" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="199"/>
       <c r="B527" s="199"/>
       <c r="C527" s="199"/>
@@ -24760,7 +24769,7 @@
       <c r="V527" s="148"/>
       <c r="W527" s="118"/>
     </row>
-    <row r="528" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="199"/>
       <c r="B528" s="199"/>
       <c r="C528" s="199"/>
@@ -24775,7 +24784,7 @@
       <c r="V528" s="148"/>
       <c r="W528" s="118"/>
     </row>
-    <row r="529" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="199"/>
       <c r="B529" s="199"/>
       <c r="C529" s="199"/>
@@ -24790,7 +24799,7 @@
       <c r="V529" s="148"/>
       <c r="W529" s="118"/>
     </row>
-    <row r="530" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="199"/>
       <c r="B530" s="199"/>
       <c r="C530" s="199"/>
@@ -24805,7 +24814,7 @@
       <c r="V530" s="148"/>
       <c r="W530" s="118"/>
     </row>
-    <row r="531" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="199"/>
       <c r="B531" s="199"/>
       <c r="C531" s="199"/>
@@ -24820,7 +24829,7 @@
       <c r="V531" s="148"/>
       <c r="W531" s="118"/>
     </row>
-    <row r="532" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="199"/>
       <c r="B532" s="199"/>
       <c r="C532" s="199"/>
@@ -24835,7 +24844,7 @@
       <c r="V532" s="148"/>
       <c r="W532" s="118"/>
     </row>
-    <row r="533" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="199"/>
       <c r="B533" s="199"/>
       <c r="C533" s="199"/>
@@ -24850,7 +24859,7 @@
       <c r="V533" s="148"/>
       <c r="W533" s="118"/>
     </row>
-    <row r="534" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="199"/>
       <c r="B534" s="199"/>
       <c r="C534" s="199"/>
@@ -24865,7 +24874,7 @@
       <c r="V534" s="148"/>
       <c r="W534" s="118"/>
     </row>
-    <row r="535" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="199"/>
       <c r="B535" s="199"/>
       <c r="C535" s="199"/>
@@ -24880,7 +24889,7 @@
       <c r="V535" s="148"/>
       <c r="W535" s="118"/>
     </row>
-    <row r="536" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="199"/>
       <c r="B536" s="199"/>
       <c r="C536" s="199"/>
@@ -24895,7 +24904,7 @@
       <c r="V536" s="148"/>
       <c r="W536" s="118"/>
     </row>
-    <row r="537" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="199"/>
       <c r="B537" s="199"/>
       <c r="C537" s="199"/>
@@ -24910,7 +24919,7 @@
       <c r="V537" s="148"/>
       <c r="W537" s="118"/>
     </row>
-    <row r="538" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="199"/>
       <c r="B538" s="199"/>
       <c r="C538" s="199"/>
@@ -24925,7 +24934,7 @@
       <c r="V538" s="148"/>
       <c r="W538" s="118"/>
     </row>
-    <row r="539" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="199"/>
       <c r="B539" s="199"/>
       <c r="C539" s="199"/>
@@ -24940,7 +24949,7 @@
       <c r="V539" s="148"/>
       <c r="W539" s="118"/>
     </row>
-    <row r="540" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="199"/>
       <c r="B540" s="199"/>
       <c r="C540" s="199"/>
@@ -24955,7 +24964,7 @@
       <c r="V540" s="148"/>
       <c r="W540" s="118"/>
     </row>
-    <row r="541" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="199"/>
       <c r="B541" s="199"/>
       <c r="C541" s="199"/>
@@ -24970,7 +24979,7 @@
       <c r="V541" s="148"/>
       <c r="W541" s="118"/>
     </row>
-    <row r="542" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="199"/>
       <c r="B542" s="199"/>
       <c r="C542" s="199"/>
@@ -24985,7 +24994,7 @@
       <c r="V542" s="148"/>
       <c r="W542" s="118"/>
     </row>
-    <row r="543" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="199"/>
       <c r="B543" s="199"/>
       <c r="C543" s="199"/>
@@ -25000,7 +25009,7 @@
       <c r="V543" s="148"/>
       <c r="W543" s="118"/>
     </row>
-    <row r="544" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="199"/>
       <c r="B544" s="199"/>
       <c r="C544" s="199"/>
@@ -25015,7 +25024,7 @@
       <c r="V544" s="148"/>
       <c r="W544" s="118"/>
     </row>
-    <row r="545" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="199"/>
       <c r="B545" s="199"/>
       <c r="C545" s="199"/>
@@ -25030,7 +25039,7 @@
       <c r="V545" s="148"/>
       <c r="W545" s="118"/>
     </row>
-    <row r="546" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="199"/>
       <c r="B546" s="199"/>
       <c r="C546" s="199"/>
@@ -25045,7 +25054,7 @@
       <c r="V546" s="148"/>
       <c r="W546" s="118"/>
     </row>
-    <row r="547" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="199"/>
       <c r="B547" s="199"/>
       <c r="C547" s="199"/>
@@ -25060,7 +25069,7 @@
       <c r="V547" s="148"/>
       <c r="W547" s="118"/>
     </row>
-    <row r="548" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="199"/>
       <c r="B548" s="199"/>
       <c r="C548" s="199"/>
@@ -25075,7 +25084,7 @@
       <c r="V548" s="148"/>
       <c r="W548" s="118"/>
     </row>
-    <row r="549" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="199"/>
       <c r="B549" s="199"/>
       <c r="C549" s="199"/>
@@ -25090,7 +25099,7 @@
       <c r="V549" s="148"/>
       <c r="W549" s="118"/>
     </row>
-    <row r="550" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="199"/>
       <c r="B550" s="199"/>
       <c r="C550" s="199"/>
@@ -25105,7 +25114,7 @@
       <c r="V550" s="148"/>
       <c r="W550" s="118"/>
     </row>
-    <row r="551" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="199"/>
       <c r="B551" s="199"/>
       <c r="C551" s="199"/>
@@ -25120,7 +25129,7 @@
       <c r="V551" s="148"/>
       <c r="W551" s="118"/>
     </row>
-    <row r="552" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="199"/>
       <c r="B552" s="199"/>
       <c r="C552" s="199"/>
@@ -25135,7 +25144,7 @@
       <c r="V552" s="148"/>
       <c r="W552" s="118"/>
     </row>
-    <row r="553" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="199"/>
       <c r="B553" s="199"/>
       <c r="C553" s="199"/>
@@ -25150,7 +25159,7 @@
       <c r="V553" s="148"/>
       <c r="W553" s="118"/>
     </row>
-    <row r="554" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="199"/>
       <c r="B554" s="199"/>
       <c r="C554" s="199"/>
@@ -25165,7 +25174,7 @@
       <c r="V554" s="148"/>
       <c r="W554" s="118"/>
     </row>
-    <row r="555" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="199"/>
       <c r="B555" s="199"/>
       <c r="C555" s="199"/>
@@ -25180,7 +25189,7 @@
       <c r="V555" s="148"/>
       <c r="W555" s="118"/>
     </row>
-    <row r="556" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="199"/>
       <c r="B556" s="199"/>
       <c r="C556" s="199"/>
@@ -25195,7 +25204,7 @@
       <c r="V556" s="148"/>
       <c r="W556" s="118"/>
     </row>
-    <row r="557" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="199"/>
       <c r="B557" s="199"/>
       <c r="C557" s="199"/>
@@ -25210,7 +25219,7 @@
       <c r="V557" s="148"/>
       <c r="W557" s="118"/>
     </row>
-    <row r="558" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="199"/>
       <c r="B558" s="199"/>
       <c r="C558" s="199"/>
@@ -25225,7 +25234,7 @@
       <c r="V558" s="148"/>
       <c r="W558" s="118"/>
     </row>
-    <row r="559" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="199"/>
       <c r="B559" s="199"/>
       <c r="C559" s="199"/>
@@ -25240,7 +25249,7 @@
       <c r="V559" s="148"/>
       <c r="W559" s="118"/>
     </row>
-    <row r="560" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="199"/>
       <c r="B560" s="199"/>
       <c r="C560" s="199"/>
@@ -25255,7 +25264,7 @@
       <c r="V560" s="148"/>
       <c r="W560" s="118"/>
     </row>
-    <row r="561" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="199"/>
       <c r="B561" s="199"/>
       <c r="C561" s="199"/>
@@ -25270,7 +25279,7 @@
       <c r="V561" s="148"/>
       <c r="W561" s="118"/>
     </row>
-    <row r="562" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="199"/>
       <c r="B562" s="199"/>
       <c r="C562" s="199"/>
@@ -25285,7 +25294,7 @@
       <c r="V562" s="148"/>
       <c r="W562" s="118"/>
     </row>
-    <row r="563" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="199"/>
       <c r="B563" s="199"/>
       <c r="C563" s="199"/>
@@ -25300,7 +25309,7 @@
       <c r="V563" s="148"/>
       <c r="W563" s="118"/>
     </row>
-    <row r="564" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="199"/>
       <c r="B564" s="199"/>
       <c r="C564" s="199"/>
@@ -25315,7 +25324,7 @@
       <c r="V564" s="148"/>
       <c r="W564" s="118"/>
     </row>
-    <row r="565" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="199"/>
       <c r="B565" s="199"/>
       <c r="C565" s="199"/>
@@ -25330,7 +25339,7 @@
       <c r="V565" s="148"/>
       <c r="W565" s="118"/>
     </row>
-    <row r="566" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="199"/>
       <c r="B566" s="199"/>
       <c r="C566" s="199"/>
@@ -25345,7 +25354,7 @@
       <c r="V566" s="148"/>
       <c r="W566" s="118"/>
     </row>
-    <row r="567" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="199"/>
       <c r="B567" s="199"/>
       <c r="C567" s="199"/>
@@ -25360,7 +25369,7 @@
       <c r="V567" s="148"/>
       <c r="W567" s="118"/>
     </row>
-    <row r="568" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="199"/>
       <c r="B568" s="199"/>
       <c r="C568" s="199"/>
@@ -25375,7 +25384,7 @@
       <c r="V568" s="148"/>
       <c r="W568" s="118"/>
     </row>
-    <row r="569" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="199"/>
       <c r="B569" s="199"/>
       <c r="C569" s="199"/>
@@ -25390,7 +25399,7 @@
       <c r="V569" s="148"/>
       <c r="W569" s="118"/>
     </row>
-    <row r="570" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="199"/>
       <c r="B570" s="199"/>
       <c r="C570" s="199"/>
@@ -25405,7 +25414,7 @@
       <c r="V570" s="148"/>
       <c r="W570" s="118"/>
     </row>
-    <row r="571" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="199"/>
       <c r="B571" s="199"/>
       <c r="C571" s="199"/>
@@ -25420,7 +25429,7 @@
       <c r="V571" s="148"/>
       <c r="W571" s="118"/>
     </row>
-    <row r="572" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="199"/>
       <c r="B572" s="199"/>
       <c r="C572" s="199"/>
@@ -25435,7 +25444,7 @@
       <c r="V572" s="148"/>
       <c r="W572" s="118"/>
     </row>
-    <row r="573" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="199"/>
       <c r="B573" s="199"/>
       <c r="C573" s="199"/>
@@ -25450,7 +25459,7 @@
       <c r="V573" s="148"/>
       <c r="W573" s="118"/>
     </row>
-    <row r="574" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="199"/>
       <c r="B574" s="199"/>
       <c r="C574" s="199"/>
@@ -25465,7 +25474,7 @@
       <c r="V574" s="148"/>
       <c r="W574" s="118"/>
     </row>
-    <row r="575" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="199"/>
       <c r="B575" s="199"/>
       <c r="C575" s="199"/>
@@ -25480,7 +25489,7 @@
       <c r="V575" s="148"/>
       <c r="W575" s="118"/>
     </row>
-    <row r="576" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="199"/>
       <c r="B576" s="199"/>
       <c r="C576" s="199"/>
@@ -25495,7 +25504,7 @@
       <c r="V576" s="148"/>
       <c r="W576" s="118"/>
     </row>
-    <row r="577" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="199"/>
       <c r="B577" s="199"/>
       <c r="C577" s="199"/>
@@ -25510,7 +25519,7 @@
       <c r="V577" s="148"/>
       <c r="W577" s="118"/>
     </row>
-    <row r="578" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="199"/>
       <c r="B578" s="199"/>
       <c r="C578" s="199"/>
@@ -25525,7 +25534,7 @@
       <c r="V578" s="148"/>
       <c r="W578" s="118"/>
     </row>
-    <row r="579" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="199"/>
       <c r="B579" s="199"/>
       <c r="C579" s="199"/>
@@ -25540,7 +25549,7 @@
       <c r="V579" s="148"/>
       <c r="W579" s="118"/>
     </row>
-    <row r="580" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="199"/>
       <c r="B580" s="199"/>
       <c r="C580" s="199"/>
@@ -25555,7 +25564,7 @@
       <c r="V580" s="148"/>
       <c r="W580" s="118"/>
     </row>
-    <row r="581" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="199"/>
       <c r="B581" s="199"/>
       <c r="C581" s="199"/>
@@ -25570,7 +25579,7 @@
       <c r="V581" s="148"/>
       <c r="W581" s="118"/>
     </row>
-    <row r="582" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="199"/>
       <c r="B582" s="199"/>
       <c r="C582" s="199"/>
@@ -25585,7 +25594,7 @@
       <c r="V582" s="148"/>
       <c r="W582" s="118"/>
     </row>
-    <row r="583" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="199"/>
       <c r="B583" s="199"/>
       <c r="C583" s="199"/>
@@ -25600,7 +25609,7 @@
       <c r="V583" s="148"/>
       <c r="W583" s="118"/>
     </row>
-    <row r="584" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="199"/>
       <c r="B584" s="199"/>
       <c r="C584" s="199"/>
@@ -25615,7 +25624,7 @@
       <c r="V584" s="148"/>
       <c r="W584" s="118"/>
     </row>
-    <row r="585" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="199"/>
       <c r="B585" s="199"/>
       <c r="C585" s="199"/>
@@ -25630,7 +25639,7 @@
       <c r="V585" s="148"/>
       <c r="W585" s="118"/>
     </row>
-    <row r="586" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="199"/>
       <c r="B586" s="199"/>
       <c r="C586" s="199"/>
@@ -25645,7 +25654,7 @@
       <c r="V586" s="148"/>
       <c r="W586" s="118"/>
     </row>
-    <row r="587" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="199"/>
       <c r="B587" s="199"/>
       <c r="C587" s="199"/>
@@ -25660,7 +25669,7 @@
       <c r="V587" s="148"/>
       <c r="W587" s="118"/>
     </row>
-    <row r="588" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="199"/>
       <c r="B588" s="199"/>
       <c r="C588" s="199"/>
@@ -25675,7 +25684,7 @@
       <c r="V588" s="148"/>
       <c r="W588" s="118"/>
     </row>
-    <row r="589" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="199"/>
       <c r="B589" s="199"/>
       <c r="C589" s="199"/>
@@ -25690,7 +25699,7 @@
       <c r="V589" s="148"/>
       <c r="W589" s="118"/>
     </row>
-    <row r="590" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="199"/>
       <c r="B590" s="199"/>
       <c r="C590" s="199"/>
@@ -25705,7 +25714,7 @@
       <c r="V590" s="148"/>
       <c r="W590" s="118"/>
     </row>
-    <row r="591" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="199"/>
       <c r="B591" s="199"/>
       <c r="C591" s="199"/>
@@ -25720,7 +25729,7 @@
       <c r="V591" s="148"/>
       <c r="W591" s="118"/>
     </row>
-    <row r="592" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="199"/>
       <c r="B592" s="199"/>
       <c r="C592" s="199"/>
@@ -25735,7 +25744,7 @@
       <c r="V592" s="148"/>
       <c r="W592" s="118"/>
     </row>
-    <row r="593" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="199"/>
       <c r="B593" s="199"/>
       <c r="C593" s="199"/>
@@ -25750,7 +25759,7 @@
       <c r="V593" s="148"/>
       <c r="W593" s="118"/>
     </row>
-    <row r="594" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="199"/>
       <c r="B594" s="199"/>
       <c r="C594" s="199"/>
@@ -25765,7 +25774,7 @@
       <c r="V594" s="148"/>
       <c r="W594" s="118"/>
     </row>
-    <row r="595" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="199"/>
       <c r="B595" s="199"/>
       <c r="C595" s="199"/>
@@ -25780,7 +25789,7 @@
       <c r="V595" s="148"/>
       <c r="W595" s="118"/>
     </row>
-    <row r="596" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="199"/>
       <c r="B596" s="199"/>
       <c r="C596" s="199"/>
@@ -25795,7 +25804,7 @@
       <c r="V596" s="148"/>
       <c r="W596" s="118"/>
     </row>
-    <row r="597" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="199"/>
       <c r="B597" s="199"/>
       <c r="C597" s="199"/>
@@ -25810,7 +25819,7 @@
       <c r="V597" s="148"/>
       <c r="W597" s="118"/>
     </row>
-    <row r="598" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="199"/>
       <c r="B598" s="199"/>
       <c r="C598" s="199"/>
@@ -25825,7 +25834,7 @@
       <c r="V598" s="148"/>
       <c r="W598" s="118"/>
     </row>
-    <row r="599" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="199"/>
       <c r="B599" s="199"/>
       <c r="C599" s="199"/>
@@ -25840,7 +25849,7 @@
       <c r="V599" s="148"/>
       <c r="W599" s="118"/>
     </row>
-    <row r="600" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="199"/>
       <c r="B600" s="199"/>
       <c r="C600" s="199"/>
@@ -25855,7 +25864,7 @@
       <c r="V600" s="148"/>
       <c r="W600" s="118"/>
     </row>
-    <row r="601" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="199"/>
       <c r="B601" s="199"/>
       <c r="C601" s="199"/>
@@ -25870,7 +25879,7 @@
       <c r="V601" s="148"/>
       <c r="W601" s="118"/>
     </row>
-    <row r="602" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="199"/>
       <c r="B602" s="199"/>
       <c r="C602" s="199"/>
@@ -25885,7 +25894,7 @@
       <c r="V602" s="148"/>
       <c r="W602" s="118"/>
     </row>
-    <row r="603" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="199"/>
       <c r="B603" s="199"/>
       <c r="C603" s="199"/>
@@ -25900,7 +25909,7 @@
       <c r="V603" s="148"/>
       <c r="W603" s="118"/>
     </row>
-    <row r="604" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="199"/>
       <c r="B604" s="199"/>
       <c r="C604" s="199"/>
@@ -25915,7 +25924,7 @@
       <c r="V604" s="148"/>
       <c r="W604" s="118"/>
     </row>
-    <row r="605" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="199"/>
       <c r="B605" s="199"/>
       <c r="C605" s="199"/>
@@ -25930,7 +25939,7 @@
       <c r="V605" s="148"/>
       <c r="W605" s="118"/>
     </row>
-    <row r="606" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="199"/>
       <c r="B606" s="199"/>
       <c r="C606" s="199"/>
@@ -25945,7 +25954,7 @@
       <c r="V606" s="148"/>
       <c r="W606" s="118"/>
     </row>
-    <row r="607" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="199"/>
       <c r="B607" s="199"/>
       <c r="C607" s="199"/>
@@ -25960,7 +25969,7 @@
       <c r="V607" s="148"/>
       <c r="W607" s="118"/>
     </row>
-    <row r="608" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="199"/>
       <c r="B608" s="199"/>
       <c r="C608" s="199"/>
@@ -25975,7 +25984,7 @@
       <c r="V608" s="148"/>
       <c r="W608" s="118"/>
     </row>
-    <row r="609" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="199"/>
       <c r="B609" s="199"/>
       <c r="C609" s="199"/>
@@ -25990,7 +25999,7 @@
       <c r="V609" s="148"/>
       <c r="W609" s="118"/>
     </row>
-    <row r="610" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="199"/>
       <c r="B610" s="199"/>
       <c r="C610" s="199"/>
@@ -26005,7 +26014,7 @@
       <c r="V610" s="148"/>
       <c r="W610" s="118"/>
     </row>
-    <row r="611" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="199"/>
       <c r="B611" s="199"/>
       <c r="C611" s="199"/>
@@ -26020,7 +26029,7 @@
       <c r="V611" s="148"/>
       <c r="W611" s="118"/>
     </row>
-    <row r="612" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="199"/>
       <c r="B612" s="199"/>
       <c r="C612" s="199"/>
@@ -26035,7 +26044,7 @@
       <c r="V612" s="148"/>
       <c r="W612" s="118"/>
     </row>
-    <row r="613" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="199"/>
       <c r="B613" s="199"/>
       <c r="C613" s="199"/>
@@ -26050,7 +26059,7 @@
       <c r="V613" s="148"/>
       <c r="W613" s="118"/>
     </row>
-    <row r="614" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="199"/>
       <c r="B614" s="199"/>
       <c r="C614" s="199"/>
@@ -26065,7 +26074,7 @@
       <c r="V614" s="148"/>
       <c r="W614" s="118"/>
     </row>
-    <row r="615" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="199"/>
       <c r="B615" s="199"/>
       <c r="C615" s="199"/>
@@ -26080,7 +26089,7 @@
       <c r="V615" s="148"/>
       <c r="W615" s="118"/>
     </row>
-    <row r="616" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="199"/>
       <c r="B616" s="199"/>
       <c r="C616" s="199"/>
@@ -26095,7 +26104,7 @@
       <c r="V616" s="148"/>
       <c r="W616" s="118"/>
     </row>
-    <row r="617" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="199"/>
       <c r="B617" s="199"/>
       <c r="C617" s="199"/>
@@ -26110,7 +26119,7 @@
       <c r="V617" s="148"/>
       <c r="W617" s="118"/>
     </row>
-    <row r="618" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="199"/>
       <c r="B618" s="199"/>
       <c r="C618" s="199"/>
@@ -26125,7 +26134,7 @@
       <c r="V618" s="148"/>
       <c r="W618" s="118"/>
     </row>
-    <row r="619" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="199"/>
       <c r="B619" s="199"/>
       <c r="C619" s="199"/>
@@ -26140,7 +26149,7 @@
       <c r="V619" s="148"/>
       <c r="W619" s="118"/>
     </row>
-    <row r="620" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="199"/>
       <c r="B620" s="199"/>
       <c r="C620" s="199"/>
@@ -26155,7 +26164,7 @@
       <c r="V620" s="148"/>
       <c r="W620" s="118"/>
     </row>
-    <row r="621" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="199"/>
       <c r="B621" s="199"/>
       <c r="C621" s="199"/>
@@ -26170,7 +26179,7 @@
       <c r="V621" s="148"/>
       <c r="W621" s="118"/>
     </row>
-    <row r="622" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="199"/>
       <c r="B622" s="199"/>
       <c r="C622" s="199"/>
@@ -26185,7 +26194,7 @@
       <c r="V622" s="148"/>
       <c r="W622" s="118"/>
     </row>
-    <row r="623" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="199"/>
       <c r="B623" s="199"/>
       <c r="C623" s="199"/>
@@ -26200,7 +26209,7 @@
       <c r="V623" s="148"/>
       <c r="W623" s="118"/>
     </row>
-    <row r="624" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="199"/>
       <c r="B624" s="199"/>
       <c r="C624" s="199"/>
@@ -26215,7 +26224,7 @@
       <c r="V624" s="148"/>
       <c r="W624" s="118"/>
     </row>
-    <row r="625" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="199"/>
       <c r="B625" s="199"/>
       <c r="C625" s="199"/>
@@ -26230,7 +26239,7 @@
       <c r="V625" s="148"/>
       <c r="W625" s="118"/>
     </row>
-    <row r="626" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="199"/>
       <c r="B626" s="199"/>
       <c r="C626" s="199"/>
@@ -26245,7 +26254,7 @@
       <c r="V626" s="148"/>
       <c r="W626" s="118"/>
     </row>
-    <row r="627" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="199"/>
       <c r="B627" s="199"/>
       <c r="C627" s="199"/>
@@ -26260,7 +26269,7 @@
       <c r="V627" s="148"/>
       <c r="W627" s="118"/>
     </row>
-    <row r="628" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="199"/>
       <c r="B628" s="199"/>
       <c r="C628" s="199"/>
@@ -26275,7 +26284,7 @@
       <c r="V628" s="148"/>
       <c r="W628" s="118"/>
     </row>
-    <row r="629" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="199"/>
       <c r="B629" s="199"/>
       <c r="C629" s="199"/>
@@ -26290,7 +26299,7 @@
       <c r="V629" s="148"/>
       <c r="W629" s="118"/>
     </row>
-    <row r="630" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="199"/>
       <c r="B630" s="199"/>
       <c r="C630" s="199"/>
@@ -26305,7 +26314,7 @@
       <c r="V630" s="148"/>
       <c r="W630" s="118"/>
     </row>
-    <row r="631" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="199"/>
       <c r="B631" s="199"/>
       <c r="C631" s="199"/>
@@ -26320,7 +26329,7 @@
       <c r="V631" s="148"/>
       <c r="W631" s="118"/>
     </row>
-    <row r="632" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="199"/>
       <c r="B632" s="199"/>
       <c r="C632" s="199"/>
@@ -26335,7 +26344,7 @@
       <c r="V632" s="148"/>
       <c r="W632" s="118"/>
     </row>
-    <row r="633" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="199"/>
       <c r="B633" s="199"/>
       <c r="C633" s="199"/>
@@ -26350,7 +26359,7 @@
       <c r="V633" s="148"/>
       <c r="W633" s="118"/>
     </row>
-    <row r="634" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="199"/>
       <c r="B634" s="199"/>
       <c r="C634" s="199"/>
@@ -26365,7 +26374,7 @@
       <c r="V634" s="148"/>
       <c r="W634" s="118"/>
     </row>
-    <row r="635" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="199"/>
       <c r="B635" s="199"/>
       <c r="C635" s="199"/>
@@ -26380,7 +26389,7 @@
       <c r="V635" s="148"/>
       <c r="W635" s="118"/>
     </row>
-    <row r="636" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="199"/>
       <c r="B636" s="199"/>
       <c r="C636" s="199"/>
@@ -26395,7 +26404,7 @@
       <c r="V636" s="148"/>
       <c r="W636" s="118"/>
     </row>
-    <row r="637" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="199"/>
       <c r="B637" s="199"/>
       <c r="C637" s="199"/>
@@ -26410,7 +26419,7 @@
       <c r="V637" s="148"/>
       <c r="W637" s="118"/>
     </row>
-    <row r="638" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="199"/>
       <c r="B638" s="199"/>
       <c r="C638" s="199"/>
@@ -26425,7 +26434,7 @@
       <c r="V638" s="148"/>
       <c r="W638" s="118"/>
     </row>
-    <row r="639" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="199"/>
       <c r="B639" s="199"/>
       <c r="C639" s="199"/>
@@ -26440,7 +26449,7 @@
       <c r="V639" s="148"/>
       <c r="W639" s="118"/>
     </row>
-    <row r="640" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="199"/>
       <c r="B640" s="199"/>
       <c r="C640" s="199"/>
@@ -26455,7 +26464,7 @@
       <c r="V640" s="148"/>
       <c r="W640" s="118"/>
     </row>
-    <row r="641" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="199"/>
       <c r="B641" s="199"/>
       <c r="C641" s="199"/>
@@ -26470,7 +26479,7 @@
       <c r="V641" s="148"/>
       <c r="W641" s="118"/>
     </row>
-    <row r="642" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="199"/>
       <c r="B642" s="199"/>
       <c r="C642" s="199"/>
@@ -26485,7 +26494,7 @@
       <c r="V642" s="148"/>
       <c r="W642" s="118"/>
     </row>
-    <row r="643" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="199"/>
       <c r="B643" s="199"/>
       <c r="C643" s="199"/>
@@ -26500,7 +26509,7 @@
       <c r="V643" s="148"/>
       <c r="W643" s="118"/>
     </row>
-    <row r="644" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="199"/>
       <c r="B644" s="199"/>
       <c r="C644" s="199"/>
@@ -26515,7 +26524,7 @@
       <c r="V644" s="148"/>
       <c r="W644" s="118"/>
     </row>
-    <row r="645" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="199"/>
       <c r="B645" s="199"/>
       <c r="C645" s="199"/>
@@ -26530,7 +26539,7 @@
       <c r="V645" s="148"/>
       <c r="W645" s="118"/>
     </row>
-    <row r="646" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="199"/>
       <c r="B646" s="199"/>
       <c r="C646" s="199"/>
@@ -26545,7 +26554,7 @@
       <c r="V646" s="148"/>
       <c r="W646" s="118"/>
     </row>
-    <row r="647" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="199"/>
       <c r="B647" s="199"/>
       <c r="C647" s="199"/>
@@ -26560,7 +26569,7 @@
       <c r="V647" s="148"/>
       <c r="W647" s="118"/>
     </row>
-    <row r="648" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="199"/>
       <c r="B648" s="199"/>
       <c r="C648" s="199"/>
@@ -26575,7 +26584,7 @@
       <c r="V648" s="148"/>
       <c r="W648" s="118"/>
     </row>
-    <row r="649" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="199"/>
       <c r="B649" s="199"/>
       <c r="C649" s="199"/>
@@ -26590,7 +26599,7 @@
       <c r="V649" s="148"/>
       <c r="W649" s="118"/>
     </row>
-    <row r="650" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="199"/>
       <c r="B650" s="199"/>
       <c r="C650" s="199"/>
@@ -26605,7 +26614,7 @@
       <c r="V650" s="148"/>
       <c r="W650" s="118"/>
     </row>
-    <row r="651" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="199"/>
       <c r="B651" s="199"/>
       <c r="C651" s="199"/>
@@ -26620,7 +26629,7 @@
       <c r="V651" s="148"/>
       <c r="W651" s="118"/>
     </row>
-    <row r="652" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="199"/>
       <c r="B652" s="199"/>
       <c r="C652" s="199"/>
@@ -26635,7 +26644,7 @@
       <c r="V652" s="148"/>
       <c r="W652" s="118"/>
     </row>
-    <row r="653" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="199"/>
       <c r="B653" s="199"/>
       <c r="C653" s="199"/>
@@ -26650,7 +26659,7 @@
       <c r="V653" s="148"/>
       <c r="W653" s="118"/>
     </row>
-    <row r="654" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="199"/>
       <c r="B654" s="199"/>
       <c r="C654" s="199"/>
@@ -26665,7 +26674,7 @@
       <c r="V654" s="148"/>
       <c r="W654" s="118"/>
     </row>
-    <row r="655" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="199"/>
       <c r="B655" s="199"/>
       <c r="C655" s="199"/>
@@ -26680,7 +26689,7 @@
       <c r="V655" s="148"/>
       <c r="W655" s="118"/>
     </row>
-    <row r="656" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="199"/>
       <c r="B656" s="199"/>
       <c r="C656" s="199"/>
@@ -26695,7 +26704,7 @@
       <c r="V656" s="148"/>
       <c r="W656" s="118"/>
     </row>
-    <row r="657" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="199"/>
       <c r="B657" s="199"/>
       <c r="C657" s="199"/>
@@ -26710,7 +26719,7 @@
       <c r="V657" s="148"/>
       <c r="W657" s="118"/>
     </row>
-    <row r="658" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="199"/>
       <c r="B658" s="199"/>
       <c r="C658" s="199"/>
@@ -26725,7 +26734,7 @@
       <c r="V658" s="148"/>
       <c r="W658" s="118"/>
     </row>
-    <row r="659" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="199"/>
       <c r="B659" s="199"/>
       <c r="C659" s="199"/>
@@ -26740,7 +26749,7 @@
       <c r="V659" s="148"/>
       <c r="W659" s="118"/>
     </row>
-    <row r="660" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="199"/>
       <c r="B660" s="199"/>
       <c r="C660" s="199"/>
@@ -26755,7 +26764,7 @@
       <c r="V660" s="148"/>
       <c r="W660" s="118"/>
     </row>
-    <row r="661" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="199"/>
       <c r="B661" s="199"/>
       <c r="C661" s="199"/>
@@ -26770,7 +26779,7 @@
       <c r="V661" s="148"/>
       <c r="W661" s="118"/>
     </row>
-    <row r="662" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="199"/>
       <c r="B662" s="199"/>
       <c r="C662" s="199"/>
@@ -26785,7 +26794,7 @@
       <c r="V662" s="148"/>
       <c r="W662" s="118"/>
     </row>
-    <row r="663" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="199"/>
       <c r="B663" s="199"/>
       <c r="C663" s="199"/>
@@ -26800,7 +26809,7 @@
       <c r="V663" s="148"/>
       <c r="W663" s="118"/>
     </row>
-    <row r="664" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="199"/>
       <c r="B664" s="199"/>
       <c r="C664" s="199"/>
@@ -26815,7 +26824,7 @@
       <c r="V664" s="148"/>
       <c r="W664" s="118"/>
     </row>
-    <row r="665" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="199"/>
       <c r="B665" s="199"/>
       <c r="C665" s="199"/>
@@ -26830,7 +26839,7 @@
       <c r="V665" s="148"/>
       <c r="W665" s="118"/>
     </row>
-    <row r="666" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="199"/>
       <c r="B666" s="199"/>
       <c r="C666" s="199"/>
@@ -26845,7 +26854,7 @@
       <c r="V666" s="148"/>
       <c r="W666" s="118"/>
     </row>
-    <row r="667" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="199"/>
       <c r="B667" s="199"/>
       <c r="C667" s="199"/>
@@ -26860,7 +26869,7 @@
       <c r="V667" s="148"/>
       <c r="W667" s="118"/>
     </row>
-    <row r="668" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="199"/>
       <c r="B668" s="199"/>
       <c r="C668" s="199"/>
@@ -26875,7 +26884,7 @@
       <c r="V668" s="148"/>
       <c r="W668" s="118"/>
     </row>
-    <row r="669" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="199"/>
       <c r="B669" s="199"/>
       <c r="C669" s="199"/>
@@ -26890,7 +26899,7 @@
       <c r="V669" s="148"/>
       <c r="W669" s="118"/>
     </row>
-    <row r="670" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="199"/>
       <c r="B670" s="199"/>
       <c r="C670" s="199"/>
@@ -26905,7 +26914,7 @@
       <c r="V670" s="148"/>
       <c r="W670" s="118"/>
     </row>
-    <row r="671" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="199"/>
       <c r="B671" s="199"/>
       <c r="C671" s="199"/>
@@ -26920,7 +26929,7 @@
       <c r="V671" s="148"/>
       <c r="W671" s="118"/>
     </row>
-    <row r="672" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="199"/>
       <c r="B672" s="199"/>
       <c r="C672" s="199"/>
@@ -26935,7 +26944,7 @@
       <c r="V672" s="148"/>
       <c r="W672" s="118"/>
     </row>
-    <row r="673" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="199"/>
       <c r="B673" s="199"/>
       <c r="C673" s="199"/>
@@ -26950,7 +26959,7 @@
       <c r="V673" s="148"/>
       <c r="W673" s="118"/>
     </row>
-    <row r="674" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="199"/>
       <c r="B674" s="199"/>
       <c r="C674" s="199"/>
@@ -26965,7 +26974,7 @@
       <c r="V674" s="148"/>
       <c r="W674" s="118"/>
     </row>
-    <row r="675" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="199"/>
       <c r="B675" s="199"/>
       <c r="C675" s="199"/>
@@ -26980,7 +26989,7 @@
       <c r="V675" s="148"/>
       <c r="W675" s="118"/>
     </row>
-    <row r="676" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="199"/>
       <c r="B676" s="199"/>
       <c r="C676" s="199"/>
@@ -26995,7 +27004,7 @@
       <c r="V676" s="148"/>
       <c r="W676" s="118"/>
     </row>
-    <row r="677" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="199"/>
       <c r="B677" s="199"/>
       <c r="C677" s="199"/>
@@ -27010,7 +27019,7 @@
       <c r="V677" s="148"/>
       <c r="W677" s="118"/>
     </row>
-    <row r="678" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="199"/>
       <c r="B678" s="199"/>
       <c r="C678" s="199"/>
@@ -27025,7 +27034,7 @@
       <c r="V678" s="148"/>
       <c r="W678" s="118"/>
     </row>
-    <row r="679" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="199"/>
       <c r="B679" s="199"/>
       <c r="C679" s="199"/>
@@ -27040,7 +27049,7 @@
       <c r="V679" s="148"/>
       <c r="W679" s="118"/>
     </row>
-    <row r="680" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="199"/>
       <c r="B680" s="199"/>
       <c r="C680" s="199"/>
@@ -27055,7 +27064,7 @@
       <c r="V680" s="148"/>
       <c r="W680" s="118"/>
     </row>
-    <row r="681" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="199"/>
       <c r="B681" s="199"/>
       <c r="C681" s="199"/>
@@ -27070,7 +27079,7 @@
       <c r="V681" s="148"/>
       <c r="W681" s="118"/>
     </row>
-    <row r="682" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="199"/>
       <c r="B682" s="199"/>
       <c r="C682" s="199"/>
@@ -27085,7 +27094,7 @@
       <c r="V682" s="148"/>
       <c r="W682" s="118"/>
     </row>
-    <row r="683" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="199"/>
       <c r="B683" s="199"/>
       <c r="C683" s="199"/>
@@ -27100,7 +27109,7 @@
       <c r="V683" s="148"/>
       <c r="W683" s="118"/>
     </row>
-    <row r="684" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="199"/>
       <c r="B684" s="199"/>
       <c r="C684" s="199"/>
@@ -27115,7 +27124,7 @@
       <c r="V684" s="148"/>
       <c r="W684" s="118"/>
     </row>
-    <row r="685" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="199"/>
       <c r="B685" s="199"/>
       <c r="C685" s="199"/>
@@ -27130,7 +27139,7 @@
       <c r="V685" s="148"/>
       <c r="W685" s="118"/>
     </row>
-    <row r="686" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="199"/>
       <c r="B686" s="199"/>
       <c r="C686" s="199"/>
@@ -27145,7 +27154,7 @@
       <c r="V686" s="148"/>
       <c r="W686" s="118"/>
     </row>
-    <row r="687" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="199"/>
       <c r="B687" s="199"/>
       <c r="C687" s="199"/>
@@ -27160,7 +27169,7 @@
       <c r="V687" s="148"/>
       <c r="W687" s="118"/>
     </row>
-    <row r="688" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="199"/>
       <c r="B688" s="199"/>
       <c r="C688" s="199"/>
@@ -27175,7 +27184,7 @@
       <c r="V688" s="148"/>
       <c r="W688" s="118"/>
     </row>
-    <row r="689" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="199"/>
       <c r="B689" s="199"/>
       <c r="C689" s="199"/>
@@ -27190,7 +27199,7 @@
       <c r="V689" s="148"/>
       <c r="W689" s="118"/>
     </row>
-    <row r="690" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="199"/>
       <c r="B690" s="199"/>
       <c r="C690" s="199"/>
@@ -27205,7 +27214,7 @@
       <c r="V690" s="148"/>
       <c r="W690" s="118"/>
     </row>
-    <row r="691" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="199"/>
       <c r="B691" s="199"/>
       <c r="C691" s="199"/>
@@ -27220,7 +27229,7 @@
       <c r="V691" s="148"/>
       <c r="W691" s="118"/>
     </row>
-    <row r="692" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="199"/>
       <c r="B692" s="199"/>
       <c r="C692" s="199"/>
@@ -27235,7 +27244,7 @@
       <c r="V692" s="148"/>
       <c r="W692" s="118"/>
     </row>
-    <row r="693" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="199"/>
       <c r="B693" s="199"/>
       <c r="C693" s="199"/>
@@ -27250,7 +27259,7 @@
       <c r="V693" s="148"/>
       <c r="W693" s="118"/>
     </row>
-    <row r="694" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="199"/>
       <c r="B694" s="199"/>
       <c r="C694" s="199"/>
@@ -27265,7 +27274,7 @@
       <c r="V694" s="148"/>
       <c r="W694" s="118"/>
     </row>
-    <row r="695" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="199"/>
       <c r="B695" s="199"/>
       <c r="C695" s="199"/>
@@ -27280,7 +27289,7 @@
       <c r="V695" s="148"/>
       <c r="W695" s="118"/>
     </row>
-    <row r="696" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="199"/>
       <c r="B696" s="199"/>
       <c r="C696" s="199"/>
@@ -27295,7 +27304,7 @@
       <c r="V696" s="148"/>
       <c r="W696" s="118"/>
     </row>
-    <row r="697" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="199"/>
       <c r="B697" s="199"/>
       <c r="C697" s="199"/>
@@ -27310,7 +27319,7 @@
       <c r="V697" s="148"/>
       <c r="W697" s="118"/>
     </row>
-    <row r="698" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="199"/>
       <c r="B698" s="199"/>
       <c r="C698" s="199"/>
@@ -27325,7 +27334,7 @@
       <c r="V698" s="148"/>
       <c r="W698" s="118"/>
     </row>
-    <row r="699" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="199"/>
       <c r="B699" s="199"/>
       <c r="C699" s="199"/>
@@ -27340,7 +27349,7 @@
       <c r="V699" s="148"/>
       <c r="W699" s="118"/>
     </row>
-    <row r="700" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="199"/>
       <c r="B700" s="199"/>
       <c r="C700" s="199"/>
@@ -27355,7 +27364,7 @@
       <c r="V700" s="148"/>
       <c r="W700" s="118"/>
     </row>
-    <row r="701" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="199"/>
       <c r="B701" s="199"/>
       <c r="C701" s="199"/>
@@ -27370,7 +27379,7 @@
       <c r="V701" s="148"/>
       <c r="W701" s="118"/>
     </row>
-    <row r="702" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="199"/>
       <c r="B702" s="199"/>
       <c r="C702" s="199"/>
@@ -27385,7 +27394,7 @@
       <c r="V702" s="148"/>
       <c r="W702" s="118"/>
     </row>
-    <row r="703" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="199"/>
       <c r="B703" s="199"/>
       <c r="C703" s="199"/>
@@ -27400,7 +27409,7 @@
       <c r="V703" s="148"/>
       <c r="W703" s="118"/>
     </row>
-    <row r="704" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="199"/>
       <c r="B704" s="199"/>
       <c r="C704" s="199"/>
@@ -27415,7 +27424,7 @@
       <c r="V704" s="148"/>
       <c r="W704" s="118"/>
     </row>
-    <row r="705" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="199"/>
       <c r="B705" s="199"/>
       <c r="C705" s="199"/>
@@ -27430,7 +27439,7 @@
       <c r="V705" s="148"/>
       <c r="W705" s="118"/>
     </row>
-    <row r="706" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="199"/>
       <c r="B706" s="199"/>
       <c r="C706" s="199"/>
@@ -27445,7 +27454,7 @@
       <c r="V706" s="148"/>
       <c r="W706" s="118"/>
     </row>
-    <row r="707" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="199"/>
       <c r="B707" s="199"/>
       <c r="C707" s="199"/>
@@ -27460,7 +27469,7 @@
       <c r="V707" s="148"/>
       <c r="W707" s="118"/>
     </row>
-    <row r="708" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="199"/>
       <c r="B708" s="199"/>
       <c r="C708" s="199"/>
@@ -27475,7 +27484,7 @@
       <c r="V708" s="148"/>
       <c r="W708" s="118"/>
     </row>
-    <row r="709" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="199"/>
       <c r="B709" s="199"/>
       <c r="C709" s="199"/>
@@ -27490,7 +27499,7 @@
       <c r="V709" s="148"/>
       <c r="W709" s="118"/>
     </row>
-    <row r="710" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="199"/>
       <c r="B710" s="199"/>
       <c r="C710" s="199"/>
@@ -27505,7 +27514,7 @@
       <c r="V710" s="148"/>
       <c r="W710" s="118"/>
     </row>
-    <row r="711" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="199"/>
       <c r="B711" s="199"/>
       <c r="C711" s="199"/>
@@ -27520,7 +27529,7 @@
       <c r="V711" s="148"/>
       <c r="W711" s="118"/>
     </row>
-    <row r="712" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="199"/>
       <c r="B712" s="199"/>
       <c r="C712" s="199"/>
@@ -27535,7 +27544,7 @@
       <c r="V712" s="148"/>
       <c r="W712" s="118"/>
     </row>
-    <row r="713" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="199"/>
       <c r="B713" s="199"/>
       <c r="C713" s="199"/>
@@ -27550,7 +27559,7 @@
       <c r="V713" s="148"/>
       <c r="W713" s="118"/>
     </row>
-    <row r="714" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="199"/>
       <c r="B714" s="199"/>
       <c r="C714" s="199"/>
@@ -27565,7 +27574,7 @@
       <c r="V714" s="148"/>
       <c r="W714" s="118"/>
     </row>
-    <row r="715" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="199"/>
       <c r="B715" s="199"/>
       <c r="C715" s="199"/>
@@ -27580,7 +27589,7 @@
       <c r="V715" s="148"/>
       <c r="W715" s="118"/>
     </row>
-    <row r="716" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="199"/>
       <c r="B716" s="199"/>
       <c r="C716" s="199"/>
@@ -27595,7 +27604,7 @@
       <c r="V716" s="148"/>
       <c r="W716" s="118"/>
     </row>
-    <row r="717" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="199"/>
       <c r="B717" s="199"/>
       <c r="C717" s="199"/>
@@ -27610,7 +27619,7 @@
       <c r="V717" s="148"/>
       <c r="W717" s="118"/>
     </row>
-    <row r="718" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="199"/>
       <c r="B718" s="199"/>
       <c r="C718" s="199"/>
@@ -27625,7 +27634,7 @@
       <c r="V718" s="148"/>
       <c r="W718" s="118"/>
     </row>
-    <row r="719" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="199"/>
       <c r="B719" s="199"/>
       <c r="C719" s="199"/>
@@ -27640,7 +27649,7 @@
       <c r="V719" s="148"/>
       <c r="W719" s="118"/>
     </row>
-    <row r="720" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="199"/>
       <c r="B720" s="199"/>
       <c r="C720" s="199"/>
@@ -27655,7 +27664,7 @@
       <c r="V720" s="148"/>
       <c r="W720" s="118"/>
     </row>
-    <row r="721" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="199"/>
       <c r="B721" s="199"/>
       <c r="C721" s="199"/>
@@ -27670,7 +27679,7 @@
       <c r="V721" s="148"/>
       <c r="W721" s="118"/>
     </row>
-    <row r="722" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="199"/>
       <c r="B722" s="199"/>
       <c r="C722" s="199"/>
@@ -27685,7 +27694,7 @@
       <c r="V722" s="148"/>
       <c r="W722" s="118"/>
     </row>
-    <row r="723" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="199"/>
       <c r="B723" s="199"/>
       <c r="C723" s="199"/>
@@ -27700,7 +27709,7 @@
       <c r="V723" s="148"/>
       <c r="W723" s="118"/>
     </row>
-    <row r="724" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="199"/>
       <c r="B724" s="199"/>
       <c r="C724" s="199"/>
@@ -27715,7 +27724,7 @@
       <c r="V724" s="148"/>
       <c r="W724" s="118"/>
     </row>
-    <row r="725" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="199"/>
       <c r="B725" s="199"/>
       <c r="C725" s="199"/>
@@ -27730,7 +27739,7 @@
       <c r="V725" s="148"/>
       <c r="W725" s="118"/>
     </row>
-    <row r="726" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="199"/>
       <c r="B726" s="199"/>
       <c r="C726" s="199"/>
@@ -27745,7 +27754,7 @@
       <c r="V726" s="148"/>
       <c r="W726" s="118"/>
     </row>
-    <row r="727" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="199"/>
       <c r="B727" s="199"/>
       <c r="C727" s="199"/>
@@ -27760,7 +27769,7 @@
       <c r="V727" s="148"/>
       <c r="W727" s="118"/>
     </row>
-    <row r="728" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="199"/>
       <c r="B728" s="199"/>
       <c r="C728" s="199"/>
@@ -27775,7 +27784,7 @@
       <c r="V728" s="148"/>
       <c r="W728" s="118"/>
     </row>
-    <row r="729" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="199"/>
       <c r="B729" s="199"/>
       <c r="C729" s="199"/>
@@ -27790,7 +27799,7 @@
       <c r="V729" s="148"/>
       <c r="W729" s="118"/>
     </row>
-    <row r="730" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="199"/>
       <c r="B730" s="199"/>
       <c r="C730" s="199"/>
@@ -27805,7 +27814,7 @@
       <c r="V730" s="148"/>
       <c r="W730" s="118"/>
     </row>
-    <row r="731" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="199"/>
       <c r="B731" s="199"/>
       <c r="C731" s="199"/>
@@ -27820,7 +27829,7 @@
       <c r="V731" s="148"/>
       <c r="W731" s="118"/>
     </row>
-    <row r="732" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="199"/>
       <c r="B732" s="199"/>
       <c r="C732" s="199"/>
@@ -27835,7 +27844,7 @@
       <c r="V732" s="148"/>
       <c r="W732" s="118"/>
     </row>
-    <row r="733" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="199"/>
       <c r="B733" s="199"/>
       <c r="C733" s="199"/>
@@ -27850,7 +27859,7 @@
       <c r="V733" s="148"/>
       <c r="W733" s="118"/>
     </row>
-    <row r="734" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="199"/>
       <c r="B734" s="199"/>
       <c r="C734" s="199"/>
@@ -27865,7 +27874,7 @@
       <c r="V734" s="148"/>
       <c r="W734" s="118"/>
     </row>
-    <row r="735" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="199"/>
       <c r="B735" s="199"/>
       <c r="C735" s="199"/>
@@ -27880,7 +27889,7 @@
       <c r="V735" s="148"/>
       <c r="W735" s="118"/>
     </row>
-    <row r="736" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="199"/>
       <c r="B736" s="199"/>
       <c r="C736" s="199"/>
@@ -27895,7 +27904,7 @@
       <c r="V736" s="148"/>
       <c r="W736" s="118"/>
     </row>
-    <row r="737" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="199"/>
       <c r="B737" s="199"/>
       <c r="C737" s="199"/>
@@ -27910,7 +27919,7 @@
       <c r="V737" s="148"/>
       <c r="W737" s="118"/>
     </row>
-    <row r="738" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="199"/>
       <c r="B738" s="199"/>
       <c r="C738" s="199"/>
@@ -27925,7 +27934,7 @@
       <c r="V738" s="148"/>
       <c r="W738" s="118"/>
     </row>
-    <row r="739" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="199"/>
       <c r="B739" s="199"/>
       <c r="C739" s="199"/>
@@ -27940,7 +27949,7 @@
       <c r="V739" s="148"/>
       <c r="W739" s="118"/>
     </row>
-    <row r="740" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="199"/>
       <c r="B740" s="199"/>
       <c r="C740" s="199"/>
@@ -27955,7 +27964,7 @@
       <c r="V740" s="148"/>
       <c r="W740" s="118"/>
     </row>
-    <row r="741" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="199"/>
       <c r="B741" s="199"/>
       <c r="C741" s="199"/>
@@ -27970,7 +27979,7 @@
       <c r="V741" s="148"/>
       <c r="W741" s="118"/>
     </row>
-    <row r="742" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="199"/>
       <c r="B742" s="199"/>
       <c r="C742" s="199"/>
@@ -27985,7 +27994,7 @@
       <c r="V742" s="148"/>
       <c r="W742" s="118"/>
     </row>
-    <row r="743" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="199"/>
       <c r="B743" s="199"/>
       <c r="C743" s="199"/>
@@ -28000,7 +28009,7 @@
       <c r="V743" s="148"/>
       <c r="W743" s="118"/>
     </row>
-    <row r="744" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="199"/>
       <c r="B744" s="199"/>
       <c r="C744" s="199"/>
@@ -28015,7 +28024,7 @@
       <c r="V744" s="148"/>
       <c r="W744" s="118"/>
     </row>
-    <row r="745" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="199"/>
       <c r="B745" s="199"/>
       <c r="C745" s="199"/>
@@ -28030,7 +28039,7 @@
       <c r="V745" s="148"/>
       <c r="W745" s="118"/>
     </row>
-    <row r="746" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="199"/>
       <c r="B746" s="199"/>
       <c r="C746" s="199"/>
@@ -28045,7 +28054,7 @@
       <c r="V746" s="148"/>
       <c r="W746" s="118"/>
     </row>
-    <row r="747" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="199"/>
       <c r="B747" s="199"/>
       <c r="C747" s="199"/>
@@ -28060,7 +28069,7 @@
       <c r="V747" s="148"/>
       <c r="W747" s="118"/>
     </row>
-    <row r="748" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="199"/>
       <c r="B748" s="199"/>
       <c r="C748" s="199"/>
@@ -28075,7 +28084,7 @@
       <c r="V748" s="148"/>
       <c r="W748" s="118"/>
     </row>
-    <row r="749" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="199"/>
       <c r="B749" s="199"/>
       <c r="C749" s="199"/>
@@ -28090,7 +28099,7 @@
       <c r="V749" s="148"/>
       <c r="W749" s="118"/>
     </row>
-    <row r="750" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="199"/>
       <c r="B750" s="199"/>
       <c r="C750" s="199"/>
@@ -28105,7 +28114,7 @@
       <c r="V750" s="148"/>
       <c r="W750" s="118"/>
     </row>
-    <row r="751" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="199"/>
       <c r="B751" s="199"/>
       <c r="C751" s="199"/>
@@ -28120,7 +28129,7 @@
       <c r="V751" s="148"/>
       <c r="W751" s="118"/>
     </row>
-    <row r="752" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="199"/>
       <c r="B752" s="199"/>
       <c r="C752" s="199"/>
@@ -28135,7 +28144,7 @@
       <c r="V752" s="148"/>
       <c r="W752" s="118"/>
     </row>
-    <row r="753" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="199"/>
       <c r="B753" s="199"/>
       <c r="C753" s="199"/>
@@ -28150,7 +28159,7 @@
       <c r="V753" s="148"/>
       <c r="W753" s="118"/>
     </row>
-    <row r="754" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="199"/>
       <c r="B754" s="199"/>
       <c r="C754" s="199"/>
@@ -28165,7 +28174,7 @@
       <c r="V754" s="148"/>
       <c r="W754" s="118"/>
     </row>
-    <row r="755" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="199"/>
       <c r="B755" s="199"/>
       <c r="C755" s="199"/>
@@ -28180,7 +28189,7 @@
       <c r="V755" s="148"/>
       <c r="W755" s="118"/>
     </row>
-    <row r="756" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="199"/>
       <c r="B756" s="199"/>
       <c r="C756" s="199"/>
@@ -28195,7 +28204,7 @@
       <c r="V756" s="148"/>
       <c r="W756" s="118"/>
     </row>
-    <row r="757" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="199"/>
       <c r="B757" s="199"/>
       <c r="C757" s="199"/>
@@ -28210,7 +28219,7 @@
       <c r="V757" s="148"/>
       <c r="W757" s="118"/>
     </row>
-    <row r="758" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="199"/>
       <c r="B758" s="199"/>
       <c r="C758" s="199"/>
@@ -28225,7 +28234,7 @@
       <c r="V758" s="148"/>
       <c r="W758" s="118"/>
     </row>
-    <row r="759" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="199"/>
       <c r="B759" s="199"/>
       <c r="C759" s="199"/>
@@ -28240,7 +28249,7 @@
       <c r="V759" s="148"/>
       <c r="W759" s="118"/>
     </row>
-    <row r="760" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="199"/>
       <c r="B760" s="199"/>
       <c r="C760" s="199"/>
@@ -28255,7 +28264,7 @@
       <c r="V760" s="148"/>
       <c r="W760" s="118"/>
     </row>
-    <row r="761" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="199"/>
       <c r="B761" s="199"/>
       <c r="C761" s="199"/>
@@ -28270,7 +28279,7 @@
       <c r="V761" s="148"/>
       <c r="W761" s="118"/>
     </row>
-    <row r="762" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="199"/>
       <c r="B762" s="199"/>
       <c r="C762" s="199"/>
@@ -28285,7 +28294,7 @@
       <c r="V762" s="148"/>
       <c r="W762" s="118"/>
     </row>
-    <row r="763" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="199"/>
       <c r="B763" s="199"/>
       <c r="C763" s="199"/>
@@ -28300,7 +28309,7 @@
       <c r="V763" s="148"/>
       <c r="W763" s="118"/>
     </row>
-    <row r="764" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="199"/>
       <c r="B764" s="199"/>
       <c r="C764" s="199"/>
@@ -28315,7 +28324,7 @@
       <c r="V764" s="148"/>
       <c r="W764" s="118"/>
     </row>
-    <row r="765" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="199"/>
       <c r="B765" s="199"/>
       <c r="C765" s="199"/>
@@ -28330,7 +28339,7 @@
       <c r="V765" s="148"/>
       <c r="W765" s="118"/>
     </row>
-    <row r="766" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="199"/>
       <c r="B766" s="199"/>
       <c r="C766" s="199"/>
@@ -28345,7 +28354,7 @@
       <c r="V766" s="148"/>
       <c r="W766" s="118"/>
     </row>
-    <row r="767" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="199"/>
       <c r="B767" s="199"/>
       <c r="C767" s="199"/>
@@ -28360,7 +28369,7 @@
       <c r="V767" s="148"/>
       <c r="W767" s="118"/>
     </row>
-    <row r="768" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="199"/>
       <c r="B768" s="199"/>
       <c r="C768" s="199"/>
@@ -28375,7 +28384,7 @@
       <c r="V768" s="148"/>
       <c r="W768" s="118"/>
     </row>
-    <row r="769" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="199"/>
       <c r="B769" s="199"/>
       <c r="C769" s="199"/>
@@ -28390,7 +28399,7 @@
       <c r="V769" s="148"/>
       <c r="W769" s="118"/>
     </row>
-    <row r="770" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="199"/>
       <c r="B770" s="199"/>
       <c r="C770" s="199"/>
@@ -28405,7 +28414,7 @@
       <c r="V770" s="148"/>
       <c r="W770" s="118"/>
     </row>
-    <row r="771" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="199"/>
       <c r="B771" s="199"/>
       <c r="C771" s="199"/>
@@ -28420,7 +28429,7 @@
       <c r="V771" s="148"/>
       <c r="W771" s="118"/>
     </row>
-    <row r="772" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="199"/>
       <c r="B772" s="199"/>
       <c r="C772" s="199"/>
@@ -28435,7 +28444,7 @@
       <c r="V772" s="148"/>
       <c r="W772" s="118"/>
     </row>
-    <row r="773" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="199"/>
       <c r="B773" s="199"/>
       <c r="C773" s="199"/>
@@ -28450,7 +28459,7 @@
       <c r="V773" s="148"/>
       <c r="W773" s="118"/>
     </row>
-    <row r="774" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="199"/>
       <c r="B774" s="199"/>
       <c r="C774" s="199"/>
@@ -28465,7 +28474,7 @@
       <c r="V774" s="148"/>
       <c r="W774" s="118"/>
     </row>
-    <row r="775" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="199"/>
       <c r="B775" s="199"/>
       <c r="C775" s="199"/>
@@ -28480,7 +28489,7 @@
       <c r="V775" s="148"/>
       <c r="W775" s="118"/>
     </row>
-    <row r="776" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="199"/>
       <c r="B776" s="199"/>
       <c r="C776" s="199"/>
@@ -28495,7 +28504,7 @@
       <c r="V776" s="148"/>
       <c r="W776" s="118"/>
     </row>
-    <row r="777" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="199"/>
       <c r="B777" s="199"/>
       <c r="C777" s="199"/>
@@ -28510,7 +28519,7 @@
       <c r="V777" s="148"/>
       <c r="W777" s="118"/>
     </row>
-    <row r="778" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="199"/>
       <c r="B778" s="199"/>
       <c r="C778" s="199"/>
@@ -28525,7 +28534,7 @@
       <c r="V778" s="148"/>
       <c r="W778" s="118"/>
     </row>
-    <row r="779" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="199"/>
       <c r="B779" s="199"/>
       <c r="C779" s="199"/>
@@ -28540,7 +28549,7 @@
       <c r="V779" s="148"/>
       <c r="W779" s="118"/>
     </row>
-    <row r="780" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="199"/>
       <c r="B780" s="199"/>
       <c r="C780" s="199"/>
@@ -28555,7 +28564,7 @@
       <c r="V780" s="148"/>
       <c r="W780" s="118"/>
     </row>
-    <row r="781" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="199"/>
       <c r="B781" s="199"/>
       <c r="C781" s="199"/>
@@ -28570,7 +28579,7 @@
       <c r="V781" s="148"/>
       <c r="W781" s="118"/>
     </row>
-    <row r="782" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="199"/>
       <c r="B782" s="199"/>
       <c r="C782" s="199"/>
@@ -28585,7 +28594,7 @@
       <c r="V782" s="148"/>
       <c r="W782" s="118"/>
     </row>
-    <row r="783" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="199"/>
       <c r="B783" s="199"/>
       <c r="C783" s="199"/>
@@ -28600,7 +28609,7 @@
       <c r="V783" s="148"/>
       <c r="W783" s="118"/>
     </row>
-    <row r="784" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="199"/>
       <c r="B784" s="199"/>
       <c r="C784" s="199"/>
@@ -28615,7 +28624,7 @@
       <c r="V784" s="148"/>
       <c r="W784" s="118"/>
     </row>
-    <row r="785" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="199"/>
       <c r="B785" s="199"/>
       <c r="C785" s="199"/>
@@ -28630,7 +28639,7 @@
       <c r="V785" s="148"/>
       <c r="W785" s="118"/>
     </row>
-    <row r="786" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="199"/>
       <c r="B786" s="199"/>
       <c r="C786" s="199"/>
@@ -28645,7 +28654,7 @@
       <c r="V786" s="148"/>
       <c r="W786" s="118"/>
     </row>
-    <row r="787" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="199"/>
       <c r="B787" s="199"/>
       <c r="C787" s="199"/>
@@ -28660,7 +28669,7 @@
       <c r="V787" s="148"/>
       <c r="W787" s="118"/>
     </row>
-    <row r="788" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="199"/>
       <c r="B788" s="199"/>
       <c r="C788" s="199"/>
@@ -28675,7 +28684,7 @@
       <c r="V788" s="148"/>
       <c r="W788" s="118"/>
     </row>
-    <row r="789" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="199"/>
       <c r="B789" s="199"/>
       <c r="C789" s="199"/>
@@ -28690,7 +28699,7 @@
       <c r="V789" s="148"/>
       <c r="W789" s="118"/>
     </row>
-    <row r="790" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="199"/>
       <c r="B790" s="199"/>
       <c r="C790" s="199"/>
@@ -28705,7 +28714,7 @@
       <c r="V790" s="148"/>
       <c r="W790" s="118"/>
     </row>
-    <row r="791" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="199"/>
       <c r="B791" s="199"/>
       <c r="C791" s="199"/>
@@ -28720,7 +28729,7 @@
       <c r="V791" s="148"/>
       <c r="W791" s="118"/>
     </row>
-    <row r="792" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="199"/>
       <c r="B792" s="199"/>
       <c r="C792" s="199"/>
@@ -28735,7 +28744,7 @@
       <c r="V792" s="148"/>
       <c r="W792" s="118"/>
     </row>
-    <row r="793" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="199"/>
       <c r="B793" s="199"/>
       <c r="C793" s="199"/>
@@ -28750,7 +28759,7 @@
       <c r="V793" s="148"/>
       <c r="W793" s="118"/>
     </row>
-    <row r="794" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="199"/>
       <c r="B794" s="199"/>
       <c r="C794" s="199"/>
@@ -28765,7 +28774,7 @@
       <c r="V794" s="148"/>
       <c r="W794" s="118"/>
     </row>
-    <row r="795" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="199"/>
       <c r="B795" s="199"/>
       <c r="C795" s="199"/>
@@ -28780,7 +28789,7 @@
       <c r="V795" s="148"/>
       <c r="W795" s="118"/>
     </row>
-    <row r="796" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="199"/>
       <c r="B796" s="199"/>
       <c r="C796" s="199"/>
@@ -28795,7 +28804,7 @@
       <c r="V796" s="148"/>
       <c r="W796" s="118"/>
     </row>
-    <row r="797" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="199"/>
       <c r="B797" s="199"/>
       <c r="C797" s="199"/>
@@ -28810,7 +28819,7 @@
       <c r="V797" s="148"/>
       <c r="W797" s="118"/>
     </row>
-    <row r="798" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="199"/>
       <c r="B798" s="199"/>
       <c r="C798" s="199"/>
@@ -28825,7 +28834,7 @@
       <c r="V798" s="148"/>
       <c r="W798" s="118"/>
     </row>
-    <row r="799" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="199"/>
       <c r="B799" s="199"/>
       <c r="C799" s="199"/>
@@ -28840,7 +28849,7 @@
       <c r="V799" s="148"/>
       <c r="W799" s="118"/>
     </row>
-    <row r="800" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="199"/>
       <c r="B800" s="199"/>
       <c r="C800" s="199"/>
@@ -28855,7 +28864,7 @@
       <c r="V800" s="148"/>
       <c r="W800" s="118"/>
     </row>
-    <row r="801" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="199"/>
       <c r="B801" s="199"/>
       <c r="C801" s="199"/>
@@ -28870,7 +28879,7 @@
       <c r="V801" s="148"/>
       <c r="W801" s="118"/>
     </row>
-    <row r="802" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="199"/>
       <c r="B802" s="199"/>
       <c r="C802" s="199"/>
@@ -28885,7 +28894,7 @@
       <c r="V802" s="148"/>
       <c r="W802" s="118"/>
     </row>
-    <row r="803" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="199"/>
       <c r="B803" s="199"/>
       <c r="C803" s="199"/>
@@ -28900,7 +28909,7 @@
       <c r="V803" s="148"/>
       <c r="W803" s="118"/>
     </row>
-    <row r="804" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="199"/>
       <c r="B804" s="199"/>
       <c r="C804" s="199"/>
@@ -28915,7 +28924,7 @@
       <c r="V804" s="148"/>
       <c r="W804" s="118"/>
     </row>
-    <row r="805" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="199"/>
       <c r="B805" s="199"/>
       <c r="C805" s="199"/>
@@ -28930,7 +28939,7 @@
       <c r="V805" s="148"/>
       <c r="W805" s="118"/>
     </row>
-    <row r="806" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="199"/>
       <c r="B806" s="199"/>
       <c r="C806" s="199"/>
@@ -28945,7 +28954,7 @@
       <c r="V806" s="148"/>
       <c r="W806" s="118"/>
     </row>
-    <row r="807" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="199"/>
       <c r="B807" s="199"/>
       <c r="C807" s="199"/>
@@ -28960,7 +28969,7 @@
       <c r="V807" s="148"/>
       <c r="W807" s="118"/>
     </row>
-    <row r="808" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="199"/>
       <c r="B808" s="199"/>
       <c r="C808" s="199"/>
@@ -28975,7 +28984,7 @@
       <c r="V808" s="148"/>
       <c r="W808" s="118"/>
     </row>
-    <row r="809" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="199"/>
       <c r="B809" s="199"/>
       <c r="C809" s="199"/>
@@ -28990,7 +28999,7 @@
       <c r="V809" s="148"/>
       <c r="W809" s="118"/>
     </row>
-    <row r="810" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="199"/>
       <c r="B810" s="199"/>
       <c r="C810" s="199"/>
@@ -29005,7 +29014,7 @@
       <c r="V810" s="148"/>
       <c r="W810" s="118"/>
     </row>
-    <row r="811" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="199"/>
       <c r="B811" s="199"/>
       <c r="C811" s="199"/>
@@ -29020,7 +29029,7 @@
       <c r="V811" s="148"/>
       <c r="W811" s="118"/>
     </row>
-    <row r="812" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="199"/>
       <c r="B812" s="199"/>
       <c r="C812" s="199"/>
@@ -29035,7 +29044,7 @@
       <c r="V812" s="148"/>
       <c r="W812" s="118"/>
     </row>
-    <row r="813" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="199"/>
       <c r="B813" s="199"/>
       <c r="C813" s="199"/>
@@ -29050,7 +29059,7 @@
       <c r="V813" s="148"/>
       <c r="W813" s="118"/>
     </row>
-    <row r="814" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="199"/>
       <c r="B814" s="199"/>
       <c r="C814" s="199"/>
@@ -29065,7 +29074,7 @@
       <c r="V814" s="148"/>
       <c r="W814" s="118"/>
     </row>
-    <row r="815" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="199"/>
       <c r="B815" s="199"/>
       <c r="C815" s="199"/>
@@ -29080,7 +29089,7 @@
       <c r="V815" s="148"/>
       <c r="W815" s="118"/>
     </row>
-    <row r="816" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="199"/>
       <c r="B816" s="199"/>
       <c r="C816" s="199"/>
@@ -29095,7 +29104,7 @@
       <c r="V816" s="148"/>
       <c r="W816" s="118"/>
     </row>
-    <row r="817" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="199"/>
       <c r="B817" s="199"/>
       <c r="C817" s="199"/>
@@ -29110,7 +29119,7 @@
       <c r="V817" s="148"/>
       <c r="W817" s="118"/>
     </row>
-    <row r="818" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="199"/>
       <c r="B818" s="199"/>
       <c r="C818" s="199"/>
@@ -29125,7 +29134,7 @@
       <c r="V818" s="148"/>
       <c r="W818" s="118"/>
     </row>
-    <row r="819" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="199"/>
       <c r="B819" s="199"/>
       <c r="C819" s="199"/>
@@ -29140,7 +29149,7 @@
       <c r="V819" s="148"/>
       <c r="W819" s="118"/>
     </row>
-    <row r="820" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="199"/>
       <c r="B820" s="199"/>
       <c r="C820" s="199"/>
@@ -29155,7 +29164,7 @@
       <c r="V820" s="148"/>
       <c r="W820" s="118"/>
     </row>
-    <row r="821" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="199"/>
       <c r="B821" s="199"/>
       <c r="C821" s="199"/>
@@ -29170,7 +29179,7 @@
       <c r="V821" s="148"/>
       <c r="W821" s="118"/>
     </row>
-    <row r="822" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="199"/>
       <c r="B822" s="199"/>
       <c r="C822" s="199"/>
@@ -29185,7 +29194,7 @@
       <c r="V822" s="148"/>
       <c r="W822" s="118"/>
     </row>
-    <row r="823" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="199"/>
       <c r="B823" s="199"/>
       <c r="C823" s="199"/>
@@ -29200,7 +29209,7 @@
       <c r="V823" s="148"/>
       <c r="W823" s="118"/>
     </row>
-    <row r="824" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="199"/>
       <c r="B824" s="199"/>
       <c r="C824" s="199"/>
@@ -29215,7 +29224,7 @@
       <c r="V824" s="148"/>
       <c r="W824" s="118"/>
     </row>
-    <row r="825" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="199"/>
       <c r="B825" s="199"/>
       <c r="C825" s="199"/>
@@ -29230,7 +29239,7 @@
       <c r="V825" s="148"/>
       <c r="W825" s="118"/>
     </row>
-    <row r="826" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="199"/>
       <c r="B826" s="199"/>
       <c r="C826" s="199"/>
@@ -29245,7 +29254,7 @@
       <c r="V826" s="148"/>
       <c r="W826" s="118"/>
     </row>
-    <row r="827" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="199"/>
       <c r="B827" s="199"/>
       <c r="C827" s="199"/>
@@ -29260,7 +29269,7 @@
       <c r="V827" s="148"/>
       <c r="W827" s="118"/>
     </row>
-    <row r="828" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="199"/>
       <c r="B828" s="199"/>
       <c r="C828" s="199"/>
@@ -29275,7 +29284,7 @@
       <c r="V828" s="148"/>
       <c r="W828" s="118"/>
     </row>
-    <row r="829" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="199"/>
       <c r="B829" s="199"/>
       <c r="C829" s="199"/>
@@ -29290,7 +29299,7 @@
       <c r="V829" s="148"/>
       <c r="W829" s="118"/>
     </row>
-    <row r="830" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="199"/>
       <c r="B830" s="199"/>
       <c r="C830" s="199"/>
@@ -29305,7 +29314,7 @@
       <c r="V830" s="148"/>
       <c r="W830" s="118"/>
     </row>
-    <row r="831" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="199"/>
       <c r="B831" s="199"/>
       <c r="C831" s="199"/>
@@ -29320,7 +29329,7 @@
       <c r="V831" s="148"/>
       <c r="W831" s="118"/>
     </row>
-    <row r="832" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="199"/>
       <c r="B832" s="199"/>
       <c r="C832" s="199"/>
@@ -29335,7 +29344,7 @@
       <c r="V832" s="148"/>
       <c r="W832" s="118"/>
     </row>
-    <row r="833" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="199"/>
       <c r="B833" s="199"/>
       <c r="C833" s="199"/>
@@ -29350,7 +29359,7 @@
       <c r="V833" s="148"/>
       <c r="W833" s="118"/>
     </row>
-    <row r="834" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="199"/>
       <c r="B834" s="199"/>
       <c r="C834" s="199"/>
@@ -29365,7 +29374,7 @@
       <c r="V834" s="148"/>
       <c r="W834" s="118"/>
     </row>
-    <row r="835" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="199"/>
       <c r="B835" s="199"/>
       <c r="C835" s="199"/>
@@ -29380,7 +29389,7 @@
       <c r="V835" s="148"/>
       <c r="W835" s="118"/>
     </row>
-    <row r="836" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="199"/>
       <c r="B836" s="199"/>
       <c r="C836" s="199"/>
@@ -29395,7 +29404,7 @@
       <c r="V836" s="148"/>
       <c r="W836" s="118"/>
     </row>
-    <row r="837" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="199"/>
       <c r="B837" s="199"/>
       <c r="C837" s="199"/>
@@ -29410,7 +29419,7 @@
       <c r="V837" s="148"/>
       <c r="W837" s="118"/>
     </row>
-    <row r="838" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="199"/>
       <c r="B838" s="199"/>
       <c r="C838" s="199"/>
@@ -29425,7 +29434,7 @@
       <c r="V838" s="148"/>
       <c r="W838" s="118"/>
     </row>
-    <row r="839" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="199"/>
       <c r="B839" s="199"/>
       <c r="C839" s="199"/>
@@ -29440,7 +29449,7 @@
       <c r="V839" s="148"/>
       <c r="W839" s="118"/>
     </row>
-    <row r="840" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="199"/>
       <c r="B840" s="199"/>
       <c r="C840" s="199"/>
@@ -29455,7 +29464,7 @@
       <c r="V840" s="148"/>
       <c r="W840" s="118"/>
     </row>
-    <row r="841" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="199"/>
       <c r="B841" s="199"/>
       <c r="C841" s="199"/>
@@ -29470,7 +29479,7 @@
       <c r="V841" s="148"/>
       <c r="W841" s="118"/>
     </row>
-    <row r="842" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="199"/>
       <c r="B842" s="199"/>
       <c r="C842" s="199"/>
@@ -29485,7 +29494,7 @@
       <c r="V842" s="148"/>
       <c r="W842" s="118"/>
     </row>
-    <row r="843" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="199"/>
       <c r="B843" s="199"/>
       <c r="C843" s="199"/>
@@ -29500,7 +29509,7 @@
       <c r="V843" s="148"/>
       <c r="W843" s="118"/>
     </row>
-    <row r="844" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="199"/>
       <c r="B844" s="199"/>
       <c r="C844" s="199"/>
@@ -29515,7 +29524,7 @@
       <c r="V844" s="148"/>
       <c r="W844" s="118"/>
     </row>
-    <row r="845" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="199"/>
       <c r="B845" s="199"/>
       <c r="C845" s="199"/>
@@ -29530,7 +29539,7 @@
       <c r="V845" s="148"/>
       <c r="W845" s="118"/>
     </row>
-    <row r="846" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="199"/>
       <c r="B846" s="199"/>
       <c r="C846" s="199"/>
@@ -29545,7 +29554,7 @@
       <c r="V846" s="148"/>
       <c r="W846" s="118"/>
     </row>
-    <row r="847" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="199"/>
       <c r="B847" s="199"/>
       <c r="C847" s="199"/>
@@ -29560,7 +29569,7 @@
       <c r="V847" s="148"/>
       <c r="W847" s="118"/>
     </row>
-    <row r="848" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="199"/>
       <c r="B848" s="199"/>
       <c r="C848" s="199"/>
@@ -29575,7 +29584,7 @@
       <c r="V848" s="148"/>
       <c r="W848" s="118"/>
     </row>
-    <row r="849" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="199"/>
       <c r="B849" s="199"/>
       <c r="C849" s="199"/>
@@ -29590,7 +29599,7 @@
       <c r="V849" s="148"/>
       <c r="W849" s="118"/>
     </row>
-    <row r="850" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="199"/>
       <c r="B850" s="199"/>
       <c r="C850" s="199"/>
@@ -29605,7 +29614,7 @@
       <c r="V850" s="148"/>
       <c r="W850" s="118"/>
     </row>
-    <row r="851" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="199"/>
       <c r="B851" s="199"/>
       <c r="C851" s="199"/>
@@ -29620,7 +29629,7 @@
       <c r="V851" s="148"/>
       <c r="W851" s="118"/>
     </row>
-    <row r="852" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="199"/>
       <c r="B852" s="199"/>
       <c r="C852" s="199"/>
@@ -29635,7 +29644,7 @@
       <c r="V852" s="148"/>
       <c r="W852" s="118"/>
     </row>
-    <row r="853" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="199"/>
       <c r="B853" s="199"/>
       <c r="C853" s="199"/>
@@ -29650,7 +29659,7 @@
       <c r="V853" s="148"/>
       <c r="W853" s="118"/>
     </row>
-    <row r="854" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="199"/>
       <c r="B854" s="199"/>
       <c r="C854" s="199"/>
@@ -29665,7 +29674,7 @@
       <c r="V854" s="148"/>
       <c r="W854" s="118"/>
     </row>
-    <row r="855" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="199"/>
       <c r="B855" s="199"/>
       <c r="C855" s="199"/>
@@ -29680,7 +29689,7 @@
       <c r="V855" s="148"/>
       <c r="W855" s="118"/>
     </row>
-    <row r="856" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="199"/>
       <c r="B856" s="199"/>
       <c r="C856" s="199"/>
@@ -29695,7 +29704,7 @@
       <c r="V856" s="148"/>
       <c r="W856" s="118"/>
     </row>
-    <row r="857" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="199"/>
       <c r="B857" s="199"/>
       <c r="C857" s="199"/>
@@ -29710,7 +29719,7 @@
       <c r="V857" s="148"/>
       <c r="W857" s="118"/>
     </row>
-    <row r="858" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="199"/>
       <c r="B858" s="199"/>
       <c r="C858" s="199"/>
@@ -29725,7 +29734,7 @@
       <c r="V858" s="148"/>
       <c r="W858" s="118"/>
     </row>
-    <row r="859" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="199"/>
       <c r="B859" s="199"/>
       <c r="C859" s="199"/>
@@ -29740,7 +29749,7 @@
       <c r="V859" s="148"/>
       <c r="W859" s="118"/>
     </row>
-    <row r="860" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="199"/>
       <c r="B860" s="199"/>
       <c r="C860" s="199"/>
@@ -29755,7 +29764,7 @@
       <c r="V860" s="148"/>
       <c r="W860" s="118"/>
     </row>
-    <row r="861" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="199"/>
       <c r="B861" s="199"/>
       <c r="C861" s="199"/>
@@ -29770,7 +29779,7 @@
       <c r="V861" s="148"/>
       <c r="W861" s="118"/>
     </row>
-    <row r="862" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="199"/>
       <c r="B862" s="199"/>
       <c r="C862" s="199"/>
@@ -29785,7 +29794,7 @@
       <c r="V862" s="148"/>
       <c r="W862" s="118"/>
     </row>
-    <row r="863" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="199"/>
       <c r="B863" s="199"/>
       <c r="C863" s="199"/>
@@ -29800,7 +29809,7 @@
       <c r="V863" s="148"/>
       <c r="W863" s="118"/>
     </row>
-    <row r="864" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="199"/>
       <c r="B864" s="199"/>
       <c r="C864" s="199"/>
@@ -29815,7 +29824,7 @@
       <c r="V864" s="148"/>
       <c r="W864" s="118"/>
     </row>
-    <row r="865" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="199"/>
       <c r="B865" s="199"/>
       <c r="C865" s="199"/>
@@ -29830,7 +29839,7 @@
       <c r="V865" s="148"/>
       <c r="W865" s="118"/>
     </row>
-    <row r="866" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="199"/>
       <c r="B866" s="199"/>
       <c r="C866" s="199"/>
@@ -29845,7 +29854,7 @@
       <c r="V866" s="148"/>
       <c r="W866" s="118"/>
     </row>
-    <row r="867" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="199"/>
       <c r="B867" s="199"/>
       <c r="C867" s="199"/>
@@ -29860,7 +29869,7 @@
       <c r="V867" s="148"/>
       <c r="W867" s="118"/>
     </row>
-    <row r="868" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="199"/>
       <c r="B868" s="199"/>
       <c r="C868" s="199"/>
@@ -29875,7 +29884,7 @@
       <c r="V868" s="148"/>
       <c r="W868" s="118"/>
     </row>
-    <row r="869" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="199"/>
       <c r="B869" s="199"/>
       <c r="C869" s="199"/>
@@ -29890,7 +29899,7 @@
       <c r="V869" s="148"/>
       <c r="W869" s="118"/>
     </row>
-    <row r="870" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="199"/>
       <c r="B870" s="199"/>
       <c r="C870" s="199"/>
@@ -29905,7 +29914,7 @@
       <c r="V870" s="148"/>
       <c r="W870" s="118"/>
     </row>
-    <row r="871" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="199"/>
       <c r="B871" s="199"/>
       <c r="C871" s="199"/>
@@ -29920,7 +29929,7 @@
       <c r="V871" s="148"/>
       <c r="W871" s="118"/>
     </row>
-    <row r="872" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="199"/>
       <c r="B872" s="199"/>
       <c r="C872" s="199"/>
@@ -29935,7 +29944,7 @@
       <c r="V872" s="148"/>
       <c r="W872" s="118"/>
     </row>
-    <row r="873" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="199"/>
       <c r="B873" s="199"/>
       <c r="C873" s="199"/>
@@ -29950,7 +29959,7 @@
       <c r="V873" s="148"/>
       <c r="W873" s="118"/>
     </row>
-    <row r="874" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="199"/>
       <c r="B874" s="199"/>
       <c r="C874" s="199"/>
@@ -29965,7 +29974,7 @@
       <c r="V874" s="148"/>
       <c r="W874" s="118"/>
     </row>
-    <row r="875" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="199"/>
       <c r="B875" s="199"/>
       <c r="C875" s="199"/>
@@ -29980,7 +29989,7 @@
       <c r="V875" s="148"/>
       <c r="W875" s="118"/>
     </row>
-    <row r="876" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="199"/>
       <c r="B876" s="199"/>
       <c r="C876" s="199"/>
@@ -29995,7 +30004,7 @@
       <c r="V876" s="148"/>
       <c r="W876" s="118"/>
     </row>
-    <row r="877" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="199"/>
       <c r="B877" s="199"/>
       <c r="C877" s="199"/>
@@ -30010,7 +30019,7 @@
       <c r="V877" s="148"/>
       <c r="W877" s="118"/>
     </row>
-    <row r="878" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="199"/>
       <c r="B878" s="199"/>
       <c r="C878" s="199"/>
@@ -30025,7 +30034,7 @@
       <c r="V878" s="148"/>
       <c r="W878" s="118"/>
     </row>
-    <row r="879" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="199"/>
       <c r="B879" s="199"/>
       <c r="C879" s="199"/>
@@ -30040,7 +30049,7 @@
       <c r="V879" s="148"/>
       <c r="W879" s="118"/>
     </row>
-    <row r="880" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="199"/>
       <c r="B880" s="199"/>
       <c r="C880" s="199"/>
@@ -30055,7 +30064,7 @@
       <c r="V880" s="148"/>
       <c r="W880" s="118"/>
     </row>
-    <row r="881" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="199"/>
       <c r="B881" s="199"/>
       <c r="C881" s="199"/>
@@ -30070,7 +30079,7 @@
       <c r="V881" s="148"/>
       <c r="W881" s="118"/>
     </row>
-    <row r="882" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="199"/>
       <c r="B882" s="199"/>
       <c r="C882" s="199"/>
@@ -30085,7 +30094,7 @@
       <c r="V882" s="148"/>
       <c r="W882" s="118"/>
     </row>
-    <row r="883" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="199"/>
       <c r="B883" s="199"/>
       <c r="C883" s="199"/>
@@ -30100,7 +30109,7 @@
       <c r="V883" s="148"/>
       <c r="W883" s="118"/>
     </row>
-    <row r="884" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="199"/>
       <c r="B884" s="199"/>
       <c r="C884" s="199"/>
@@ -30115,7 +30124,7 @@
       <c r="V884" s="148"/>
       <c r="W884" s="118"/>
     </row>
-    <row r="885" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="199"/>
       <c r="B885" s="199"/>
       <c r="C885" s="199"/>
@@ -30130,7 +30139,7 @@
       <c r="V885" s="148"/>
       <c r="W885" s="118"/>
     </row>
-    <row r="886" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="199"/>
       <c r="B886" s="199"/>
       <c r="C886" s="199"/>
@@ -30145,7 +30154,7 @@
       <c r="V886" s="148"/>
       <c r="W886" s="118"/>
     </row>
-    <row r="887" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="199"/>
       <c r="B887" s="199"/>
       <c r="C887" s="199"/>
@@ -30160,7 +30169,7 @@
       <c r="V887" s="148"/>
       <c r="W887" s="118"/>
     </row>
-    <row r="888" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="199"/>
       <c r="B888" s="199"/>
       <c r="C888" s="199"/>
@@ -30175,7 +30184,7 @@
       <c r="V888" s="148"/>
       <c r="W888" s="118"/>
     </row>
-    <row r="889" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="199"/>
       <c r="B889" s="199"/>
       <c r="C889" s="199"/>
@@ -30190,7 +30199,7 @@
       <c r="V889" s="148"/>
       <c r="W889" s="118"/>
     </row>
-    <row r="890" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="199"/>
       <c r="B890" s="199"/>
       <c r="C890" s="199"/>
@@ -30205,7 +30214,7 @@
       <c r="V890" s="148"/>
       <c r="W890" s="118"/>
     </row>
-    <row r="891" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="199"/>
       <c r="B891" s="199"/>
       <c r="C891" s="199"/>
@@ -30220,7 +30229,7 @@
       <c r="V891" s="148"/>
       <c r="W891" s="118"/>
     </row>
-    <row r="892" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="199"/>
       <c r="B892" s="199"/>
       <c r="C892" s="199"/>
@@ -30235,7 +30244,7 @@
       <c r="V892" s="148"/>
       <c r="W892" s="118"/>
     </row>
-    <row r="893" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="199"/>
       <c r="B893" s="199"/>
       <c r="C893" s="199"/>
@@ -30250,7 +30259,7 @@
       <c r="V893" s="148"/>
       <c r="W893" s="118"/>
     </row>
-    <row r="894" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="199"/>
       <c r="B894" s="199"/>
       <c r="C894" s="199"/>
@@ -30265,7 +30274,7 @@
       <c r="V894" s="148"/>
       <c r="W894" s="118"/>
     </row>
-    <row r="895" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="199"/>
       <c r="B895" s="199"/>
       <c r="C895" s="199"/>
@@ -30280,7 +30289,7 @@
       <c r="V895" s="148"/>
       <c r="W895" s="118"/>
     </row>
-    <row r="896" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="199"/>
       <c r="B896" s="199"/>
       <c r="C896" s="199"/>
@@ -30295,7 +30304,7 @@
       <c r="V896" s="148"/>
       <c r="W896" s="118"/>
     </row>
-    <row r="897" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="199"/>
       <c r="B897" s="199"/>
       <c r="C897" s="199"/>
@@ -30310,7 +30319,7 @@
       <c r="V897" s="148"/>
       <c r="W897" s="118"/>
     </row>
-    <row r="898" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="199"/>
       <c r="B898" s="199"/>
       <c r="C898" s="199"/>
@@ -30325,7 +30334,7 @@
       <c r="V898" s="148"/>
       <c r="W898" s="118"/>
     </row>
-    <row r="899" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="199"/>
       <c r="B899" s="199"/>
       <c r="C899" s="199"/>
@@ -30340,7 +30349,7 @@
       <c r="V899" s="148"/>
       <c r="W899" s="118"/>
     </row>
-    <row r="900" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="199"/>
       <c r="B900" s="199"/>
       <c r="C900" s="199"/>
@@ -30355,7 +30364,7 @@
       <c r="V900" s="148"/>
       <c r="W900" s="118"/>
     </row>
-    <row r="901" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="199"/>
       <c r="B901" s="199"/>
       <c r="C901" s="199"/>
@@ -30370,7 +30379,7 @@
       <c r="V901" s="148"/>
       <c r="W901" s="118"/>
     </row>
-    <row r="902" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="199"/>
       <c r="B902" s="199"/>
       <c r="C902" s="199"/>
@@ -30385,7 +30394,7 @@
       <c r="V902" s="148"/>
       <c r="W902" s="118"/>
     </row>
-    <row r="903" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="199"/>
       <c r="B903" s="199"/>
       <c r="C903" s="199"/>
@@ -30400,7 +30409,7 @@
       <c r="V903" s="148"/>
       <c r="W903" s="118"/>
     </row>
-    <row r="904" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="199"/>
       <c r="B904" s="199"/>
       <c r="C904" s="199"/>
@@ -30415,7 +30424,7 @@
       <c r="V904" s="148"/>
       <c r="W904" s="118"/>
     </row>
-    <row r="905" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="199"/>
       <c r="B905" s="199"/>
       <c r="C905" s="199"/>
@@ -30430,7 +30439,7 @@
       <c r="V905" s="148"/>
       <c r="W905" s="118"/>
     </row>
-    <row r="906" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="199"/>
       <c r="B906" s="199"/>
       <c r="C906" s="199"/>
@@ -30445,7 +30454,7 @@
       <c r="V906" s="148"/>
       <c r="W906" s="118"/>
     </row>
-    <row r="907" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="199"/>
       <c r="B907" s="199"/>
       <c r="C907" s="199"/>
@@ -30460,7 +30469,7 @@
       <c r="V907" s="148"/>
       <c r="W907" s="118"/>
     </row>
-    <row r="908" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="199"/>
       <c r="B908" s="199"/>
       <c r="C908" s="199"/>
@@ -30475,7 +30484,7 @@
       <c r="V908" s="148"/>
       <c r="W908" s="118"/>
     </row>
-    <row r="909" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="199"/>
       <c r="B909" s="199"/>
       <c r="C909" s="199"/>
@@ -30490,7 +30499,7 @@
       <c r="V909" s="148"/>
       <c r="W909" s="118"/>
     </row>
-    <row r="910" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="199"/>
       <c r="B910" s="199"/>
       <c r="C910" s="199"/>
@@ -30505,7 +30514,7 @@
       <c r="V910" s="148"/>
       <c r="W910" s="118"/>
     </row>
-    <row r="911" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="199"/>
       <c r="B911" s="199"/>
       <c r="C911" s="199"/>
@@ -30520,7 +30529,7 @@
       <c r="V911" s="148"/>
       <c r="W911" s="118"/>
     </row>
-    <row r="912" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="199"/>
       <c r="B912" s="199"/>
       <c r="C912" s="199"/>
@@ -30535,7 +30544,7 @@
       <c r="V912" s="148"/>
       <c r="W912" s="118"/>
     </row>
-    <row r="913" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="199"/>
       <c r="B913" s="199"/>
       <c r="C913" s="199"/>
@@ -30550,7 +30559,7 @@
       <c r="V913" s="148"/>
       <c r="W913" s="118"/>
     </row>
-    <row r="914" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="199"/>
       <c r="B914" s="199"/>
       <c r="C914" s="199"/>
@@ -30565,7 +30574,7 @@
       <c r="V914" s="148"/>
       <c r="W914" s="118"/>
     </row>
-    <row r="915" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="199"/>
       <c r="B915" s="199"/>
       <c r="C915" s="199"/>
@@ -30580,7 +30589,7 @@
       <c r="V915" s="148"/>
       <c r="W915" s="118"/>
     </row>
-    <row r="916" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="199"/>
       <c r="B916" s="199"/>
       <c r="C916" s="199"/>
@@ -30595,7 +30604,7 @@
       <c r="V916" s="148"/>
       <c r="W916" s="118"/>
     </row>
-    <row r="917" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="199"/>
       <c r="B917" s="199"/>
       <c r="C917" s="199"/>
@@ -30610,7 +30619,7 @@
       <c r="V917" s="148"/>
       <c r="W917" s="118"/>
     </row>
-    <row r="918" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="199"/>
       <c r="B918" s="199"/>
       <c r="C918" s="199"/>
@@ -30625,7 +30634,7 @@
       <c r="V918" s="148"/>
       <c r="W918" s="118"/>
     </row>
-    <row r="919" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="199"/>
       <c r="B919" s="199"/>
       <c r="C919" s="199"/>
@@ -30640,7 +30649,7 @@
       <c r="V919" s="148"/>
       <c r="W919" s="118"/>
     </row>
-    <row r="920" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="199"/>
       <c r="B920" s="199"/>
       <c r="C920" s="199"/>
@@ -30655,7 +30664,7 @@
       <c r="V920" s="148"/>
       <c r="W920" s="118"/>
     </row>
-    <row r="921" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="199"/>
       <c r="B921" s="199"/>
       <c r="C921" s="199"/>
@@ -30670,7 +30679,7 @@
       <c r="V921" s="148"/>
       <c r="W921" s="118"/>
     </row>
-    <row r="922" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="199"/>
       <c r="B922" s="199"/>
       <c r="C922" s="199"/>
@@ -30685,7 +30694,7 @@
       <c r="V922" s="148"/>
       <c r="W922" s="118"/>
     </row>
-    <row r="923" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="199"/>
       <c r="B923" s="199"/>
       <c r="C923" s="199"/>
@@ -30700,7 +30709,7 @@
       <c r="V923" s="148"/>
       <c r="W923" s="118"/>
     </row>
-    <row r="924" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="199"/>
       <c r="B924" s="199"/>
       <c r="C924" s="199"/>
@@ -30715,7 +30724,7 @@
       <c r="V924" s="148"/>
       <c r="W924" s="118"/>
     </row>
-    <row r="925" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="199"/>
       <c r="B925" s="199"/>
       <c r="C925" s="199"/>
@@ -30730,7 +30739,7 @@
       <c r="V925" s="148"/>
       <c r="W925" s="118"/>
     </row>
-    <row r="926" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="199"/>
       <c r="B926" s="199"/>
       <c r="C926" s="199"/>
@@ -30745,7 +30754,7 @@
       <c r="V926" s="148"/>
       <c r="W926" s="118"/>
     </row>
-    <row r="927" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="199"/>
       <c r="B927" s="199"/>
       <c r="C927" s="199"/>
@@ -30760,7 +30769,7 @@
       <c r="V927" s="148"/>
       <c r="W927" s="118"/>
     </row>
-    <row r="928" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="199"/>
       <c r="B928" s="199"/>
       <c r="C928" s="199"/>
@@ -30775,7 +30784,7 @@
       <c r="V928" s="148"/>
       <c r="W928" s="118"/>
     </row>
-    <row r="929" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="199"/>
       <c r="B929" s="199"/>
       <c r="C929" s="199"/>
@@ -30790,7 +30799,7 @@
       <c r="V929" s="148"/>
       <c r="W929" s="118"/>
     </row>
-    <row r="930" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="199"/>
       <c r="B930" s="199"/>
       <c r="C930" s="199"/>
@@ -30805,7 +30814,7 @@
       <c r="V930" s="148"/>
       <c r="W930" s="118"/>
     </row>
-    <row r="931" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="199"/>
       <c r="B931" s="199"/>
       <c r="C931" s="199"/>
@@ -30820,7 +30829,7 @@
       <c r="V931" s="148"/>
       <c r="W931" s="118"/>
     </row>
-    <row r="932" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="199"/>
       <c r="B932" s="199"/>
       <c r="C932" s="199"/>
@@ -30835,7 +30844,7 @@
       <c r="V932" s="148"/>
       <c r="W932" s="118"/>
     </row>
-    <row r="933" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="199"/>
       <c r="B933" s="199"/>
       <c r="C933" s="199"/>
@@ -30850,7 +30859,7 @@
       <c r="V933" s="148"/>
       <c r="W933" s="118"/>
     </row>
-    <row r="934" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="199"/>
       <c r="B934" s="199"/>
       <c r="C934" s="199"/>
@@ -30865,7 +30874,7 @@
       <c r="V934" s="148"/>
       <c r="W934" s="118"/>
     </row>
-    <row r="935" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="199"/>
       <c r="B935" s="199"/>
       <c r="C935" s="199"/>
@@ -30880,7 +30889,7 @@
       <c r="V935" s="148"/>
       <c r="W935" s="118"/>
     </row>
-    <row r="936" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="199"/>
       <c r="B936" s="199"/>
       <c r="C936" s="199"/>
@@ -30895,7 +30904,7 @@
       <c r="V936" s="148"/>
       <c r="W936" s="118"/>
     </row>
-    <row r="937" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="199"/>
       <c r="B937" s="199"/>
       <c r="C937" s="199"/>
@@ -30910,7 +30919,7 @@
       <c r="V937" s="148"/>
       <c r="W937" s="118"/>
     </row>
-    <row r="938" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="199"/>
       <c r="B938" s="199"/>
       <c r="C938" s="199"/>
@@ -30925,7 +30934,7 @@
       <c r="V938" s="148"/>
       <c r="W938" s="118"/>
     </row>
-    <row r="939" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="199"/>
       <c r="B939" s="199"/>
       <c r="C939" s="199"/>
@@ -30940,7 +30949,7 @@
       <c r="V939" s="148"/>
       <c r="W939" s="118"/>
     </row>
-    <row r="940" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="199"/>
       <c r="B940" s="199"/>
       <c r="C940" s="199"/>
@@ -30955,7 +30964,7 @@
       <c r="V940" s="148"/>
       <c r="W940" s="118"/>
     </row>
-    <row r="941" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="199"/>
       <c r="B941" s="199"/>
       <c r="C941" s="199"/>
@@ -30970,7 +30979,7 @@
       <c r="V941" s="148"/>
       <c r="W941" s="118"/>
     </row>
-    <row r="942" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="199"/>
       <c r="B942" s="199"/>
       <c r="C942" s="199"/>
@@ -30985,7 +30994,7 @@
       <c r="V942" s="148"/>
       <c r="W942" s="118"/>
     </row>
-    <row r="943" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="199"/>
       <c r="B943" s="199"/>
       <c r="C943" s="199"/>
@@ -31000,7 +31009,7 @@
       <c r="V943" s="148"/>
       <c r="W943" s="118"/>
     </row>
-    <row r="944" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="199"/>
       <c r="B944" s="199"/>
       <c r="C944" s="199"/>
@@ -31015,7 +31024,7 @@
       <c r="V944" s="148"/>
       <c r="W944" s="118"/>
     </row>
-    <row r="945" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="199"/>
       <c r="B945" s="199"/>
       <c r="C945" s="199"/>
@@ -31030,7 +31039,7 @@
       <c r="V945" s="148"/>
       <c r="W945" s="118"/>
     </row>
-    <row r="946" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="199"/>
       <c r="B946" s="199"/>
       <c r="C946" s="199"/>
@@ -31045,7 +31054,7 @@
       <c r="V946" s="148"/>
       <c r="W946" s="118"/>
     </row>
-    <row r="947" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="199"/>
       <c r="B947" s="199"/>
       <c r="C947" s="199"/>
@@ -31060,7 +31069,7 @@
       <c r="V947" s="148"/>
       <c r="W947" s="118"/>
     </row>
-    <row r="948" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="199"/>
       <c r="B948" s="199"/>
       <c r="C948" s="199"/>
@@ -31075,7 +31084,7 @@
       <c r="V948" s="148"/>
       <c r="W948" s="118"/>
     </row>
-    <row r="949" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="199"/>
       <c r="B949" s="199"/>
       <c r="C949" s="199"/>
@@ -31090,7 +31099,7 @@
       <c r="V949" s="148"/>
       <c r="W949" s="118"/>
     </row>
-    <row r="950" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="199"/>
       <c r="B950" s="199"/>
       <c r="C950" s="199"/>
@@ -31105,7 +31114,7 @@
       <c r="V950" s="148"/>
       <c r="W950" s="118"/>
     </row>
-    <row r="951" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="199"/>
       <c r="B951" s="199"/>
       <c r="C951" s="199"/>
@@ -31120,7 +31129,7 @@
       <c r="V951" s="148"/>
       <c r="W951" s="118"/>
     </row>
-    <row r="952" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="199"/>
       <c r="B952" s="199"/>
       <c r="C952" s="199"/>
@@ -31135,7 +31144,7 @@
       <c r="V952" s="148"/>
       <c r="W952" s="118"/>
     </row>
-    <row r="953" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="199"/>
       <c r="B953" s="199"/>
       <c r="C953" s="199"/>
@@ -31150,7 +31159,7 @@
       <c r="V953" s="148"/>
       <c r="W953" s="118"/>
     </row>
-    <row r="954" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="199"/>
       <c r="B954" s="199"/>
       <c r="C954" s="199"/>
@@ -31165,7 +31174,7 @@
       <c r="V954" s="148"/>
       <c r="W954" s="118"/>
     </row>
-    <row r="955" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="199"/>
       <c r="B955" s="199"/>
       <c r="C955" s="199"/>
@@ -31180,7 +31189,7 @@
       <c r="V955" s="148"/>
       <c r="W955" s="118"/>
     </row>
-    <row r="956" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="199"/>
       <c r="B956" s="199"/>
       <c r="C956" s="199"/>
@@ -31195,7 +31204,7 @@
       <c r="V956" s="148"/>
       <c r="W956" s="118"/>
     </row>
-    <row r="957" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="199"/>
       <c r="B957" s="199"/>
       <c r="C957" s="199"/>
@@ -31210,7 +31219,7 @@
       <c r="V957" s="148"/>
       <c r="W957" s="118"/>
     </row>
-    <row r="958" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="199"/>
       <c r="B958" s="199"/>
       <c r="C958" s="199"/>
@@ -31225,7 +31234,7 @@
       <c r="V958" s="148"/>
       <c r="W958" s="118"/>
     </row>
-    <row r="959" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="199"/>
       <c r="B959" s="199"/>
       <c r="C959" s="199"/>
@@ -31240,7 +31249,7 @@
       <c r="V959" s="148"/>
       <c r="W959" s="118"/>
     </row>
-    <row r="960" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="199"/>
       <c r="B960" s="199"/>
       <c r="C960" s="199"/>
@@ -31255,7 +31264,7 @@
       <c r="V960" s="148"/>
       <c r="W960" s="118"/>
     </row>
-    <row r="961" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="199"/>
       <c r="B961" s="199"/>
       <c r="C961" s="199"/>
@@ -31270,7 +31279,7 @@
       <c r="V961" s="148"/>
       <c r="W961" s="118"/>
     </row>
-    <row r="962" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="199"/>
       <c r="B962" s="199"/>
       <c r="C962" s="199"/>
@@ -31285,7 +31294,7 @@
       <c r="V962" s="148"/>
       <c r="W962" s="118"/>
     </row>
-    <row r="963" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="199"/>
       <c r="B963" s="199"/>
       <c r="C963" s="199"/>
@@ -31300,7 +31309,7 @@
       <c r="V963" s="148"/>
       <c r="W963" s="118"/>
     </row>
-    <row r="964" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="199"/>
       <c r="B964" s="199"/>
       <c r="C964" s="199"/>
@@ -31315,7 +31324,7 @@
       <c r="V964" s="148"/>
       <c r="W964" s="118"/>
     </row>
-    <row r="965" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="199"/>
       <c r="B965" s="199"/>
       <c r="C965" s="199"/>
@@ -31330,7 +31339,7 @@
       <c r="V965" s="148"/>
       <c r="W965" s="118"/>
     </row>
-    <row r="966" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="199"/>
       <c r="B966" s="199"/>
       <c r="C966" s="199"/>
@@ -31345,7 +31354,7 @@
       <c r="V966" s="148"/>
       <c r="W966" s="118"/>
     </row>
-    <row r="967" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="199"/>
       <c r="B967" s="199"/>
       <c r="C967" s="199"/>
@@ -31360,7 +31369,7 @@
       <c r="V967" s="148"/>
       <c r="W967" s="118"/>
     </row>
-    <row r="968" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="199"/>
       <c r="B968" s="199"/>
       <c r="C968" s="199"/>
@@ -31375,7 +31384,7 @@
       <c r="V968" s="148"/>
       <c r="W968" s="118"/>
     </row>
-    <row r="969" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="199"/>
       <c r="B969" s="199"/>
       <c r="C969" s="199"/>
@@ -31390,7 +31399,7 @@
       <c r="V969" s="148"/>
       <c r="W969" s="118"/>
     </row>
-    <row r="970" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="199"/>
       <c r="B970" s="199"/>
       <c r="C970" s="199"/>
@@ -31405,7 +31414,7 @@
       <c r="V970" s="148"/>
       <c r="W970" s="118"/>
     </row>
-    <row r="971" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="199"/>
       <c r="B971" s="199"/>
       <c r="C971" s="199"/>
@@ -31420,7 +31429,7 @@
       <c r="V971" s="148"/>
       <c r="W971" s="118"/>
     </row>
-    <row r="972" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="199"/>
       <c r="B972" s="199"/>
       <c r="C972" s="199"/>
@@ -31435,7 +31444,7 @@
       <c r="V972" s="148"/>
       <c r="W972" s="118"/>
     </row>
-    <row r="973" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="199"/>
       <c r="B973" s="199"/>
       <c r="C973" s="199"/>
@@ -31450,7 +31459,7 @@
       <c r="V973" s="148"/>
       <c r="W973" s="118"/>
     </row>
-    <row r="974" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="199"/>
       <c r="B974" s="199"/>
       <c r="C974" s="199"/>
@@ -31465,7 +31474,7 @@
       <c r="V974" s="148"/>
       <c r="W974" s="118"/>
     </row>
-    <row r="975" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="199"/>
       <c r="B975" s="199"/>
       <c r="C975" s="199"/>
@@ -31480,7 +31489,7 @@
       <c r="V975" s="148"/>
       <c r="W975" s="118"/>
     </row>
-    <row r="976" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="199"/>
       <c r="B976" s="199"/>
       <c r="C976" s="199"/>
@@ -31495,7 +31504,7 @@
       <c r="V976" s="148"/>
       <c r="W976" s="118"/>
     </row>
-    <row r="977" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="199"/>
       <c r="B977" s="199"/>
       <c r="C977" s="199"/>
@@ -31510,7 +31519,7 @@
       <c r="V977" s="148"/>
       <c r="W977" s="118"/>
     </row>
-    <row r="978" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="199"/>
       <c r="B978" s="199"/>
       <c r="C978" s="199"/>
@@ -31525,7 +31534,7 @@
       <c r="V978" s="148"/>
       <c r="W978" s="118"/>
     </row>
-    <row r="979" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="199"/>
       <c r="B979" s="199"/>
       <c r="C979" s="199"/>
@@ -31540,7 +31549,7 @@
       <c r="V979" s="148"/>
       <c r="W979" s="118"/>
     </row>
-    <row r="980" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="199"/>
       <c r="B980" s="199"/>
       <c r="C980" s="199"/>
@@ -31555,7 +31564,7 @@
       <c r="V980" s="148"/>
       <c r="W980" s="118"/>
     </row>
-    <row r="981" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="199"/>
       <c r="B981" s="199"/>
       <c r="C981" s="199"/>
@@ -31570,7 +31579,7 @@
       <c r="V981" s="148"/>
       <c r="W981" s="118"/>
     </row>
-    <row r="982" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="199"/>
       <c r="B982" s="199"/>
       <c r="C982" s="199"/>
@@ -31585,7 +31594,7 @@
       <c r="V982" s="148"/>
       <c r="W982" s="118"/>
     </row>
-    <row r="983" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="199"/>
       <c r="B983" s="199"/>
       <c r="C983" s="199"/>
@@ -31600,7 +31609,7 @@
       <c r="V983" s="148"/>
       <c r="W983" s="118"/>
     </row>
-    <row r="984" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="199"/>
       <c r="B984" s="199"/>
       <c r="C984" s="199"/>
@@ -31615,7 +31624,7 @@
       <c r="V984" s="148"/>
       <c r="W984" s="118"/>
     </row>
-    <row r="985" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="199"/>
       <c r="B985" s="199"/>
       <c r="C985" s="199"/>
@@ -31630,7 +31639,7 @@
       <c r="V985" s="148"/>
       <c r="W985" s="118"/>
     </row>
-    <row r="986" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="199"/>
       <c r="B986" s="199"/>
       <c r="C986" s="199"/>
@@ -31645,7 +31654,7 @@
       <c r="V986" s="148"/>
       <c r="W986" s="118"/>
     </row>
-    <row r="987" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="199"/>
       <c r="B987" s="199"/>
       <c r="C987" s="199"/>
@@ -31660,7 +31669,7 @@
       <c r="V987" s="148"/>
       <c r="W987" s="118"/>
     </row>
-    <row r="988" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="199"/>
       <c r="B988" s="199"/>
       <c r="C988" s="199"/>
@@ -31675,7 +31684,7 @@
       <c r="V988" s="148"/>
       <c r="W988" s="118"/>
     </row>
-    <row r="989" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="199"/>
       <c r="B989" s="199"/>
       <c r="C989" s="199"/>
@@ -31690,7 +31699,7 @@
       <c r="V989" s="148"/>
       <c r="W989" s="118"/>
     </row>
-    <row r="990" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="199"/>
       <c r="B990" s="199"/>
       <c r="C990" s="199"/>
@@ -31705,7 +31714,7 @@
       <c r="V990" s="148"/>
       <c r="W990" s="118"/>
     </row>
-    <row r="991" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="199"/>
       <c r="B991" s="199"/>
       <c r="C991" s="199"/>
@@ -31720,7 +31729,7 @@
       <c r="V991" s="148"/>
       <c r="W991" s="118"/>
     </row>
-    <row r="992" spans="1:23" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="199"/>
       <c r="B992" s="199"/>
       <c r="C992" s="199"/>
@@ -31735,7 +31744,7 @@
       <c r="V992" s="148"/>
       <c r="W992" s="118"/>
     </row>
-    <row r="993" spans="1:23" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A993" s="199"/>
       <c r="B993" s="199"/>
       <c r="C993" s="199"/>
@@ -31751,47 +31760,48 @@
       <c r="W993" s="118"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AD313" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" sqref="R2:R260 Z261 R262:R483">
+    <dataValidation type="list" allowBlank="1" sqref="R2:R260 Z261 R262:R483" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Marihuana,Alcohol,Cocaína,Pegamento,Psicofármacos,Otras"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="N2:N260 V261 N262:N483">
+    <dataValidation type="list" allowBlank="1" sqref="N2:N260 V261 N262:N483" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Situación de calle,Refugio,Pensión,Casa/depto,En inst. penal,En inst. de SM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="T2:T260 AB261 T262:T483">
+    <dataValidation type="list" allowBlank="1" sqref="T2:T260 AB261 T262:T483" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Buena,Escasa,Nula"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I93 I100 I124 G2:G483 I126:I483">
+    <dataValidation type="list" allowBlank="1" sqref="I93 I100 I124 G2:G483 I126:I483" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Presente,Ausente,No asignada"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E192:E303 E374:E483">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E192:E303 E374:E483" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Presente (gise),Presente (bruni),Ausente,No asignada"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P2:P260 X261 P262:P483">
+    <dataValidation type="list" allowBlank="1" sqref="P2:P260 X261 P262:P483" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Marihuana,Alcohol,Cocaína,Crack,Psicofármacos,Policonsumo,Marihuana y alcohol,Cocaína y alcohol,Cocaína y marihuana,Crack y alcohol,Crack y marihuana,Alcohol y psicofármacos,Cocaína y psicofármacos"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="O2:O260 W261 O262:O483">
+    <dataValidation type="list" allowBlank="1" sqref="O2:O260 W261 O262:O483" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Referencia sin seguimiento,Referencia con seguimiento,No está referenciado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="U2:U260 AC261 U262:U483">
+    <dataValidation type="list" allowBlank="1" sqref="U2:U260 AC261 U262:U483" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"Esporádico,Estable,No tiene"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E304:E373">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E304:E373" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"Presente,Ausente,No asignada"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E191">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E191" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"GISE,MORE,BRUNO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="M2:M260 U261 M262:M483">
+    <dataValidation type="list" allowBlank="1" sqref="M2:M260 U261 M262:M483" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"Ningún nivel educativo,Primaria incompleta,Primaria en curso,Primaria completa,Secundaria incompleta,Secundaria en curso,Secundaria completa,Nivel superior incompleto,Nivel superior en curso,Nivel superior completo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="S2:S260 AA261 S262:S483">
+    <dataValidation type="list" allowBlank="1" sqref="S2:S260 AA261 S262:S483" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"No,entre 1 y 2,más de 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J483">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J483" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"CENTRO DE DÍA ZEBALLOS,INTERNACIÓN BAIGORRIA,INTERNACIÓN CRISTALERÍA,DERIVADO,RECHAZA TTO.,NO FINALIZÓ ADMISIÓN,ACOMPAÑAMIENTO,CDD BAIGORRIA,CDD BUEN PASTOR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="Q2:Q260 Y261 Q262:Q483">
+    <dataValidation type="list" allowBlank="1" sqref="Q2:Q260 Y261 Q262:Q483" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>"Antes de los 12,entre 13 y 17,de 18 en adelante"</formula1>
     </dataValidation>
   </dataValidations>
